--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2C5C3-7FEA-44A0-BD2D-F157F1968CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415FE5BF-2EDF-440A-AFF7-7EA454EDB70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-12" windowWidth="17280" windowHeight="8832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -277,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +318,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
   </fills>
@@ -468,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,6 +567,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -573,54 +589,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,21 +604,137 @@
   </cellStyles>
   <dxfs count="108">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -814,6 +905,49 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     </dxf>
     <dxf>
@@ -993,194 +1127,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1206,38 +1152,67 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2085,7 +2060,7 @@
                   <c:v>0.15322</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14306000000000002</c:v>
+                  <c:v>0.14287999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.14694000000000002</c:v>
@@ -4154,8 +4129,8 @@
     <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="60">
-      <calculatedColumnFormula>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="0">
+      <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4163,27 +4138,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="50">
       <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="22">
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="49">
       <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="21">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="48">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="20">
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="47">
       <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4192,25 +4167,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="37"/>
     <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media">
       <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="10">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="36">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4219,25 +4194,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="26"/>
     <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media">
       <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="25">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4246,21 +4221,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="51"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="50"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="47"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="46"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="44">
+    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="13">
       <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4269,21 +4244,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="1">
       <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4556,8 +4531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A30"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4582,20 +4557,20 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4877,25 +4852,25 @@
         <v>0.1431</v>
       </c>
       <c r="G9" s="19">
-        <v>0.1431</v>
+        <v>0.14249999999999999</v>
       </c>
       <c r="H9" s="19">
-        <v>0.14319999999999999</v>
+        <v>0.1434</v>
       </c>
       <c r="I9" s="19">
-        <v>0.14280000000000001</v>
+        <v>0.14230000000000001</v>
       </c>
       <c r="J9" s="19">
         <f t="shared" si="0"/>
-        <v>0.14306000000000002</v>
+        <v>0.14287999999999998</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" si="1"/>
-        <v>1.5165750888102621E-4</v>
+        <v>4.6043457732885401E-4</v>
       </c>
       <c r="L9" s="19">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
-        <v>943.30970524004283</v>
+        <v>310.31553022993637</v>
       </c>
       <c r="M9" s="26">
         <f t="shared" si="2"/>
@@ -5141,7 +5116,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="28" t="s">
         <v>4</v>
       </c>
@@ -5181,50 +5156,50 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="28">
+      <c r="A17" s="36"/>
+      <c r="B17" s="27">
         <v>5</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="20">
         <v>5</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="5">
-        <v>0.1195</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="19">
         <v>0.1431</v>
       </c>
-      <c r="H17" s="5">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.1195</v>
-      </c>
-      <c r="K17" s="13">
+      <c r="G17" s="19">
+        <v>0.1431</v>
+      </c>
+      <c r="H17" s="19">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="I17" s="19">
+        <v>0.1434</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="K17" s="43">
         <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
-        <v>0.12757999999999997</v>
-      </c>
-      <c r="L17" s="13">
+        <v>0.14287999999999998</v>
+      </c>
+      <c r="L17" s="43">
         <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
-        <v>1.1359445408997748E-2</v>
-      </c>
-      <c r="M17" s="30">
+        <v>4.6043457732885401E-4</v>
+      </c>
+      <c r="M17" s="44">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>11.231182104977117</v>
+        <v>310.31553022993637</v>
       </c>
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="28">
         <v>5</v>
       </c>
@@ -5244,7 +5219,7 @@
         <v>0.1515</v>
       </c>
       <c r="H18" s="5">
-        <v>0.15190000000000001</v>
+        <v>0.1545</v>
       </c>
       <c r="I18" s="5">
         <v>0.1525</v>
@@ -5254,20 +5229,20 @@
       </c>
       <c r="K18" s="14">
         <f t="shared" si="4"/>
-        <v>0.15204000000000001</v>
+        <v>0.15255999999999997</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="5"/>
-        <v>3.7148351242013473E-4</v>
+        <v>1.1436782764396626E-3</v>
       </c>
       <c r="M18" s="31">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>409.27792194461688</v>
+        <v>133.39415738045508</v>
       </c>
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="28">
         <v>5</v>
       </c>
@@ -5310,7 +5285,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="28">
         <v>5</v>
       </c>
@@ -5353,7 +5328,7 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="28">
         <v>5</v>
       </c>
@@ -5396,7 +5371,7 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="28">
         <v>5</v>
       </c>
@@ -5410,43 +5385,43 @@
         <v>42</v>
       </c>
       <c r="F22" s="5">
-        <v>0.23330000000000001</v>
+        <v>0.2366</v>
       </c>
       <c r="G22" s="5">
-        <v>0.2329</v>
+        <v>0.23469999999999999</v>
       </c>
       <c r="H22" s="5">
-        <v>0.23369999999999999</v>
+        <v>0.2346</v>
       </c>
       <c r="I22" s="5">
-        <v>0.25330000000000003</v>
+        <v>0.2366</v>
       </c>
       <c r="J22" s="5">
         <v>0.23219999999999999</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="4"/>
-        <v>0.23708000000000001</v>
+        <v>0.23494000000000001</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>9.0841620417075469E-3</v>
+        <v>1.816039647144308E-3</v>
       </c>
       <c r="M22" s="6">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>26.098169419645906</v>
+        <v>129.36942228625858</v>
       </c>
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="7"/>
       <c r="L23" s="1"/>
       <c r="M23" s="4"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -5486,50 +5461,50 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="3">
+      <c r="A25" s="37"/>
+      <c r="B25" s="27">
         <v>5</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="20">
         <v>0</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="20">
         <v>5</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="5">
-        <v>0.1195</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="19">
         <v>0.1431</v>
       </c>
-      <c r="H25" s="5">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="I25" s="5">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0.1195</v>
-      </c>
-      <c r="K25" s="13">
-        <f t="shared" ref="K25:K30" si="6">AVERAGE(F25:J25)</f>
-        <v>0.12757999999999997</v>
-      </c>
-      <c r="L25" s="13">
-        <f t="shared" ref="L25:L30" si="7">STDEV(F25:J25)</f>
-        <v>1.1359445408997748E-2</v>
-      </c>
-      <c r="M25" s="30">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>11.231182104977117</v>
+      <c r="G25" s="19">
+        <v>0.1431</v>
+      </c>
+      <c r="H25" s="19">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0.1434</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="K25" s="43">
+        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
+        <v>0.14287999999999998</v>
+      </c>
+      <c r="L25" s="43">
+        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
+        <v>4.6043457732885401E-4</v>
+      </c>
+      <c r="M25" s="44" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="3">
         <v>4</v>
       </c>
@@ -5558,21 +5533,21 @@
         <v>0.14729999999999999</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K25:K30" si="8">AVERAGE(F26:J26)</f>
         <v>0.14687999999999998</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="L25:L30" si="9">STDEV(F26:J26)</f>
         <v>4.9699094559156631E-4</v>
       </c>
-      <c r="M26" s="31">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>295.53858335420841</v>
+      <c r="M26" s="31" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -5592,29 +5567,29 @@
         <v>0.15179999999999999</v>
       </c>
       <c r="H27" s="5">
-        <v>0.1497</v>
+        <v>0.15290000000000001</v>
       </c>
       <c r="I27" s="5">
-        <v>0.14960000000000001</v>
+        <v>0.1515</v>
       </c>
       <c r="J27" s="5">
-        <v>0.15490000000000001</v>
+        <v>0.15179999999999999</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="6"/>
-        <v>0.15162</v>
+        <f t="shared" si="8"/>
+        <v>0.15201999999999999</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="7"/>
-        <v>2.1672563300172889E-3</v>
-      </c>
-      <c r="M27" s="30">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>69.959421919783011</v>
+        <f t="shared" si="9"/>
+        <v>5.3572380943916174E-4</v>
+      </c>
+      <c r="M27" s="30" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="3">
         <v>2</v>
       </c>
@@ -5628,35 +5603,35 @@
         <v>45</v>
       </c>
       <c r="F28" s="5">
-        <v>0.13469999999999999</v>
+        <v>0.15620000000000001</v>
       </c>
       <c r="G28" s="5">
         <v>0.1555</v>
       </c>
       <c r="H28" s="5">
-        <v>0.15310000000000001</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="I28" s="5">
-        <v>0.15340000000000001</v>
+        <v>0.15529999999999999</v>
       </c>
       <c r="J28" s="5">
-        <v>0.1585</v>
+        <v>0.15440000000000001</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="6"/>
-        <v>0.15104000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.15514</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="7"/>
-        <v>9.385520763388687E-3</v>
-      </c>
-      <c r="M28" s="31">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>16.092873672943249</v>
+        <f t="shared" si="9"/>
+        <v>7.9561297123664461E-4</v>
+      </c>
+      <c r="M28" s="31" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="3">
         <v>1</v>
       </c>
@@ -5670,7 +5645,7 @@
         <v>46</v>
       </c>
       <c r="F29" s="5">
-        <v>0.16059999999999999</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="G29" s="5">
         <v>0.16009999999999999</v>
@@ -5685,20 +5660,20 @@
         <v>0.16159999999999999</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="6"/>
-        <v>0.16084000000000001</v>
+        <f t="shared" si="8"/>
+        <v>0.16099999999999998</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="7"/>
-        <v>5.5946402922797493E-4</v>
-      </c>
-      <c r="M29" s="30">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>287.48943917261147</v>
+        <f t="shared" si="9"/>
+        <v>5.8736700622353556E-4</v>
+      </c>
+      <c r="M29" s="30" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="8">
         <v>0</v>
       </c>
@@ -5712,7 +5687,7 @@
         <v>47</v>
       </c>
       <c r="F30" s="10">
-        <v>0.16789999999999999</v>
+        <v>0.16889999999999999</v>
       </c>
       <c r="G30" s="10">
         <v>0.16750000000000001</v>
@@ -5727,67 +5702,67 @@
         <v>0.16819999999999999</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="6"/>
-        <v>0.16818000000000002</v>
+        <f t="shared" si="8"/>
+        <v>0.16838000000000003</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="7"/>
-        <v>6.7601775124622268E-4</v>
-      </c>
-      <c r="M30" s="11">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>248.78044946299735</v>
+        <f t="shared" si="9"/>
+        <v>7.190271204898991E-4</v>
+      </c>
+      <c r="M30" s="11" t="e">
+        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="38" t="s">
+      <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="38" t="s">
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="38" t="s">
+      <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="38" t="s">
+      <c r="K35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="38" t="s">
+      <c r="L35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="M35" s="24" t="s">
@@ -5798,36 +5773,36 @@
       <c r="B36" s="25">
         <v>10</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="5">
         <v>0.1245</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="5">
         <v>0.12379999999999999</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="5">
         <v>0.1241</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="5">
         <v>0.1246</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="5">
         <v>0.12429999999999999</v>
       </c>
-      <c r="J36" s="40">
-        <f t="shared" ref="J36:J46" si="8">AVERAGE(E36:I36)</f>
+      <c r="J36" s="5">
+        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
-      <c r="K36" s="40">
-        <f t="shared" ref="K36:K46" si="9">STDEV(E36:I36)</f>
+      <c r="K36" s="5">
+        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
-      <c r="L36" s="40">
+      <c r="L36" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>387.17984080555027</v>
       </c>
@@ -5839,36 +5814,36 @@
       <c r="B37" s="3">
         <v>9</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="5">
         <v>8.0659999999999996E-2</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="5">
         <v>9.8790000000000003E-2</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="5">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="H37" s="40">
+      <c r="H37" s="5">
         <v>9.5829999999999999E-2</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="5">
         <v>9.7530000000000006E-2</v>
       </c>
-      <c r="J37" s="40">
-        <f t="shared" si="8"/>
+      <c r="J37" s="5">
+        <f t="shared" si="10"/>
         <v>9.2901999999999998E-2</v>
       </c>
-      <c r="K37" s="40">
-        <f t="shared" si="9"/>
+      <c r="K37" s="5">
+        <f t="shared" si="11"/>
         <v>7.347984077282696E-3</v>
       </c>
-      <c r="L37" s="40">
+      <c r="L37" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>12.643195606155341</v>
       </c>
@@ -5881,41 +5856,41 @@
       <c r="B38" s="25">
         <v>8</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="40">
+      <c r="E38" s="5">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="F38" s="40">
+      <c r="F38" s="5">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="5">
         <v>8.1860000000000002E-2</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="5">
         <v>8.1739999999999993E-2</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="5">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="J38" s="40">
-        <f t="shared" si="8"/>
+      <c r="J38" s="5">
+        <f t="shared" si="10"/>
         <v>8.1788E-2</v>
       </c>
-      <c r="K38" s="40">
-        <f t="shared" si="9"/>
+      <c r="K38" s="5">
+        <f t="shared" si="11"/>
         <v>4.5497252664312712E-5</v>
       </c>
-      <c r="L38" s="40">
+      <c r="L38" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1797.6470052696861</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" ref="M38:M39" si="10">M37/2</f>
+        <f t="shared" ref="M38:M39" si="12">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
@@ -5926,41 +5901,41 @@
       <c r="B39" s="27">
         <v>7</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="20">
         <v>3</v>
       </c>
-      <c r="D39" s="46" t="s">
+      <c r="D39" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="47">
+      <c r="E39" s="19">
         <v>8.158E-2</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="19">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G39" s="47">
+      <c r="G39" s="19">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="19">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="I39" s="47">
+      <c r="I39" s="19">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J39" s="47">
-        <f t="shared" si="8"/>
+      <c r="J39" s="19">
+        <f t="shared" si="10"/>
         <v>8.1566E-2</v>
       </c>
-      <c r="K39" s="47">
-        <f t="shared" si="9"/>
+      <c r="K39" s="19">
+        <f t="shared" si="11"/>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="L39" s="47">
+      <c r="L39" s="19">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -5968,36 +5943,36 @@
       <c r="B40" s="25">
         <v>6</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="40">
+      <c r="E40" s="5">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="F40" s="40">
+      <c r="F40" s="5">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="5">
         <v>9.2520000000000005E-2</v>
       </c>
-      <c r="H40" s="40">
+      <c r="H40" s="5">
         <v>9.2549999999999993E-2</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="5">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="J40" s="40">
-        <f t="shared" si="8"/>
+      <c r="J40" s="5">
+        <f t="shared" si="10"/>
         <v>9.2508000000000007E-2</v>
       </c>
-      <c r="K40" s="40">
-        <f t="shared" si="9"/>
+      <c r="K40" s="5">
+        <f t="shared" si="11"/>
         <v>2.6832815729994057E-5</v>
       </c>
-      <c r="L40" s="40">
+      <c r="L40" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>3447.5696077096154</v>
       </c>
@@ -6010,41 +5985,41 @@
       <c r="B41" s="3">
         <v>5</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="5">
         <v>0.1183</v>
       </c>
-      <c r="F41" s="48">
+      <c r="F41" s="5">
         <v>0.1182</v>
       </c>
-      <c r="G41" s="48">
+      <c r="G41" s="5">
         <v>0.1182</v>
       </c>
-      <c r="H41" s="48">
+      <c r="H41" s="5">
         <v>0.1183</v>
       </c>
-      <c r="I41" s="48">
+      <c r="I41" s="5">
         <v>0.1183</v>
       </c>
-      <c r="J41" s="40">
-        <f t="shared" si="8"/>
+      <c r="J41" s="5">
+        <f t="shared" si="10"/>
         <v>0.11826</v>
       </c>
-      <c r="K41" s="40">
-        <f t="shared" si="9"/>
+      <c r="K41" s="5">
+        <f t="shared" si="11"/>
         <v>5.4772255750518179E-5</v>
       </c>
-      <c r="L41" s="40">
+      <c r="L41" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2159.1223216853032</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" ref="M41:M46" si="11">M40</f>
+        <f t="shared" ref="M41:M46" si="13">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6052,41 +6027,41 @@
       <c r="B42" s="25">
         <v>4</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="1">
         <v>6</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F42" s="48">
+      <c r="F42" s="5">
         <v>0.1331</v>
       </c>
-      <c r="G42" s="48">
+      <c r="G42" s="5">
         <v>0.1331</v>
       </c>
-      <c r="H42" s="48">
+      <c r="H42" s="5">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I42" s="48">
+      <c r="I42" s="5">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J42" s="40">
-        <f t="shared" si="8"/>
+      <c r="J42" s="5">
+        <f t="shared" si="10"/>
         <v>0.13302</v>
       </c>
-      <c r="K42" s="40">
-        <f t="shared" si="9"/>
+      <c r="K42" s="5">
+        <f t="shared" si="11"/>
         <v>8.366600265340829E-5</v>
       </c>
-      <c r="L42" s="40">
+      <c r="L42" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1589.8930961365963</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
       <c r="O42" s="12"/>
@@ -6095,41 +6070,41 @@
       <c r="B43" s="3">
         <v>3</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="1">
         <v>7</v>
       </c>
-      <c r="D43" s="38" t="s">
+      <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="5">
         <v>0.1414</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F43" s="5">
         <v>0.14149999999999999</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="5">
         <v>0.14130000000000001</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="5">
         <v>0.1414</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="5">
         <v>0.1414</v>
       </c>
-      <c r="J43" s="40">
-        <f t="shared" si="8"/>
+      <c r="J43" s="5">
+        <f t="shared" si="10"/>
         <v>0.1414</v>
       </c>
-      <c r="K43" s="40">
-        <f t="shared" si="9"/>
+      <c r="K43" s="5">
+        <f t="shared" si="11"/>
         <v>7.0710678118646961E-5</v>
       </c>
-      <c r="L43" s="40">
+      <c r="L43" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1999.6979771957767</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6137,41 +6112,41 @@
       <c r="B44" s="25">
         <v>2</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="1">
         <v>8</v>
       </c>
-      <c r="D44" s="38" t="s">
+      <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="5">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F44" s="48">
+      <c r="F44" s="5">
         <v>0.2427</v>
       </c>
-      <c r="G44" s="48">
+      <c r="G44" s="5">
         <v>0.2442</v>
       </c>
-      <c r="H44" s="48">
+      <c r="H44" s="5">
         <v>0.24149999999999999</v>
       </c>
-      <c r="I44" s="48">
+      <c r="I44" s="5">
         <v>0.24249999999999999</v>
       </c>
-      <c r="J44" s="40">
-        <f t="shared" si="8"/>
+      <c r="J44" s="5">
+        <f t="shared" si="10"/>
         <v>0.24237999999999998</v>
       </c>
-      <c r="K44" s="40">
-        <f t="shared" si="9"/>
+      <c r="K44" s="5">
+        <f t="shared" si="11"/>
         <v>1.2357184145265492E-3</v>
       </c>
-      <c r="L44" s="40">
+      <c r="L44" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>196.14500937324382</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6179,41 +6154,41 @@
       <c r="B45" s="3">
         <v>1</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F45" s="48">
+      <c r="F45" s="5">
         <v>0.47660000000000002</v>
       </c>
-      <c r="G45" s="48">
+      <c r="G45" s="5">
         <v>0.47389999999999999</v>
       </c>
-      <c r="H45" s="48">
+      <c r="H45" s="5">
         <v>0.47420000000000001</v>
       </c>
-      <c r="I45" s="48">
+      <c r="I45" s="5">
         <v>0.47689999999999999</v>
       </c>
-      <c r="J45" s="40">
-        <f t="shared" si="8"/>
+      <c r="J45" s="5">
+        <f t="shared" si="10"/>
         <v>0.47531999999999996</v>
       </c>
-      <c r="K45" s="40">
-        <f t="shared" si="9"/>
+      <c r="K45" s="5">
+        <f t="shared" si="11"/>
         <v>1.3700364958642577E-3</v>
       </c>
-      <c r="L45" s="40">
+      <c r="L45" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>346.93966287383802</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6221,69 +6196,69 @@
       <c r="B46" s="25">
         <v>0</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="1">
         <v>10</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="5">
         <v>1.0209999999999999</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="5">
         <v>1.02</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="5">
         <v>1.0209999999999999</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="5">
         <v>1.016</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="5">
         <v>1.0209999999999999</v>
       </c>
-      <c r="J46" s="40">
-        <f t="shared" si="8"/>
+      <c r="J46" s="5">
+        <f t="shared" si="10"/>
         <v>1.0197999999999998</v>
       </c>
-      <c r="K46" s="40">
-        <f t="shared" si="9"/>
+      <c r="K46" s="5">
+        <f t="shared" si="11"/>
         <v>2.167948338867836E-3</v>
       </c>
-      <c r="L46" s="40">
+      <c r="L46" s="5">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>470.39866297393797</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="40"/>
-      <c r="L47" s="38"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="1"/>
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="42" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="39" t="s">
+      <c r="C48" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="38" t="s">
+      <c r="D48" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="16" t="s">
@@ -6315,82 +6290,82 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="28">
+      <c r="A49" s="42"/>
+      <c r="B49" s="27">
         <v>7</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="20">
         <v>0</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="20">
         <v>3</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F49" s="48">
+      <c r="F49" s="19">
         <v>8.158E-2</v>
       </c>
-      <c r="G49" s="48">
+      <c r="G49" s="19">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H49" s="48">
+      <c r="H49" s="19">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I49" s="48">
+      <c r="I49" s="19">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J49" s="48">
+      <c r="J49" s="19">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K49" s="13">
-        <f t="shared" ref="K49:K52" si="12">AVERAGE(F49:J49)</f>
+      <c r="K49" s="43">
+        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L49" s="13">
-        <f t="shared" ref="L49:L52" si="13">STDEV(F49:J49)</f>
+      <c r="L49" s="43">
+        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="44">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
+      <c r="A50" s="42"/>
       <c r="B50" s="28">
         <v>7</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="22">
         <v>1</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="1">
         <v>2</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="40">
+      <c r="F50" s="5">
         <v>8.1780000000000005E-2</v>
       </c>
-      <c r="G50" s="40">
+      <c r="G50" s="5">
         <v>8.1850000000000006E-2</v>
       </c>
-      <c r="H50" s="40">
+      <c r="H50" s="5">
         <v>8.1780000000000005E-2</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="5">
         <v>8.183E-2</v>
       </c>
-      <c r="J50" s="40">
+      <c r="J50" s="5">
         <v>0.1522</v>
       </c>
       <c r="K50" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.5888000000000001E-2</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.1479380076488157E-2</v>
       </c>
       <c r="M50" s="31">
@@ -6399,40 +6374,40 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
+      <c r="A51" s="42"/>
       <c r="B51" s="28">
         <v>7</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="22">
         <v>2</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="38" t="s">
+      <c r="E51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F51" s="40">
+      <c r="F51" s="5">
         <v>9.6310000000000007E-2</v>
       </c>
-      <c r="G51" s="40">
+      <c r="G51" s="5">
         <v>9.8640000000000005E-2</v>
       </c>
-      <c r="H51" s="40">
+      <c r="H51" s="5">
         <v>9.7259999999999999E-2</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="5">
         <v>9.8580000000000001E-2</v>
       </c>
-      <c r="J51" s="40">
+      <c r="J51" s="5">
         <v>9.8250000000000004E-2</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.7808000000000006E-2</v>
       </c>
       <c r="L51" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0034789484588097E-3</v>
       </c>
       <c r="M51" s="30">
@@ -6441,40 +6416,40 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
+      <c r="A52" s="42"/>
       <c r="B52" s="28">
         <v>7</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="22">
         <v>3</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="1">
         <v>0</v>
       </c>
-      <c r="E52" s="38" t="s">
+      <c r="E52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="5">
         <v>0.1242</v>
       </c>
-      <c r="G52" s="40">
+      <c r="G52" s="5">
         <v>0.1242</v>
       </c>
-      <c r="H52" s="40">
+      <c r="H52" s="5">
         <v>0.1239</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="5">
         <v>0.12429999999999999</v>
       </c>
-      <c r="J52" s="40">
+      <c r="J52" s="5">
         <v>0.12429999999999999</v>
       </c>
       <c r="K52" s="14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.12418</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.6431676725154947E-4</v>
       </c>
       <c r="M52" s="31">
@@ -6483,44 +6458,25 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
+      <c r="A53" s="42"/>
       <c r="B53" s="7"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="38"/>
+      <c r="L53" s="1"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
+      <c r="A54" s="42"/>
       <c r="B54" s="7"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="49"/>
-      <c r="L54" s="49"/>
       <c r="M54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
+      <c r="A55" s="42"/>
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="39" t="s">
+      <c r="C55" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="39" t="s">
+      <c r="D55" s="22" t="s">
         <v>23</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -6552,81 +6508,81 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
-      <c r="B56" s="52">
+      <c r="A56" s="42"/>
+      <c r="B56" s="27">
         <v>7</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="20">
         <v>3</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="20">
         <v>0</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="19">
         <v>8.158E-2</v>
       </c>
-      <c r="G56" s="48">
+      <c r="G56" s="19">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H56" s="48">
+      <c r="H56" s="19">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I56" s="48">
+      <c r="I56" s="19">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J56" s="48">
+      <c r="J56" s="19">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K56" s="13">
-        <f t="shared" ref="K56:K61" si="14">AVERAGE(F56:J56)</f>
+      <c r="K56" s="43">
+        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L56" s="13">
-        <f t="shared" ref="L56:L61" si="15">STDEV(F56:J56)</f>
+      <c r="L56" s="43">
+        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="44">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="52">
+      <c r="B57" s="3">
         <v>6</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="22">
         <v>3</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="22">
         <v>1</v>
       </c>
-      <c r="E57" s="38" t="s">
+      <c r="E57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F57" s="40">
+      <c r="F57" s="5">
         <v>9.2329999999999995E-2</v>
       </c>
-      <c r="G57" s="40">
+      <c r="G57" s="5">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="H57" s="40">
+      <c r="H57" s="5">
         <v>9.2299999999999993E-2</v>
       </c>
-      <c r="I57" s="40">
+      <c r="I57" s="5">
         <v>9.2280000000000001E-2</v>
       </c>
-      <c r="J57" s="40">
+      <c r="J57" s="5">
         <v>9.2340000000000005E-2</v>
       </c>
       <c r="K57" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>9.2310000000000003E-2</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.4494897427833618E-5</v>
       </c>
       <c r="M57" s="31">
@@ -6635,39 +6591,39 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="52">
+      <c r="B58" s="3">
         <v>5</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="22">
         <v>3</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="22">
         <v>2</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F58" s="40">
+      <c r="F58" s="5">
         <v>0.11840000000000001</v>
       </c>
-      <c r="G58" s="40">
+      <c r="G58" s="5">
         <v>0.11849999999999999</v>
       </c>
-      <c r="H58" s="40">
+      <c r="H58" s="5">
         <v>0.1183</v>
       </c>
-      <c r="I58" s="40">
+      <c r="I58" s="5">
         <v>0.11849999999999999</v>
       </c>
-      <c r="J58" s="40">
+      <c r="J58" s="5">
         <v>0.1182</v>
       </c>
       <c r="K58" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.11838</v>
       </c>
       <c r="L58" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3038404810405033E-4</v>
       </c>
       <c r="M58" s="30">
@@ -6676,39 +6632,39 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="52">
+      <c r="B59" s="3">
         <v>4</v>
       </c>
-      <c r="C59" s="39">
+      <c r="C59" s="22">
         <v>3</v>
       </c>
-      <c r="D59" s="39">
+      <c r="D59" s="22">
         <v>3</v>
       </c>
-      <c r="E59" s="38" t="s">
+      <c r="E59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F59" s="40">
+      <c r="F59" s="5">
         <v>0.1333</v>
       </c>
-      <c r="G59" s="40">
+      <c r="G59" s="5">
         <v>0.1331</v>
       </c>
-      <c r="H59" s="40">
+      <c r="H59" s="5">
         <v>0.13320000000000001</v>
       </c>
-      <c r="I59" s="40">
+      <c r="I59" s="5">
         <v>0.1331</v>
       </c>
-      <c r="J59" s="40">
+      <c r="J59" s="5">
         <v>0.13320000000000001</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.13317999999999999</v>
       </c>
       <c r="L59" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.3666002653411611E-5</v>
       </c>
       <c r="M59" s="31">
@@ -6717,80 +6673,80 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="52">
+      <c r="B60" s="3">
         <v>3</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="22">
         <v>3</v>
       </c>
-      <c r="D60" s="39">
+      <c r="D60" s="22">
         <v>4</v>
       </c>
-      <c r="E60" s="38" t="s">
+      <c r="E60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F60" s="40">
+      <c r="F60" s="5">
         <v>0.1414</v>
       </c>
-      <c r="G60" s="40">
+      <c r="G60" s="5">
         <v>0.14130000000000001</v>
       </c>
-      <c r="H60" s="40">
+      <c r="H60" s="5">
         <v>0.14130000000000001</v>
       </c>
-      <c r="I60" s="40">
+      <c r="I60" s="5">
         <v>0.14149999999999999</v>
       </c>
-      <c r="J60" s="40">
+      <c r="J60" s="5">
         <v>0.1414</v>
       </c>
-      <c r="K60" s="43">
-        <f t="shared" si="14"/>
+      <c r="K60" s="34">
+        <f t="shared" si="16"/>
         <v>0.14138000000000001</v>
       </c>
-      <c r="L60" s="43">
-        <f t="shared" si="15"/>
+      <c r="L60" s="34">
+        <f t="shared" si="17"/>
         <v>8.3666002653398329E-5</v>
       </c>
-      <c r="M60" s="44">
+      <c r="M60" s="35">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>1689.8142078771521</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="52">
+      <c r="B61" s="3">
         <v>2</v>
       </c>
-      <c r="C61" s="39">
+      <c r="C61" s="22">
         <v>3</v>
       </c>
-      <c r="D61" s="39">
+      <c r="D61" s="22">
         <v>5</v>
       </c>
-      <c r="E61" s="38" t="s">
+      <c r="E61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F61" s="40">
+      <c r="F61" s="5">
         <v>0.2409</v>
       </c>
-      <c r="G61" s="40">
+      <c r="G61" s="5">
         <v>0.24</v>
       </c>
-      <c r="H61" s="40">
+      <c r="H61" s="5">
         <v>0.2407</v>
       </c>
-      <c r="I61" s="40">
+      <c r="I61" s="5">
         <v>0.2394</v>
       </c>
-      <c r="J61" s="40">
+      <c r="J61" s="5">
         <v>0.24049999999999999</v>
       </c>
-      <c r="K61" s="40">
-        <f t="shared" si="14"/>
+      <c r="K61" s="5">
+        <f t="shared" si="16"/>
         <v>0.24030000000000001</v>
       </c>
-      <c r="L61" s="40">
-        <f t="shared" si="15"/>
+      <c r="L61" s="5">
+        <f t="shared" si="17"/>
         <v>6.0415229867972868E-4</v>
       </c>
       <c r="M61" s="6">
@@ -6799,38 +6755,38 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="52">
+      <c r="B62" s="3">
         <v>1</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="22">
         <v>3</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="22">
         <v>6</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F62" s="42">
+      <c r="F62" s="5">
         <v>0.47749999999999998</v>
       </c>
-      <c r="G62" s="42">
+      <c r="G62" s="5">
         <v>0.47499999999999998</v>
       </c>
-      <c r="H62" s="42">
+      <c r="H62" s="5">
         <v>0.47260000000000002</v>
       </c>
-      <c r="I62" s="42">
+      <c r="I62" s="5">
         <v>0.47470000000000001</v>
       </c>
-      <c r="J62" s="42">
+      <c r="J62" s="5">
         <v>0.47510000000000002</v>
       </c>
-      <c r="K62" s="40">
+      <c r="K62" s="5">
         <f>AVERAGE(F62:J62)</f>
         <v>0.47497999999999996</v>
       </c>
-      <c r="L62" s="40">
+      <c r="L62" s="5">
         <f>STDEV(F62:J62)</f>
         <v>1.7398275776639334E-3</v>
       </c>
@@ -6840,7 +6796,7 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="53">
+      <c r="B63" s="8">
         <v>0</v>
       </c>
       <c r="C63" s="32">
@@ -6849,22 +6805,22 @@
       <c r="D63" s="32">
         <v>7</v>
       </c>
-      <c r="E63" s="50" t="s">
+      <c r="E63" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F63" s="51">
+      <c r="F63" s="10">
         <v>1.02</v>
       </c>
-      <c r="G63" s="51">
+      <c r="G63" s="10">
         <v>1.0189999999999999</v>
       </c>
-      <c r="H63" s="51">
+      <c r="H63" s="10">
         <v>1.02</v>
       </c>
-      <c r="I63" s="51">
+      <c r="I63" s="10">
         <v>1.0209999999999999</v>
       </c>
-      <c r="J63" s="51">
+      <c r="J63" s="10">
         <v>1.0189999999999999</v>
       </c>
       <c r="K63" s="10">
@@ -6881,10 +6837,10 @@
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="37" t="s">
+      <c r="C95" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="37"/>
+      <c r="D95" s="41"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="17" t="s">
@@ -6944,11 +6900,11 @@
         <v>0.23580000000000001</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:K108" si="16">AVERAGE(F98:J98)</f>
+        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" ref="L98:L108" si="17">STDEV(F98:J98)</f>
+        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
@@ -6978,11 +6934,11 @@
         <v>0.18429999999999999</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.20311999999999997</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
@@ -7012,11 +6968,11 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15518000000000001</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
@@ -7046,11 +7002,11 @@
         <v>0.1565</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.14364000000000002</v>
       </c>
       <c r="L101" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
@@ -7080,11 +7036,11 @@
         <v>0.155</v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15342</v>
       </c>
       <c r="L102" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
@@ -7114,11 +7070,11 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.13364000000000001</v>
       </c>
       <c r="L103" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
@@ -7148,11 +7104,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.13189999999999999</v>
       </c>
       <c r="L104" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
@@ -7182,11 +7138,11 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.14487999999999998</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
@@ -7216,11 +7172,11 @@
         <v>0.1552</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.15722</v>
       </c>
       <c r="L106" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
@@ -7250,11 +7206,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.16006000000000001</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
@@ -7284,11 +7240,11 @@
         <v>0.16880000000000001</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.17069999999999999</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
@@ -7338,18 +7294,18 @@
   <sheetData>
     <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="36"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E4" s="17" t="s">
@@ -8154,6 +8110,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -8382,22 +8353,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8414,29 +8395,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415FE5BF-2EDF-440A-AFF7-7EA454EDB70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9CD61-C193-4DDB-B93E-DDFC2AB050D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -577,6 +577,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -592,12 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,6 +605,66 @@
   <dxfs count="108">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
@@ -1215,6 +1275,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1617,69 +1680,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1765,21 +1765,33 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Curva da Coluna Cuda kernel </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Curva</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> da coluna</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1796,114 +1808,216 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Teorico</c:v>
+            <c:v>experimental</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Colunas!$C$4:$C$14</c:f>
+              <c:f>Colunas!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$J$4:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.23582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21251999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15418000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15392</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15322</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14287999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14694000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15660000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A067-4575-8B40-BEB5A5FA2682}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teorico</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Colunas!$O$4:$O$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Colunas!$M$4:$M$14</c:f>
               <c:numCache>
@@ -1944,146 +2058,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D125-4B9D-B517-E6C412CE0606}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Normal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Colunas!$C$4:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Colunas!$J$4:$J$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.23582</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21251999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.15418000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15392</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15322</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14287999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14694000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.15306</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.15660000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.16470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16924</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9CB7-426B-A5DE-3CC5647A0568}"/>
+              <c16:uniqueId val="{00000001-A067-4575-8B40-BEB5A5FA2682}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2095,42 +2074,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1414821984"/>
-        <c:axId val="1414825728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1414821984"/>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2145,7 +2123,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2153,17 +2131,23 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414825728"/>
+        <c:crossAx val="388859928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1414825728"/>
+        <c:axId val="388859928"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="6.0000000000000019E-3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2171,10 +2155,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2182,19 +2165,27 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2206,7 +2197,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2214,12 +2205,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414821984"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2229,25 +2220,70 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2258,7 +2294,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2290,20 +2326,27 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Curva da Linha Cuda kernel </a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Curva da linha</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2321,116 +2364,103 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                  <a:lumMod val="95000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Teorico</c:v>
+            <c:v>experimental</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Colunas!$C$4:$C$14</c:f>
+              <c:f>Colunas!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Colunas!$M$36:$M$46</c:f>
+              <c:f>Colunas!$J$36:$J$46</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2438,42 +2468,42 @@
                   <c:v>0.12426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.2129999999999998E-2</c:v>
+                  <c:v>9.2901999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1064999999999999E-2</c:v>
+                  <c:v>8.1788E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>8.1566E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>9.2508000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>0.11826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>0.13302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>0.1414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>0.24237999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>0.47531999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.5532499999999999E-2</c:v>
+                  <c:v>1.0197999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-60F0-489D-B3EA-7CEC26483969}"/>
+              <c16:uniqueId val="{00000000-EBBA-4DA2-A191-BFA4D649C487}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2481,134 +2511,114 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Normal</c:v>
+            <c:v>teorico</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="34925" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Colunas!$C$4:$C$14</c:f>
+              <c:f>Colunas!$O$4:$O$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Colunas!$J$36:$J$46</c:f>
+              <c:f>Colunas!$M$36:$M$46</c:f>
               <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:formatCode>0\.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.12426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.2901999999999998E-2</c:v>
+                  <c:v>6.2129999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1788E-2</c:v>
+                  <c:v>3.1064999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1566E-2</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2508000000000007E-2</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11826</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13302</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1414</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24237999999999998</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47531999999999996</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0197999999999998</c:v>
+                  <c:v>1.5532499999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-60F0-489D-B3EA-7CEC26483969}"/>
+              <c16:uniqueId val="{00000001-EBBA-4DA2-A191-BFA4D649C487}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2620,42 +2630,41 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1414821984"/>
-        <c:axId val="1414825728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1414821984"/>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2670,7 +2679,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2678,48 +2687,48 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414825728"/>
+        <c:crossAx val="388859928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="1414825728"/>
+        <c:axId val="388859928"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2731,7 +2740,7 @@
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2739,12 +2748,12 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1414821984"/>
-        <c:crossesAt val="1"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2754,25 +2763,70 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2783,7 +2837,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2875,17 +2929,17 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2893,9 +2947,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -2906,23 +2971,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2930,7 +3000,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2940,17 +3010,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2959,131 +3026,72 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3100,15 +3108,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3120,22 +3128,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3144,16 +3152,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3162,13 +3171,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3180,7 +3189,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3193,10 +3202,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3211,15 +3219,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3228,16 +3234,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3246,16 +3253,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3265,7 +3272,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3275,7 +3282,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3283,7 +3290,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3292,9 +3299,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3302,13 +3320,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3321,10 +3340,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3333,14 +3360,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3351,7 +3376,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3361,21 +3386,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3385,45 +3408,34 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3431,9 +3443,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea>
@@ -3444,23 +3467,28 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3468,7 +3496,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3478,17 +3506,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3497,131 +3522,72 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3638,15 +3604,15 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3658,22 +3624,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3682,16 +3648,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -3700,13 +3667,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3718,7 +3685,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3731,10 +3698,9 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3749,15 +3715,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3766,16 +3730,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3784,16 +3749,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3803,7 +3768,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3813,7 +3778,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3821,7 +3786,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3830,9 +3795,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3840,13 +3816,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3859,10 +3836,18 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3871,14 +3856,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -3889,7 +3872,7 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3899,21 +3882,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3923,28 +3904,17 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -3954,29 +3924,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>604062</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>368531</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>566696</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18891</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>69274</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>174811</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Gráfico 2">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE3CBC92-093E-48AA-981E-904B788BC0A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8157DCF4-DD5D-FBAB-1EB8-CC33BD6BEB2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3993,22 +3961,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>576943</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>74812</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>171797</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>185058</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>299356</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 2">
+        <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FF988D0-E14C-4104-BA31-C11A52A9F266}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C21CCDF8-0AC1-4691-BF2F-ACD6AA03870B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4032,27 +4000,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="3">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="2">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="95">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="1">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="94">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="0">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4061,21 +4029,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="C97:L108" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="83">
+    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(F98:J98)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="82">
+    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="96">
       <calculatedColumnFormula>STDEV(F98:J98)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4084,25 +4052,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="95">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="gridDimY" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimX2" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="94"/>
+    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="gridDimY" dataDxfId="93"/>
+    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimX2" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="89"/>
+    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="88"/>
+    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="87"/>
+    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="86"/>
     <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media">
       <calculatedColumnFormula>AVERAGE(F17:J17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="71">
+    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="85">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4111,25 +4079,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="84">
   <autoFilter ref="B24:M30" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="blockDimY" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="blockDimY" dataDxfId="82"/>
+    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX" dataDxfId="81"/>
+    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="77"/>
+    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="76"/>
+    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="75"/>
     <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media">
       <calculatedColumnFormula>AVERAGE(F25:J25)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="74">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4138,27 +4106,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="71"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="70"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="68"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="65"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="63">
       <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="49">
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="62">
       <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="48">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="61">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="47">
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="60">
       <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4167,25 +4135,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="59">
   <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="50"/>
     <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media">
       <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="36">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="49">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4194,25 +4162,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="43"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="41"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="39"/>
     <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media">
       <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="25">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="38">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4221,21 +4189,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="27">
       <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="26">
       <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4244,21 +4212,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="15">
       <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="14">
       <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4531,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:M56"/>
+    <sheetView tabSelected="1" topLeftCell="L26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4557,20 +4525,20 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -4656,6 +4624,10 @@
         <v>0.23582</v>
       </c>
       <c r="N4" s="1"/>
+      <c r="O4">
+        <f>2^C4</f>
+        <v>1</v>
+      </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -4701,6 +4673,10 @@
         <v>0.11791</v>
       </c>
       <c r="N5" s="1"/>
+      <c r="O5">
+        <f t="shared" ref="O5:O14" si="2">2^C5</f>
+        <v>2</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -4741,10 +4717,14 @@
         <v>15.62628001166753</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" ref="M6:M9" si="2">M5/2</f>
+        <f t="shared" ref="M6:M9" si="3">M5/2</f>
         <v>5.8955E-2</v>
       </c>
       <c r="N6" s="1"/>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -4785,10 +4765,14 @@
         <v>59.723550624918751</v>
       </c>
       <c r="M7" s="26">
+        <f t="shared" si="3"/>
+        <v>2.94775E-2</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7">
         <f t="shared" si="2"/>
-        <v>2.94775E-2</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>8</v>
+      </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -4829,10 +4813,14 @@
         <v>140.63392523394177</v>
       </c>
       <c r="M8" s="26">
+        <f t="shared" si="3"/>
+        <v>1.473875E-2</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8">
         <f t="shared" si="2"/>
-        <v>1.473875E-2</v>
-      </c>
-      <c r="N8" s="1"/>
+        <v>16</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -4873,10 +4861,14 @@
         <v>310.31553022993637</v>
       </c>
       <c r="M9" s="26">
+        <f t="shared" si="3"/>
+        <v>7.3693750000000001E-3</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9">
         <f t="shared" si="2"/>
-        <v>7.3693750000000001E-3</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>32</v>
+      </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -4921,6 +4913,10 @@
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N10" s="1"/>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -4961,10 +4957,14 @@
         <v>65.188008387366182</v>
       </c>
       <c r="M11" s="26">
-        <f t="shared" ref="M11:M14" si="3">0.0073694</f>
+        <f t="shared" ref="M11:M14" si="4">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N11" s="1"/>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -5005,10 +5005,14 @@
         <v>42.534565109646636</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N12" s="1"/>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -5049,10 +5053,14 @@
         <v>56.574893584264082</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N13" s="1"/>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -5093,11 +5101,14 @@
         <v>186.55337011910066</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -5184,15 +5195,15 @@
       <c r="J17" s="19">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K17" s="43">
-        <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
+      <c r="K17" s="38">
+        <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L17" s="43">
-        <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
+      <c r="L17" s="38">
+        <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="39">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
@@ -5228,11 +5239,11 @@
         <v>0.1522</v>
       </c>
       <c r="K18" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15255999999999997</v>
       </c>
       <c r="L18" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1436782764396626E-3</v>
       </c>
       <c r="M18" s="31">
@@ -5271,11 +5282,11 @@
         <v>0.1535</v>
       </c>
       <c r="K19" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15336</v>
       </c>
       <c r="L19" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2.7018512172212754E-4</v>
       </c>
       <c r="M19" s="30">
@@ -5314,11 +5325,11 @@
         <v>0.15770000000000001</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15615999999999999</v>
       </c>
       <c r="L20" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.5289033996573467E-4</v>
       </c>
       <c r="M20" s="31">
@@ -5357,11 +5368,11 @@
         <v>0.20960000000000001</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20762</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.4669696656713863E-3</v>
       </c>
       <c r="M21" s="30">
@@ -5400,11 +5411,11 @@
         <v>0.23219999999999999</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.23494000000000001</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.816039647144308E-3</v>
       </c>
       <c r="M22" s="6">
@@ -5489,15 +5500,15 @@
       <c r="J25" s="19">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K25" s="43">
-        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
+      <c r="K25" s="38">
+        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L25" s="43">
-        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
+      <c r="L25" s="38">
+        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M25" s="44" t="e">
+      <c r="M25" s="39" t="e">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>#VALUE!</v>
       </c>
@@ -5533,11 +5544,11 @@
         <v>0.14729999999999999</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" ref="K25:K30" si="8">AVERAGE(F26:J26)</f>
+        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
         <v>0.14687999999999998</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L25:L30" si="9">STDEV(F26:J26)</f>
+        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
         <v>4.9699094559156631E-4</v>
       </c>
       <c r="M26" s="31" t="e">
@@ -5576,11 +5587,11 @@
         <v>0.15179999999999999</v>
       </c>
       <c r="K27" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15201999999999999</v>
       </c>
       <c r="L27" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.3572380943916174E-4</v>
       </c>
       <c r="M27" s="30" t="e">
@@ -5618,11 +5629,11 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="K28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.15514</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.9561297123664461E-4</v>
       </c>
       <c r="M28" s="31" t="e">
@@ -5660,11 +5671,11 @@
         <v>0.16159999999999999</v>
       </c>
       <c r="K29" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16099999999999998</v>
       </c>
       <c r="L29" s="13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.8736700622353556E-4</v>
       </c>
       <c r="M29" s="30" t="e">
@@ -5702,11 +5713,11 @@
         <v>0.16819999999999999</v>
       </c>
       <c r="K30" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.16838000000000003</v>
       </c>
       <c r="L30" s="33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.190271204898991E-4</v>
       </c>
       <c r="M30" s="11" t="e">
@@ -5716,20 +5727,20 @@
     </row>
     <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="42"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="23" t="s">
@@ -5795,11 +5806,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
+        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
+        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
       <c r="L36" s="5">
@@ -5836,11 +5847,11 @@
         <v>9.7530000000000006E-2</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2901999999999998E-2</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
       <c r="L37" s="5">
@@ -5878,11 +5889,11 @@
         <v>8.1769999999999995E-2</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1788E-2</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
       <c r="L38" s="5">
@@ -5890,7 +5901,7 @@
         <v>1797.6470052696861</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" ref="M38:M39" si="12">M37/2</f>
+        <f t="shared" ref="M38:M39" si="13">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
@@ -5923,11 +5934,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1566E-2</v>
       </c>
       <c r="K39" s="19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="L39" s="19">
@@ -5935,7 +5946,7 @@
         <v>2426.4421596200004</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -5965,11 +5976,11 @@
         <v>9.2490000000000003E-2</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2508000000000007E-2</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6832815729994057E-5</v>
       </c>
       <c r="L40" s="5">
@@ -6007,11 +6018,11 @@
         <v>0.1183</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11826</v>
       </c>
       <c r="K41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
       <c r="L41" s="5">
@@ -6019,7 +6030,7 @@
         <v>2159.1223216853032</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" ref="M41:M46" si="13">M40</f>
+        <f t="shared" ref="M41:M46" si="14">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6049,11 +6060,11 @@
         <v>0.13289999999999999</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13302</v>
       </c>
       <c r="K42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
       <c r="L42" s="5">
@@ -6061,7 +6072,7 @@
         <v>1589.8930961365963</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
       <c r="O42" s="12"/>
@@ -6092,11 +6103,11 @@
         <v>0.1414</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1414</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
       <c r="L43" s="5">
@@ -6104,7 +6115,7 @@
         <v>1999.6979771957767</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6134,11 +6145,11 @@
         <v>0.24249999999999999</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24237999999999998</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
       <c r="L44" s="5">
@@ -6146,7 +6157,7 @@
         <v>196.14500937324382</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6176,11 +6187,11 @@
         <v>0.47689999999999999</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.47531999999999996</v>
       </c>
       <c r="K45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
       <c r="L45" s="5">
@@ -6188,7 +6199,7 @@
         <v>346.93966287383802</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6218,11 +6229,11 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0197999999999998</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
       <c r="L46" s="5">
@@ -6230,7 +6241,7 @@
         <v>470.39866297393797</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6249,7 +6260,7 @@
       <c r="M47" s="4"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="28" t="s">
@@ -6290,7 +6301,7 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="27">
         <v>7</v>
       </c>
@@ -6318,21 +6329,21 @@
       <c r="J49" s="19">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K49" s="43">
-        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
+      <c r="K49" s="38">
+        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L49" s="43">
-        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
+      <c r="L49" s="38">
+        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M49" s="44">
+      <c r="M49" s="39">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
+      <c r="A50" s="44"/>
       <c r="B50" s="28">
         <v>7</v>
       </c>
@@ -6361,11 +6372,11 @@
         <v>0.1522</v>
       </c>
       <c r="K50" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.5888000000000001E-2</v>
       </c>
       <c r="L50" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.1479380076488157E-2</v>
       </c>
       <c r="M50" s="31">
@@ -6374,7 +6385,7 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="28">
         <v>7</v>
       </c>
@@ -6403,11 +6414,11 @@
         <v>9.8250000000000004E-2</v>
       </c>
       <c r="K51" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.7808000000000006E-2</v>
       </c>
       <c r="L51" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.0034789484588097E-3</v>
       </c>
       <c r="M51" s="30">
@@ -6416,7 +6427,7 @@
       </c>
     </row>
     <row r="52" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="28">
         <v>7</v>
       </c>
@@ -6445,11 +6456,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="K52" s="14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12418</v>
       </c>
       <c r="L52" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.6431676725154947E-4</v>
       </c>
       <c r="M52" s="31">
@@ -6458,18 +6469,18 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
+      <c r="A53" s="44"/>
       <c r="B53" s="7"/>
       <c r="L53" s="1"/>
       <c r="M53" s="4"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="7"/>
       <c r="M54" s="15"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
@@ -6508,7 +6519,7 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="27">
         <v>7</v>
       </c>
@@ -6536,15 +6547,15 @@
       <c r="J56" s="19">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K56" s="43">
-        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
+      <c r="K56" s="38">
+        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L56" s="43">
-        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
+      <c r="L56" s="38">
+        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M56" s="44">
+      <c r="M56" s="39">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
@@ -6578,11 +6589,11 @@
         <v>9.2340000000000005E-2</v>
       </c>
       <c r="K57" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.2310000000000003E-2</v>
       </c>
       <c r="L57" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4494897427833618E-5</v>
       </c>
       <c r="M57" s="31">
@@ -6619,11 +6630,11 @@
         <v>0.1182</v>
       </c>
       <c r="K58" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.11838</v>
       </c>
       <c r="L58" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3038404810405033E-4</v>
       </c>
       <c r="M58" s="30">
@@ -6660,11 +6671,11 @@
         <v>0.13320000000000001</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13317999999999999</v>
       </c>
       <c r="L59" s="14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3666002653411611E-5</v>
       </c>
       <c r="M59" s="31">
@@ -6701,11 +6712,11 @@
         <v>0.1414</v>
       </c>
       <c r="K60" s="34">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14138000000000001</v>
       </c>
       <c r="L60" s="34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.3666002653398329E-5</v>
       </c>
       <c r="M60" s="35">
@@ -6742,11 +6753,11 @@
         <v>0.24049999999999999</v>
       </c>
       <c r="K61" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24030000000000001</v>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.0415229867972868E-4</v>
       </c>
       <c r="M61" s="6">
@@ -6837,10 +6848,10 @@
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="41" t="s">
+      <c r="C95" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D95" s="41"/>
+      <c r="D95" s="43"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="17" t="s">
@@ -6900,11 +6911,11 @@
         <v>0.23580000000000001</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
+        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
+        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
@@ -6934,11 +6945,11 @@
         <v>0.18429999999999999</v>
       </c>
       <c r="K99" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.20311999999999997</v>
       </c>
       <c r="L99" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
@@ -6968,11 +6979,11 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="K100" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15518000000000001</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
@@ -7002,11 +7013,11 @@
         <v>0.1565</v>
       </c>
       <c r="K101" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14364000000000002</v>
       </c>
       <c r="L101" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
@@ -7036,11 +7047,11 @@
         <v>0.155</v>
       </c>
       <c r="K102" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15342</v>
       </c>
       <c r="L102" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
@@ -7070,11 +7081,11 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="K103" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13364000000000001</v>
       </c>
       <c r="L103" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
@@ -7104,11 +7115,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K104" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13189999999999999</v>
       </c>
       <c r="L104" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
@@ -7138,11 +7149,11 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14487999999999998</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
@@ -7172,11 +7183,11 @@
         <v>0.1552</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15722</v>
       </c>
       <c r="L106" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
@@ -7206,11 +7217,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.16006000000000001</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
@@ -7240,11 +7251,11 @@
         <v>0.16880000000000001</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.17069999999999999</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
@@ -7294,18 +7305,18 @@
   <sheetData>
     <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E4" s="17" t="s">
@@ -8110,18 +8121,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8354,6 +8365,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -8366,14 +8385,6 @@
     <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E9CD61-C193-4DDB-B93E-DDFC2AB050D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F6C7D-9ACC-43E4-B3A2-454DDC661303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="4500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
     <sheet name="Linhas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -603,69 +603,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="108">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1731,6 +1668,69 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1759,42 +1759,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Curva</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> da coluna</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1826,7 +1790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1862,7 +1826,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$O$4:$O$14</c:f>
+              <c:f>Colunas!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1977,7 +1941,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$O$4:$O$14</c:f>
+              <c:f>Colunas!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2085,23 +2049,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="high"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2131,7 +2082,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -2151,35 +2102,8 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2205,7 +2129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -2246,7 +2170,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2294,7 +2218,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2382,7 +2306,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2418,7 +2342,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$O$4:$O$14</c:f>
+              <c:f>Colunas!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2533,7 +2457,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$O$4:$O$14</c:f>
+              <c:f>Colunas!$A$2:$A$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2577,7 +2501,7 @@
             <c:numRef>
               <c:f>Colunas!$M$36:$M$46</c:f>
               <c:numCache>
-                <c:formatCode>0\.0000E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.12426</c:v>
@@ -2687,7 +2611,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -2748,7 +2672,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -2789,7 +2713,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2837,7 +2761,1210 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Curva da linha</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Media Linha a cima</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Colunas!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$49:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1566E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5888000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7808000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12418</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D580-4975-92B6-832592403E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Media Linha a baixo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$56:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1566E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.2310000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13317999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14138000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47497999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D580-4975-92B6-832592403E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.5"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$E$17:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;&lt;&lt;(32,2,1), (16,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;&lt;&lt;(32,4,1), (8,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;&lt;&lt;(32,8,1), (4,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;&lt;&lt;(32,16,1), (2,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;&lt;&lt;(32,32,1), (1,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>0\.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14287999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15255999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15615999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20762</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.23494000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7307-4FC2-B4F6-3E8E5030E923}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$E$25:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;&lt;&lt;(16,1,1), (32,2,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;&lt;&lt;(8,1,1), (32,4,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;&lt;&lt;(4,1,1), (32,8,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;&lt;&lt;(2,1,1), (32,16,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;&lt;&lt;(1,1,1), (32,32,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$25:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>0\.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14287999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14687999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15201999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15514</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16838000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04DE-4865-9C98-48837BC7ADC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2928,6 +4055,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -3920,20 +5167,1508 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>566696</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>18891</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>132830</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>24605</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>174811</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>72358</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>294410</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3960,16 +6695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77661</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>299356</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292505</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>102006</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3996,31 +6731,145 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>115340</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F082276-C646-428A-A1F5-1DBF78137529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>134736</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>242455</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BBD8EE-5382-4352-ADAB-A6B93B04B881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>115339</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>58068</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90C96BF3-E49F-4E35-8884-EECA657D7926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="96">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="95">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="94">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4029,21 +6878,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="C97:L108" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="83">
       <calculatedColumnFormula>AVERAGE(F98:J98)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="82">
       <calculatedColumnFormula>STDEV(F98:J98)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4052,25 +6901,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="95">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="81">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="94"/>
-    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="gridDimY" dataDxfId="93"/>
-    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimX2" dataDxfId="92"/>
-    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="91"/>
-    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="89"/>
-    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="88"/>
-    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="87"/>
-    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="gridDimY" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimX2" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="72"/>
     <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media">
       <calculatedColumnFormula>AVERAGE(F17:J17)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="85">
+    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="71">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4079,25 +6928,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="70">
   <autoFilter ref="B24:M30" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="blockDimY" dataDxfId="82"/>
-    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="80"/>
-    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="79"/>
-    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="78"/>
-    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="77"/>
-    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="75"/>
+    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="blockDimY" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="61"/>
     <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media">
       <calculatedColumnFormula>AVERAGE(F25:J25)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="74">
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="60">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4106,27 +6955,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="71"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="70"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="68"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="66"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="65"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="49">
       <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="62">
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="48">
       <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="61">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="47">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="60">
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="46">
       <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4135,25 +6984,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="45">
   <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="50"/>
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="36"/>
     <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media">
       <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="49">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="35">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4162,25 +7011,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="43"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="25"/>
     <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media">
       <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao">
       <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="38">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="24">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4189,21 +7038,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="27">
+    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="13">
       <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="26">
+    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="12">
       <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4212,21 +7061,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="14">
+    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="0">
       <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4499,8 +7348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4525,6 +7374,10 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>2^C4</f>
+        <v>1</v>
+      </c>
       <c r="B2" s="40" t="s">
         <v>0</v>
       </c>
@@ -4544,6 +7397,10 @@
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>2^C5</f>
+        <v>2</v>
+      </c>
       <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
@@ -4583,6 +7440,10 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>2^C6</f>
+        <v>4</v>
+      </c>
       <c r="B4" s="25">
         <v>10</v>
       </c>
@@ -4624,13 +7485,13 @@
         <v>0.23582</v>
       </c>
       <c r="N4" s="1"/>
-      <c r="O4">
-        <f>2^C4</f>
-        <v>1</v>
-      </c>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>2^C7</f>
+        <v>8</v>
+      </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
@@ -4673,13 +7534,13 @@
         <v>0.11791</v>
       </c>
       <c r="N5" s="1"/>
-      <c r="O5">
-        <f t="shared" ref="O5:O14" si="2">2^C5</f>
-        <v>2</v>
-      </c>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>2^C8</f>
+        <v>16</v>
+      </c>
       <c r="B6" s="25">
         <v>8</v>
       </c>
@@ -4717,17 +7578,17 @@
         <v>15.62628001166753</v>
       </c>
       <c r="M6" s="26">
-        <f t="shared" ref="M6:M9" si="3">M5/2</f>
+        <f t="shared" ref="M6:M9" si="2">M5/2</f>
         <v>5.8955E-2</v>
       </c>
       <c r="N6" s="1"/>
-      <c r="O6">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>2^C9</f>
+        <v>32</v>
+      </c>
       <c r="B7" s="3">
         <v>7</v>
       </c>
@@ -4765,17 +7626,17 @@
         <v>59.723550624918751</v>
       </c>
       <c r="M7" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.94775E-2</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>2^C10</f>
+        <v>64</v>
+      </c>
       <c r="B8" s="25">
         <v>6</v>
       </c>
@@ -4813,17 +7674,17 @@
         <v>140.63392523394177</v>
       </c>
       <c r="M8" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.473875E-2</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>2^C11</f>
+        <v>128</v>
+      </c>
       <c r="B9" s="27">
         <v>5</v>
       </c>
@@ -4861,17 +7722,17 @@
         <v>310.31553022993637</v>
       </c>
       <c r="M9" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.3693750000000001E-3</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>2^C12</f>
+        <v>256</v>
+      </c>
       <c r="B10" s="25">
         <v>4</v>
       </c>
@@ -4913,13 +7774,13 @@
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>2^C13</f>
+        <v>512</v>
+      </c>
       <c r="B11" s="3">
         <v>3</v>
       </c>
@@ -4957,17 +7818,17 @@
         <v>65.188008387366182</v>
       </c>
       <c r="M11" s="26">
-        <f t="shared" ref="M11:M14" si="4">0.0073694</f>
+        <f t="shared" ref="M11:M14" si="3">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>128</v>
-      </c>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>2^C14</f>
+        <v>1024</v>
+      </c>
       <c r="B12" s="25">
         <v>2</v>
       </c>
@@ -5005,14 +7866,10 @@
         <v>42.534565109646636</v>
       </c>
       <c r="M12" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12">
-        <f t="shared" si="2"/>
-        <v>256</v>
-      </c>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -5053,14 +7910,10 @@
         <v>56.574893584264082</v>
       </c>
       <c r="M13" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13">
-        <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -5101,14 +7954,10 @@
         <v>186.55337011910066</v>
       </c>
       <c r="M14" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N14" s="1"/>
-      <c r="O14">
-        <f t="shared" si="2"/>
-        <v>1024</v>
-      </c>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -5196,11 +8045,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K17" s="38">
-        <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
+        <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L17" s="38">
-        <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
+        <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M17" s="39">
@@ -5239,11 +8088,11 @@
         <v>0.1522</v>
       </c>
       <c r="K18" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15255999999999997</v>
+      </c>
+      <c r="L18" s="14">
         <f t="shared" si="5"/>
-        <v>0.15255999999999997</v>
-      </c>
-      <c r="L18" s="14">
-        <f t="shared" si="6"/>
         <v>1.1436782764396626E-3</v>
       </c>
       <c r="M18" s="31">
@@ -5282,11 +8131,11 @@
         <v>0.1535</v>
       </c>
       <c r="K19" s="13">
+        <f t="shared" si="4"/>
+        <v>0.15336</v>
+      </c>
+      <c r="L19" s="13">
         <f t="shared" si="5"/>
-        <v>0.15336</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="6"/>
         <v>2.7018512172212754E-4</v>
       </c>
       <c r="M19" s="30">
@@ -5325,11 +8174,11 @@
         <v>0.15770000000000001</v>
       </c>
       <c r="K20" s="14">
+        <f t="shared" si="4"/>
+        <v>0.15615999999999999</v>
+      </c>
+      <c r="L20" s="14">
         <f t="shared" si="5"/>
-        <v>0.15615999999999999</v>
-      </c>
-      <c r="L20" s="14">
-        <f t="shared" si="6"/>
         <v>9.5289033996573467E-4</v>
       </c>
       <c r="M20" s="31">
@@ -5368,11 +8217,11 @@
         <v>0.20960000000000001</v>
       </c>
       <c r="K21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.20762</v>
+      </c>
+      <c r="L21" s="13">
         <f t="shared" si="5"/>
-        <v>0.20762</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="6"/>
         <v>1.4669696656713863E-3</v>
       </c>
       <c r="M21" s="30">
@@ -5411,11 +8260,11 @@
         <v>0.23219999999999999</v>
       </c>
       <c r="K22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.23494000000000001</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>0.23494000000000001</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="6"/>
         <v>1.816039647144308E-3</v>
       </c>
       <c r="M22" s="6">
@@ -5501,11 +8350,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K25" s="38">
-        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
+        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L25" s="38">
-        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
+        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M25" s="39" t="e">
@@ -5544,11 +8393,11 @@
         <v>0.14729999999999999</v>
       </c>
       <c r="K26" s="14">
-        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
+        <f t="shared" ref="K26:K30" si="8">AVERAGE(F26:J26)</f>
         <v>0.14687999999999998</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
+        <f t="shared" ref="L26:L30" si="9">STDEV(F26:J26)</f>
         <v>4.9699094559156631E-4</v>
       </c>
       <c r="M26" s="31" t="e">
@@ -5587,11 +8436,11 @@
         <v>0.15179999999999999</v>
       </c>
       <c r="K27" s="13">
+        <f t="shared" si="8"/>
+        <v>0.15201999999999999</v>
+      </c>
+      <c r="L27" s="13">
         <f t="shared" si="9"/>
-        <v>0.15201999999999999</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="10"/>
         <v>5.3572380943916174E-4</v>
       </c>
       <c r="M27" s="30" t="e">
@@ -5629,11 +8478,11 @@
         <v>0.15440000000000001</v>
       </c>
       <c r="K28" s="14">
+        <f t="shared" si="8"/>
+        <v>0.15514</v>
+      </c>
+      <c r="L28" s="14">
         <f t="shared" si="9"/>
-        <v>0.15514</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" si="10"/>
         <v>7.9561297123664461E-4</v>
       </c>
       <c r="M28" s="31" t="e">
@@ -5671,11 +8520,11 @@
         <v>0.16159999999999999</v>
       </c>
       <c r="K29" s="13">
+        <f t="shared" si="8"/>
+        <v>0.16099999999999998</v>
+      </c>
+      <c r="L29" s="13">
         <f t="shared" si="9"/>
-        <v>0.16099999999999998</v>
-      </c>
-      <c r="L29" s="13">
-        <f t="shared" si="10"/>
         <v>5.8736700622353556E-4</v>
       </c>
       <c r="M29" s="30" t="e">
@@ -5713,11 +8562,11 @@
         <v>0.16819999999999999</v>
       </c>
       <c r="K30" s="33">
+        <f t="shared" si="8"/>
+        <v>0.16838000000000003</v>
+      </c>
+      <c r="L30" s="33">
         <f t="shared" si="9"/>
-        <v>0.16838000000000003</v>
-      </c>
-      <c r="L30" s="33">
-        <f t="shared" si="10"/>
         <v>7.190271204898991E-4</v>
       </c>
       <c r="M30" s="11" t="e">
@@ -5806,11 +8655,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
+        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
+        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
       <c r="L36" s="5">
@@ -5847,11 +8696,11 @@
         <v>9.7530000000000006E-2</v>
       </c>
       <c r="J37" s="5">
+        <f t="shared" si="10"/>
+        <v>9.2901999999999998E-2</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="11"/>
-        <v>9.2901999999999998E-2</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
       <c r="L37" s="5">
@@ -5889,11 +8738,11 @@
         <v>8.1769999999999995E-2</v>
       </c>
       <c r="J38" s="5">
+        <f t="shared" si="10"/>
+        <v>8.1788E-2</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" si="11"/>
-        <v>8.1788E-2</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
       <c r="L38" s="5">
@@ -5901,7 +8750,7 @@
         <v>1797.6470052696861</v>
       </c>
       <c r="M38" s="26">
-        <f t="shared" ref="M38:M39" si="13">M37/2</f>
+        <f t="shared" ref="M38:M39" si="12">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
@@ -5934,11 +8783,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="J39" s="19">
+        <f t="shared" si="10"/>
+        <v>8.1566E-2</v>
+      </c>
+      <c r="K39" s="19">
         <f t="shared" si="11"/>
-        <v>8.1566E-2</v>
-      </c>
-      <c r="K39" s="19">
-        <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="L39" s="19">
@@ -5946,7 +8795,7 @@
         <v>2426.4421596200004</v>
       </c>
       <c r="M39" s="26">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -5976,11 +8825,11 @@
         <v>9.2490000000000003E-2</v>
       </c>
       <c r="J40" s="5">
+        <f t="shared" si="10"/>
+        <v>9.2508000000000007E-2</v>
+      </c>
+      <c r="K40" s="5">
         <f t="shared" si="11"/>
-        <v>9.2508000000000007E-2</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="12"/>
         <v>2.6832815729994057E-5</v>
       </c>
       <c r="L40" s="5">
@@ -6018,11 +8867,11 @@
         <v>0.1183</v>
       </c>
       <c r="J41" s="5">
+        <f t="shared" si="10"/>
+        <v>0.11826</v>
+      </c>
+      <c r="K41" s="5">
         <f t="shared" si="11"/>
-        <v>0.11826</v>
-      </c>
-      <c r="K41" s="5">
-        <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
       <c r="L41" s="5">
@@ -6030,7 +8879,7 @@
         <v>2159.1223216853032</v>
       </c>
       <c r="M41" s="26">
-        <f t="shared" ref="M41:M46" si="14">M40</f>
+        <f t="shared" ref="M41:M46" si="13">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6060,11 +8909,11 @@
         <v>0.13289999999999999</v>
       </c>
       <c r="J42" s="5">
+        <f t="shared" si="10"/>
+        <v>0.13302</v>
+      </c>
+      <c r="K42" s="5">
         <f t="shared" si="11"/>
-        <v>0.13302</v>
-      </c>
-      <c r="K42" s="5">
-        <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
       <c r="L42" s="5">
@@ -6072,7 +8921,7 @@
         <v>1589.8930961365963</v>
       </c>
       <c r="M42" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
       <c r="O42" s="12"/>
@@ -6103,11 +8952,11 @@
         <v>0.1414</v>
       </c>
       <c r="J43" s="5">
+        <f t="shared" si="10"/>
+        <v>0.1414</v>
+      </c>
+      <c r="K43" s="5">
         <f t="shared" si="11"/>
-        <v>0.1414</v>
-      </c>
-      <c r="K43" s="5">
-        <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
       <c r="L43" s="5">
@@ -6115,7 +8964,7 @@
         <v>1999.6979771957767</v>
       </c>
       <c r="M43" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6145,11 +8994,11 @@
         <v>0.24249999999999999</v>
       </c>
       <c r="J44" s="5">
+        <f t="shared" si="10"/>
+        <v>0.24237999999999998</v>
+      </c>
+      <c r="K44" s="5">
         <f t="shared" si="11"/>
-        <v>0.24237999999999998</v>
-      </c>
-      <c r="K44" s="5">
-        <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
       <c r="L44" s="5">
@@ -6157,7 +9006,7 @@
         <v>196.14500937324382</v>
       </c>
       <c r="M44" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6187,11 +9036,11 @@
         <v>0.47689999999999999</v>
       </c>
       <c r="J45" s="5">
+        <f t="shared" si="10"/>
+        <v>0.47531999999999996</v>
+      </c>
+      <c r="K45" s="5">
         <f t="shared" si="11"/>
-        <v>0.47531999999999996</v>
-      </c>
-      <c r="K45" s="5">
-        <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
       <c r="L45" s="5">
@@ -6199,7 +9048,7 @@
         <v>346.93966287383802</v>
       </c>
       <c r="M45" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6229,11 +9078,11 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="J46" s="5">
+        <f t="shared" si="10"/>
+        <v>1.0197999999999998</v>
+      </c>
+      <c r="K46" s="5">
         <f t="shared" si="11"/>
-        <v>1.0197999999999998</v>
-      </c>
-      <c r="K46" s="5">
-        <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
       <c r="L46" s="5">
@@ -6241,7 +9090,7 @@
         <v>470.39866297393797</v>
       </c>
       <c r="M46" s="26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -6330,11 +9179,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K49" s="38">
-        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
+        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L49" s="38">
-        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
+        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M49" s="39">
@@ -6372,11 +9221,11 @@
         <v>0.1522</v>
       </c>
       <c r="K50" s="14">
+        <f t="shared" si="14"/>
+        <v>9.5888000000000001E-2</v>
+      </c>
+      <c r="L50" s="14">
         <f t="shared" si="15"/>
-        <v>9.5888000000000001E-2</v>
-      </c>
-      <c r="L50" s="14">
-        <f t="shared" si="16"/>
         <v>3.1479380076488157E-2</v>
       </c>
       <c r="M50" s="31">
@@ -6414,11 +9263,11 @@
         <v>9.8250000000000004E-2</v>
       </c>
       <c r="K51" s="13">
+        <f t="shared" si="14"/>
+        <v>9.7808000000000006E-2</v>
+      </c>
+      <c r="L51" s="13">
         <f t="shared" si="15"/>
-        <v>9.7808000000000006E-2</v>
-      </c>
-      <c r="L51" s="13">
-        <f t="shared" si="16"/>
         <v>1.0034789484588097E-3</v>
       </c>
       <c r="M51" s="30">
@@ -6456,11 +9305,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="K52" s="14">
+        <f t="shared" si="14"/>
+        <v>0.12418</v>
+      </c>
+      <c r="L52" s="14">
         <f t="shared" si="15"/>
-        <v>0.12418</v>
-      </c>
-      <c r="L52" s="14">
-        <f t="shared" si="16"/>
         <v>1.6431676725154947E-4</v>
       </c>
       <c r="M52" s="31">
@@ -6548,11 +9397,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K56" s="38">
-        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
+        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L56" s="38">
-        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
+        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M56" s="39">
@@ -6589,11 +9438,11 @@
         <v>9.2340000000000005E-2</v>
       </c>
       <c r="K57" s="14">
+        <f t="shared" si="16"/>
+        <v>9.2310000000000003E-2</v>
+      </c>
+      <c r="L57" s="14">
         <f t="shared" si="17"/>
-        <v>9.2310000000000003E-2</v>
-      </c>
-      <c r="L57" s="14">
-        <f t="shared" si="18"/>
         <v>2.4494897427833618E-5</v>
       </c>
       <c r="M57" s="31">
@@ -6630,11 +9479,11 @@
         <v>0.1182</v>
       </c>
       <c r="K58" s="13">
+        <f t="shared" si="16"/>
+        <v>0.11838</v>
+      </c>
+      <c r="L58" s="13">
         <f t="shared" si="17"/>
-        <v>0.11838</v>
-      </c>
-      <c r="L58" s="13">
-        <f t="shared" si="18"/>
         <v>1.3038404810405033E-4</v>
       </c>
       <c r="M58" s="30">
@@ -6671,11 +9520,11 @@
         <v>0.13320000000000001</v>
       </c>
       <c r="K59" s="14">
+        <f t="shared" si="16"/>
+        <v>0.13317999999999999</v>
+      </c>
+      <c r="L59" s="14">
         <f t="shared" si="17"/>
-        <v>0.13317999999999999</v>
-      </c>
-      <c r="L59" s="14">
-        <f t="shared" si="18"/>
         <v>8.3666002653411611E-5</v>
       </c>
       <c r="M59" s="31">
@@ -6712,11 +9561,11 @@
         <v>0.1414</v>
       </c>
       <c r="K60" s="34">
+        <f t="shared" si="16"/>
+        <v>0.14138000000000001</v>
+      </c>
+      <c r="L60" s="34">
         <f t="shared" si="17"/>
-        <v>0.14138000000000001</v>
-      </c>
-      <c r="L60" s="34">
-        <f t="shared" si="18"/>
         <v>8.3666002653398329E-5</v>
       </c>
       <c r="M60" s="35">
@@ -6753,11 +9602,11 @@
         <v>0.24049999999999999</v>
       </c>
       <c r="K61" s="5">
+        <f t="shared" si="16"/>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="L61" s="5">
         <f t="shared" si="17"/>
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="L61" s="5">
-        <f t="shared" si="18"/>
         <v>6.0415229867972868E-4</v>
       </c>
       <c r="M61" s="6">
@@ -6911,11 +9760,11 @@
         <v>0.23580000000000001</v>
       </c>
       <c r="K98" s="5">
-        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
+        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
       <c r="L98" s="5">
-        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
+        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
@@ -6945,11 +9794,11 @@
         <v>0.18429999999999999</v>
       </c>
       <c r="K99" s="5">
+        <f t="shared" si="18"/>
+        <v>0.20311999999999997</v>
+      </c>
+      <c r="L99" s="5">
         <f t="shared" si="19"/>
-        <v>0.20311999999999997</v>
-      </c>
-      <c r="L99" s="5">
-        <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
@@ -6979,11 +9828,11 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="K100" s="5">
+        <f t="shared" si="18"/>
+        <v>0.15518000000000001</v>
+      </c>
+      <c r="L100" s="5">
         <f t="shared" si="19"/>
-        <v>0.15518000000000001</v>
-      </c>
-      <c r="L100" s="5">
-        <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
@@ -7013,11 +9862,11 @@
         <v>0.1565</v>
       </c>
       <c r="K101" s="5">
+        <f t="shared" si="18"/>
+        <v>0.14364000000000002</v>
+      </c>
+      <c r="L101" s="5">
         <f t="shared" si="19"/>
-        <v>0.14364000000000002</v>
-      </c>
-      <c r="L101" s="5">
-        <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
@@ -7047,11 +9896,11 @@
         <v>0.155</v>
       </c>
       <c r="K102" s="5">
+        <f t="shared" si="18"/>
+        <v>0.15342</v>
+      </c>
+      <c r="L102" s="5">
         <f t="shared" si="19"/>
-        <v>0.15342</v>
-      </c>
-      <c r="L102" s="5">
-        <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
@@ -7081,11 +9930,11 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="K103" s="5">
+        <f t="shared" si="18"/>
+        <v>0.13364000000000001</v>
+      </c>
+      <c r="L103" s="5">
         <f t="shared" si="19"/>
-        <v>0.13364000000000001</v>
-      </c>
-      <c r="L103" s="5">
-        <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
@@ -7115,11 +9964,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K104" s="5">
+        <f t="shared" si="18"/>
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="L104" s="5">
         <f t="shared" si="19"/>
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="L104" s="5">
-        <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
@@ -7149,11 +9998,11 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="K105" s="5">
+        <f t="shared" si="18"/>
+        <v>0.14487999999999998</v>
+      </c>
+      <c r="L105" s="5">
         <f t="shared" si="19"/>
-        <v>0.14487999999999998</v>
-      </c>
-      <c r="L105" s="5">
-        <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
@@ -7183,11 +10032,11 @@
         <v>0.1552</v>
       </c>
       <c r="K106" s="5">
+        <f t="shared" si="18"/>
+        <v>0.15722</v>
+      </c>
+      <c r="L106" s="5">
         <f t="shared" si="19"/>
-        <v>0.15722</v>
-      </c>
-      <c r="L106" s="5">
-        <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
@@ -7217,11 +10066,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="K107" s="5">
+        <f t="shared" si="18"/>
+        <v>0.16006000000000001</v>
+      </c>
+      <c r="L107" s="5">
         <f t="shared" si="19"/>
-        <v>0.16006000000000001</v>
-      </c>
-      <c r="L107" s="5">
-        <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
@@ -7251,11 +10100,11 @@
         <v>0.16880000000000001</v>
       </c>
       <c r="K108" s="5">
+        <f t="shared" si="18"/>
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="L108" s="5">
         <f t="shared" si="19"/>
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="L108" s="5">
-        <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>

--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98F6C7D-9ACC-43E4-B3A2-454DDC661303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652CFA8B-9D98-4316-85E1-96F4819CF65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -150,37 +150,10 @@
     <t>blockDimX2</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(32,2,1), (16,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>Coef</t>
   </si>
   <si>
     <t>&lt;&lt;&lt;(32,4,1), (8,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(32,8,1), (4,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(32,16,1), (2,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(32,32,1), (1,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(16,1,1), (32,2,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(8,1,1), (32,4,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(4,1,1), (32,8,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(2,1,1), (32,16,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,1,1), (32,32,1)&gt;&gt;&gt;</t>
   </si>
   <si>
     <t>Teorica</t>
@@ -201,34 +174,61 @@
     <t>&lt;&lt;&lt;(128,1,1), (8,1,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(128,2,1), (4,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(128,4,1), (2,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(128,8,1), (1,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(64,1,1), (8,2,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(16,1,1), (8,8,1)&gt;&gt;&gt;</t>
+    <t>&lt;&lt;&lt;(128,2,1), (4,2,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(8,1,1), (8,16,1)&gt;&gt;&gt;</t>
+    <t>&lt;&lt;&lt;(128,1,1), (2,4,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(4,1,1), (8,32,1)&gt;&gt;&gt;</t>
+    <t>&lt;&lt;&lt;(128,1,1), (1,8,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(2,1,1), (8,64,1)&gt;&gt;&gt;</t>
+    <t>&lt;&lt;&lt;(64,2,1), (8,1,1)&gt;&gt;&gt;</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(1,1,1), (8,128,1)&gt;&gt;&gt;</t>
+    <t>&lt;&lt;&lt;(16,8,1), (8,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(8,16,1), (8,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(4,32,1), (8,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(2,64,1), (8,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(1,128,1), (8,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(16,2,1), (32,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(8,4,1), (32,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(4,8,1), (32,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(2,16,1), (32,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;(1,32,1), (32,1,1)&gt;&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,14 +255,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -474,13 +466,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,92 +484,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,46 +516,198 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="108">
+  <dxfs count="120">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -641,101 +717,35 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -893,6 +903,45 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -902,8 +951,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
@@ -911,13 +970,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -945,7 +1007,41 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1103,9 +1199,45 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1115,13 +1247,238 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1149,70 +1506,41 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1370,6 +1698,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1379,6 +1718,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1388,7 +1737,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1416,7 +1793,41 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1574,9 +1985,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1584,8 +2002,28 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1596,25 +2034,391 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1651,7 +2455,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1661,25 +2485,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1715,6 +2530,14 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2787,37 +3610,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Curva da linha</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2857,13 +3649,21 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Media Linha a cima</c:v>
+            <c:strRef>
+              <c:f>Colunas!$K$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -2881,109 +3681,57 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Colunas!$A$2:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+            <c:strRef>
+              <c:f>Colunas!$E$17:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$49:$K$52</c:f>
+              <c:f>Colunas!$K$17:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.1566E-2</c:v>
+                  <c:v>0.14287999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5888000000000001E-2</c:v>
+                  <c:v>0.16064000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.7808000000000006E-2</c:v>
+                  <c:v>0.16004000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12418</c:v>
+                  <c:v>0.15951999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17078000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.19802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2991,113 +3739,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D580-4975-92B6-832592403E14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Media Linha a baixo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Colunas!$K$56:$K$63</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.1566E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.2310000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11838</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13317999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14138000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.24030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47497999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.0198</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D580-4975-92B6-832592403E14}"/>
+              <c16:uniqueId val="{00000001-7307-4FC2-B4F6-3E8E5030E923}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3109,7 +3751,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="388859272"/>
         <c:axId val="388859928"/>
@@ -3121,23 +3762,10 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="high"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3182,26 +3810,27 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
-          <c:min val="1.0000000000000002E-2"/>
+          <c:max val="1"/>
+          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:minorGridlines>
+        <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:minorGridlines>
+        </c:majorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3242,36 +3871,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3388,7 +3987,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$16</c:f>
+              <c:f>Colunas!$K$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3417,53 +4016,53 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$E$17:$E$22</c:f>
+              <c:f>Colunas!$E$25:$E$30</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(32,2,1), (16,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(16,2,1), (32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(32,4,1), (8,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(8,4,1), (32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(32,8,1), (4,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(4,8,1), (32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(32,16,1), (2,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(2,16,1), (32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(32,32,1), (1,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(1,32,1), (32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$17:$K$22</c:f>
+              <c:f>Colunas!$K$25:$K$30</c:f>
               <c:numCache>
-                <c:formatCode>0\.0000E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.14287999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15255999999999997</c:v>
+                  <c:v>0.14265999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15336</c:v>
+                  <c:v>0.14230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15615999999999999</c:v>
+                  <c:v>0.14306000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20762</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>0.23494000000000001</c:v>
+                  <c:v>0.14296000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14294000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,7 +4070,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7307-4FC2-B4F6-3E8E5030E923}"/>
+              <c16:uniqueId val="{00000000-04DE-4865-9C98-48837BC7ADC1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3547,21 +4146,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3673,6 +4258,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia Block</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3719,7 +4335,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$24</c:f>
+              <c:f>Colunas!$K$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3748,53 +4364,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$E$25:$E$30</c:f>
+              <c:f>Colunas!$E$17:$E$22</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(16,1,1), (32,2,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(8,1,1), (32,4,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(4,1,1), (32,8,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(2,1,1), (32,16,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(1,1,1), (32,32,1)&gt;&gt;&gt;</c:v>
+                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$25:$K$30</c:f>
+              <c:f>Colunas!$K$49:$K$52</c:f>
               <c:numCache>
-                <c:formatCode>0\.0000E+00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14287999999999998</c:v>
+                  <c:v>8.1566E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.14687999999999998</c:v>
+                  <c:v>8.1820000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15201999999999999</c:v>
+                  <c:v>8.4128000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15514</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16838000000000003</c:v>
+                  <c:v>8.1785999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,7 +4412,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04DE-4865-9C98-48837BC7ADC1}"/>
+              <c16:uniqueId val="{00000000-F19D-4BC8-A58A-EBA94214AC13}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3871,14 +4481,390 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Media Varia Grid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$E$17:$E$22</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$56:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1566E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1574000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1613999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1598000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1568000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.156999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1580000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.159000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBEB-409C-B5BB-037851AAE026}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4175,6 +5161,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -6160,6 +7186,502 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6734,44 +8256,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>115340</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>51954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F082276-C646-428A-A1F5-1DBF78137529}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
       <xdr:colOff>134736</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
@@ -6801,7 +8285,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6839,7 +8323,83 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>246265</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>3465</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD8E7B0-04C8-4375-9818-D60C1135D6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>587828</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85947</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11383</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CE8918-8C02-47C9-B04E-0A244C2DDDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6849,27 +8409,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="93"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="90"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="87">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="86">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="95">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="85">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="94">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="84">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6878,21 +8438,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="C97:L108" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="83">
+    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="73">
       <calculatedColumnFormula>AVERAGE(F98:J98)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="82">
+    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="72">
       <calculatedColumnFormula>STDEV(F98:J98)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6901,25 +8461,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="gridDimY" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimX2" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media">
+    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="blockDimX" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimY" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="65"/>
+    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="64"/>
+    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="61"/>
+    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media" dataDxfId="60">
       <calculatedColumnFormula>AVERAGE(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao">
+    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao" dataDxfId="59">
       <calculatedColumnFormula>STDEV(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="71">
+    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="58">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6928,26 +8488,26 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="B24:M30" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="blockDimY" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media">
+    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="gridDimY" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX2" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media" dataDxfId="46">
       <calculatedColumnFormula>AVERAGE(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao">
+    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao" dataDxfId="45">
       <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="60">
-      <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="44">
+      <calculatedColumnFormula>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6955,27 +8515,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="50"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="49">
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="33">
       <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="48">
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="32">
       <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="47">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="31">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="46">
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="30">
       <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6984,25 +8544,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="44"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimY" dataDxfId="43"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimX2" dataDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="40"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="39"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="38"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media">
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="18">
       <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao">
+    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="17">
       <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="35">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="16">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7011,25 +8571,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="blockDimX" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimY" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media">
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="4">
       <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao">
+    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="3">
       <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="24">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="2">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7038,21 +8598,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="109">
       <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="108">
       <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7061,21 +8621,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="102"/>
+    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="101"/>
+    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="100"/>
+    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="99"/>
+    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="98"/>
+    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="97">
       <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="96">
       <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7348,2763 +8908,2773 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="39"/>
+    <col min="2" max="2" width="15" style="39" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="39" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="39" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" style="39" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" style="39" customWidth="1"/>
+    <col min="13" max="13" width="14" style="39" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f>2^C4</f>
+      <c r="A2" s="39">
+        <f t="shared" ref="A2:A12" si="0">2^C4</f>
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>2^C5</f>
+      <c r="A3" s="39">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="1"/>
+      <c r="L3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="41"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f>2^C6</f>
+      <c r="A4" s="39">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="43">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="30">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="44">
         <f>0.2272</f>
         <v>0.22720000000000001</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="44">
         <v>0.23280000000000001</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="44">
         <v>0.26340000000000002</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="44">
         <v>0.22770000000000001</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="44">
         <v>0.22800000000000001</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J14" si="0">AVERAGE(E4:I4)</f>
+      <c r="J4" s="44">
+        <f t="shared" ref="J4:J14" si="1">AVERAGE(E4:I4)</f>
         <v>0.23582</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K14" si="1">STDEV(E4:I4)</f>
+      <c r="K4" s="44">
+        <f t="shared" ref="K4:K14" si="2">STDEV(E4:I4)</f>
         <v>1.5581784236729764E-2</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.134338687871143</v>
       </c>
-      <c r="M4" s="26">
+      <c r="M4" s="45">
         <v>0.23582</v>
       </c>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="41"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>2^C7</f>
+      <c r="A5" s="39">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="46">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="30">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="44">
         <f>0.201</f>
         <v>0.20100000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="44">
         <v>0.2089</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="44">
         <v>0.20280000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="44">
         <v>0.22170000000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="44">
         <v>0.22819999999999999</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="0"/>
+      <c r="J5" s="44">
+        <f t="shared" si="1"/>
         <v>0.21251999999999999</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="1"/>
+      <c r="K5" s="44">
+        <f t="shared" si="2"/>
         <v>1.1941817282139257E-2</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>17.796286359016303</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="45">
         <f>M4/2</f>
         <v>0.11791</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="41"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f>2^C8</f>
+      <c r="A6" s="39">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="43">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="44">
         <v>0.15620000000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="44">
         <v>0.13669999999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="44">
         <v>0.15959999999999999</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="44">
         <v>0.15920000000000001</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="44">
         <v>0.15920000000000001</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="0"/>
+      <c r="J6" s="44">
+        <f t="shared" si="1"/>
         <v>0.15418000000000001</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="1"/>
+      <c r="K6" s="44">
+        <f t="shared" si="2"/>
         <v>9.8667117116088953E-3</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.62628001166753</v>
       </c>
-      <c r="M6" s="26">
-        <f t="shared" ref="M6:M9" si="2">M5/2</f>
+      <c r="M6" s="45">
+        <f t="shared" ref="M6:M9" si="3">M5/2</f>
         <v>5.8955E-2</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="41"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f>2^C9</f>
+      <c r="A7" s="39">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="46">
         <v>7</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="30">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="44">
         <v>0.15010000000000001</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="44">
         <v>0.1537</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="44">
         <v>0.1565</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="44">
         <v>0.15609999999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="44">
         <v>0.1532</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="0"/>
+      <c r="J7" s="44">
+        <f t="shared" si="1"/>
         <v>0.15392</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="1"/>
+      <c r="K7" s="44">
+        <f t="shared" si="2"/>
         <v>2.5772077913897369E-3</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>59.723550624918751</v>
       </c>
-      <c r="M7" s="26">
-        <f t="shared" si="2"/>
+      <c r="M7" s="45">
+        <f t="shared" si="3"/>
         <v>2.94775E-2</v>
       </c>
-      <c r="N7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f>2^C10</f>
+      <c r="A8" s="39">
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="43">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="30">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="44">
         <v>0.1522</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="44">
         <v>0.15390000000000001</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="44">
         <v>0.1547</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="44">
         <v>0.1522</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="44">
         <v>0.15310000000000001</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="0"/>
+      <c r="J8" s="44">
+        <f t="shared" si="1"/>
         <v>0.15322</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="1"/>
+      <c r="K8" s="44">
+        <f t="shared" si="2"/>
         <v>1.0894952959971894E-3</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>140.63392523394177</v>
       </c>
-      <c r="M8" s="26">
-        <f t="shared" si="2"/>
+      <c r="M8" s="45">
+        <f t="shared" si="3"/>
         <v>1.473875E-2</v>
       </c>
-      <c r="N8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="N8" s="41"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f>2^C11</f>
+      <c r="A9" s="39">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="33">
         <v>5</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="28">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="47">
         <v>0.1431</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="47">
         <v>0.1431</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="47">
         <v>0.14249999999999999</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="47">
         <v>0.1434</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="47">
         <v>0.14230000000000001</v>
       </c>
-      <c r="J9" s="19">
-        <f t="shared" si="0"/>
+      <c r="J9" s="47">
+        <f t="shared" si="1"/>
         <v>0.14287999999999998</v>
       </c>
-      <c r="K9" s="19">
-        <f t="shared" si="1"/>
+      <c r="K9" s="47">
+        <f t="shared" si="2"/>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="47">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="M9" s="26">
-        <f t="shared" si="2"/>
+      <c r="M9" s="45">
+        <f t="shared" si="3"/>
         <v>7.3693750000000001E-3</v>
       </c>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="N9" s="41"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f>2^C12</f>
+      <c r="A10" s="39">
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="43">
         <v>4</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="30">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="44">
         <v>0.14710000000000001</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="44">
         <v>0.1479</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="44">
         <v>0.14149999999999999</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="44">
         <v>0.1489</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="44">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="0"/>
+      <c r="J10" s="44">
+        <f t="shared" si="1"/>
         <v>0.14694000000000002</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="1"/>
+      <c r="K10" s="44">
+        <f t="shared" si="2"/>
         <v>3.1603797240205215E-3</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>46.494412960309788</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="45">
         <f>0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="N10" s="41"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f>2^C13</f>
+      <c r="A11" s="39">
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="46">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="30">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="44">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="44">
         <v>0.15440000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="44">
         <v>0.1547</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="44">
         <v>0.15310000000000001</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="44">
         <v>0.15409999999999999</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="0"/>
+      <c r="J11" s="44">
+        <f t="shared" si="1"/>
         <v>0.15306</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="1"/>
+      <c r="K11" s="44">
+        <f t="shared" si="2"/>
         <v>2.3479778533878927E-3</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>65.188008387366182</v>
       </c>
-      <c r="M11" s="26">
-        <f t="shared" ref="M11:M14" si="3">0.0073694</f>
+      <c r="M11" s="45">
+        <f t="shared" ref="M11:M14" si="4">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N11" s="1"/>
-      <c r="P11" s="1"/>
+      <c r="N11" s="41"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f>2^C14</f>
+      <c r="A12" s="39">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="43">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="30">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="44">
         <v>0.15140000000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="44">
         <v>0.1593</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="44">
         <v>0.15939999999999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="44">
         <v>0.154</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="44">
         <v>0.15890000000000001</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="0"/>
+      <c r="J12" s="44">
+        <f t="shared" si="1"/>
         <v>0.15660000000000002</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="1"/>
+      <c r="K12" s="44">
+        <f t="shared" si="2"/>
         <v>3.6817115585010152E-3</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>42.534565109646636</v>
       </c>
-      <c r="M12" s="26">
-        <f t="shared" si="3"/>
+      <c r="M12" s="45">
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="N12" s="41"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="30">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="44">
         <v>0.1658</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="44">
         <v>0.1595</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="44">
         <v>0.1661</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="44">
         <v>0.16589999999999999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="44">
         <v>0.16619999999999999</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="0"/>
+      <c r="J13" s="44">
+        <f t="shared" si="1"/>
         <v>0.16470000000000001</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="1"/>
+      <c r="K13" s="44">
+        <f t="shared" si="2"/>
         <v>2.9111853256019236E-3</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>56.574893584264082</v>
       </c>
-      <c r="M13" s="26">
-        <f t="shared" si="3"/>
+      <c r="M13" s="45">
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="41"/>
+      <c r="P13" s="41"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="25">
+      <c r="B14" s="43">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="30">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="44">
         <v>0.1696</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="44">
         <v>0.16969999999999999</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="44">
         <v>0.17</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="44">
         <v>0.16919999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="44">
         <v>0.16769999999999999</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="0"/>
+      <c r="J14" s="44">
+        <f t="shared" si="1"/>
         <v>0.16924</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="1"/>
+      <c r="K14" s="44">
+        <f t="shared" si="2"/>
         <v>9.0719347440334456E-4</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="44">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>186.55337011910066</v>
       </c>
-      <c r="M14" s="26">
-        <f t="shared" si="3"/>
+      <c r="M14" s="45">
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="N14" s="41"/>
+      <c r="P14" s="41"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="3"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="1"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="41"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="C16" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="J16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="K16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="L16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="1"/>
+      <c r="M16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="41"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="27">
+      <c r="A17" s="49"/>
+      <c r="B17" s="33">
         <v>5</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="28">
+        <v>5</v>
+      </c>
+      <c r="D17" s="20">
         <v>0</v>
       </c>
-      <c r="D17" s="20">
-        <v>5</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="47">
         <v>0.1431</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="47">
         <v>0.1431</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="47">
         <v>0.14249999999999999</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="47">
         <v>0.1434</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="47">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K17" s="38">
-        <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
+      <c r="K17" s="50">
+        <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L17" s="38">
-        <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
+      <c r="L17" s="50">
+        <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="51">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="N17" s="1"/>
+      <c r="N17" s="41"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="28">
+      <c r="A18" s="49"/>
+      <c r="B18" s="46">
         <v>5</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="29">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21">
         <v>1</v>
       </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.1515</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0.1545</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0.1525</v>
-      </c>
-      <c r="J18" s="5">
-        <v>0.1522</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="4"/>
-        <v>0.15255999999999997</v>
-      </c>
-      <c r="L18" s="14">
+      <c r="E18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="44">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0.1608</v>
+      </c>
+      <c r="H18" s="44">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="I18" s="44">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="J18" s="44">
+        <v>0.16059999999999999</v>
+      </c>
+      <c r="K18" s="52">
         <f t="shared" si="5"/>
-        <v>1.1436782764396626E-3</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.16064000000000001</v>
+      </c>
+      <c r="L18" s="52">
+        <f t="shared" si="6"/>
+        <v>6.8774995456198206E-4</v>
+      </c>
+      <c r="M18" s="53">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>133.39415738045508</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>233.57326152396374</v>
+      </c>
+      <c r="N18" s="41"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="28">
+      <c r="A19" s="49"/>
+      <c r="B19" s="46">
         <v>5</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="21">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.15340000000000001</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.1532</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0.1537</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0.153</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0.1535</v>
-      </c>
-      <c r="K19" s="13">
-        <f t="shared" si="4"/>
-        <v>0.15336</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="E19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="44">
+        <v>0.1608</v>
+      </c>
+      <c r="G19" s="44">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="H19" s="44">
+        <v>0.1588</v>
+      </c>
+      <c r="I19" s="44">
+        <v>0.1593</v>
+      </c>
+      <c r="J19" s="44">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="K19" s="54">
         <f t="shared" si="5"/>
-        <v>2.7018512172212754E-4</v>
-      </c>
-      <c r="M19" s="30">
+        <v>0.16004000000000002</v>
+      </c>
+      <c r="L19" s="54">
+        <f t="shared" si="6"/>
+        <v>1.0644247272588116E-3</v>
+      </c>
+      <c r="M19" s="55">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>567.61082557952034</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>150.35351575507582</v>
+      </c>
+      <c r="N19" s="41"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="28">
+      <c r="A20" s="49"/>
+      <c r="B20" s="46">
         <v>5</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="29">
+        <v>2</v>
+      </c>
+      <c r="D20" s="21">
         <v>3</v>
       </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.15579999999999999</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0.15609999999999999</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0.15770000000000001</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="4"/>
-        <v>0.15615999999999999</v>
-      </c>
-      <c r="L20" s="14">
+      <c r="E20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="44">
+        <v>0.16009999999999999</v>
+      </c>
+      <c r="G20" s="44">
+        <v>0.15909999999999999</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0.15890000000000001</v>
+      </c>
+      <c r="I20" s="44">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="J20" s="44">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="K20" s="52">
         <f t="shared" si="5"/>
-        <v>9.5289033996573467E-4</v>
-      </c>
-      <c r="M20" s="31">
+        <v>0.15951999999999997</v>
+      </c>
+      <c r="L20" s="52">
+        <f t="shared" si="6"/>
+        <v>5.1185935568278176E-4</v>
+      </c>
+      <c r="M20" s="53">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>163.8803474548975</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>311.64810846763231</v>
+      </c>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="28">
+      <c r="A21" s="49"/>
+      <c r="B21" s="46">
         <v>5</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="29">
+        <v>1</v>
+      </c>
+      <c r="D21" s="21">
         <v>4</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.20760000000000001</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.2074</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.20549999999999999</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0.20960000000000001</v>
-      </c>
-      <c r="K21" s="13">
-        <f t="shared" si="4"/>
-        <v>0.20762</v>
-      </c>
-      <c r="L21" s="13">
+      <c r="E21" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="44">
+        <v>0.1714</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0.1704</v>
+      </c>
+      <c r="H21" s="44">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="I21" s="44">
+        <v>0.1711</v>
+      </c>
+      <c r="J21" s="44">
+        <v>0.17080000000000001</v>
+      </c>
+      <c r="K21" s="54">
         <f t="shared" si="5"/>
-        <v>1.4669696656713863E-3</v>
-      </c>
-      <c r="M21" s="30">
+        <v>0.17078000000000002</v>
+      </c>
+      <c r="L21" s="54">
+        <f t="shared" si="6"/>
+        <v>4.9193495504995673E-4</v>
+      </c>
+      <c r="M21" s="55">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>141.52985222429857</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>347.15971745219252</v>
+      </c>
+      <c r="N21" s="41"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="37"/>
-      <c r="B22" s="28">
+      <c r="A22" s="56"/>
+      <c r="B22" s="46">
         <v>5</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="29">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25">
         <v>5</v>
       </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.2366</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.23469999999999999</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.2346</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0.2366</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.23219999999999999</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" si="4"/>
-        <v>0.23494000000000001</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="E22" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="44">
+        <v>0.1983</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0.19819999999999999</v>
+      </c>
+      <c r="H22" s="44">
+        <v>0.1988</v>
+      </c>
+      <c r="I22" s="44">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="J22" s="44">
+        <v>0.1963</v>
+      </c>
+      <c r="K22" s="30">
         <f t="shared" si="5"/>
-        <v>1.816039647144308E-3</v>
-      </c>
-      <c r="M22" s="6">
+        <v>0.19802</v>
+      </c>
+      <c r="L22" s="30">
+        <f t="shared" si="6"/>
+        <v>9.8843310345212614E-4</v>
+      </c>
+      <c r="M22" s="57">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>129.36942228625858</v>
-      </c>
-      <c r="N22" s="1"/>
+        <v>200.33728059937536</v>
+      </c>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="37"/>
-      <c r="B23" s="7"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="1"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="41"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="37"/>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="56"/>
+      <c r="B24" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="C24" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="1"/>
+      <c r="M24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="37"/>
-      <c r="B25" s="27">
+      <c r="A25" s="56"/>
+      <c r="B25" s="33">
         <v>5</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="28">
         <v>0</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="28">
         <v>5</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="47">
         <v>0.1431</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="47">
         <v>0.1431</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="47">
         <v>0.14249999999999999</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="47">
         <v>0.1434</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="47">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K25" s="38">
-        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
+      <c r="K25" s="50">
+        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L25" s="38">
-        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
+      <c r="L25" s="50">
+        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M25" s="39" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N25" s="1"/>
+      <c r="M25" s="51">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>310.31553022993637</v>
+      </c>
+      <c r="N25" s="41"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="3">
+      <c r="A26" s="56"/>
+      <c r="B26" s="34">
         <v>4</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="29">
         <v>1</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="30">
         <v>5</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="5">
-        <v>0.1472</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.1462</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.1472</v>
-      </c>
-      <c r="I26" s="5">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="J26" s="5">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" ref="K26:K30" si="8">AVERAGE(F26:J26)</f>
-        <v>0.14687999999999998</v>
-      </c>
-      <c r="L26" s="14">
-        <f t="shared" ref="L26:L30" si="9">STDEV(F26:J26)</f>
-        <v>4.9699094559156631E-4</v>
-      </c>
-      <c r="M26" s="31" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N26" s="1"/>
+      <c r="E26" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="44">
+        <v>0.1429</v>
+      </c>
+      <c r="G26" s="44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0.1431</v>
+      </c>
+      <c r="I26" s="44">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="J26" s="44">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="K26" s="52">
+        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
+        <v>0.14265999999999998</v>
+      </c>
+      <c r="L26" s="52">
+        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
+        <v>6.5802735505448965E-4</v>
+      </c>
+      <c r="M26" s="53">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>216.79949762603206</v>
+      </c>
+      <c r="N26" s="41"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="3">
+      <c r="A27" s="56"/>
+      <c r="B27" s="34">
         <v>3</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="29">
         <v>2</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="31">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0.15210000000000001</v>
-      </c>
-      <c r="G27" s="5">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="I27" s="5">
-        <v>0.1515</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.15179999999999999</v>
-      </c>
-      <c r="K27" s="13">
-        <f t="shared" si="8"/>
-        <v>0.15201999999999999</v>
-      </c>
-      <c r="L27" s="13">
+      <c r="E27" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="44">
+        <v>0.1429</v>
+      </c>
+      <c r="G27" s="44">
+        <v>0.1414</v>
+      </c>
+      <c r="H27" s="44">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="I27" s="44">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="J27" s="44">
+        <v>0.1431</v>
+      </c>
+      <c r="K27" s="54">
         <f t="shared" si="9"/>
-        <v>5.3572380943916174E-4</v>
-      </c>
-      <c r="M27" s="30" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="L27" s="54">
+        <f t="shared" si="10"/>
+        <v>7.1763500472036645E-4</v>
+      </c>
+      <c r="M27" s="55">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>198.29021586739432</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="3">
+      <c r="A28" s="56"/>
+      <c r="B28" s="34">
         <v>2</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="29">
         <v>3</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="30">
         <v>5</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="5">
-        <v>0.15620000000000001</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0.1555</v>
-      </c>
-      <c r="H28" s="5">
-        <v>0.15429999999999999</v>
-      </c>
-      <c r="I28" s="5">
-        <v>0.15529999999999999</v>
-      </c>
-      <c r="J28" s="5">
-        <v>0.15440000000000001</v>
-      </c>
-      <c r="K28" s="14">
-        <f t="shared" si="8"/>
-        <v>0.15514</v>
-      </c>
-      <c r="L28" s="14">
+      <c r="E28" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="44">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="G28" s="44">
+        <v>0.1429</v>
+      </c>
+      <c r="H28" s="44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="I28" s="44">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="J28" s="44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K28" s="52">
         <f t="shared" si="9"/>
-        <v>7.9561297123664461E-4</v>
-      </c>
-      <c r="M28" s="31" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
+        <v>0.14306000000000002</v>
+      </c>
+      <c r="L28" s="52">
+        <f t="shared" si="10"/>
+        <v>1.3416407864998709E-4</v>
+      </c>
+      <c r="M28" s="53">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>1066.3062828704021</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="34">
         <v>1</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="29">
         <v>4</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="31">
         <v>5</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.16139999999999999</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0.16009999999999999</v>
-      </c>
-      <c r="H29" s="5">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="I29" s="5">
-        <v>0.1608</v>
-      </c>
-      <c r="J29" s="5">
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="K29" s="13">
-        <f t="shared" si="8"/>
-        <v>0.16099999999999998</v>
-      </c>
-      <c r="L29" s="13">
+      <c r="E29" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="44">
+        <v>0.1431</v>
+      </c>
+      <c r="G29" s="44">
+        <v>0.1431</v>
+      </c>
+      <c r="H29" s="44">
+        <v>0.1431</v>
+      </c>
+      <c r="I29" s="44">
+        <v>0.1429</v>
+      </c>
+      <c r="J29" s="44">
+        <v>0.1426</v>
+      </c>
+      <c r="K29" s="54">
         <f t="shared" si="9"/>
-        <v>5.8736700622353556E-4</v>
-      </c>
-      <c r="M29" s="30" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
+        <v>0.14296000000000003</v>
+      </c>
+      <c r="L29" s="54">
+        <f t="shared" si="10"/>
+        <v>2.1908902300206702E-4</v>
+      </c>
+      <c r="M29" s="55">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>652.5201401744863</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="36"/>
-      <c r="B30" s="8">
+      <c r="A30" s="49"/>
+      <c r="B30" s="35">
         <v>0</v>
       </c>
-      <c r="C30" s="32">
+      <c r="C30" s="36">
         <v>5</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="37">
         <v>5</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="10">
-        <v>0.16889999999999999</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0.16750000000000001</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.16930000000000001</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J30" s="10">
-        <v>0.16819999999999999</v>
-      </c>
-      <c r="K30" s="33">
-        <f t="shared" si="8"/>
-        <v>0.16838000000000003</v>
-      </c>
-      <c r="L30" s="33">
+      <c r="E30" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0.1431</v>
+      </c>
+      <c r="G30" s="38">
+        <v>0.1431</v>
+      </c>
+      <c r="H30" s="38">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="I30" s="38">
+        <v>0.1431</v>
+      </c>
+      <c r="J30" s="38">
+        <v>0.1431</v>
+      </c>
+      <c r="K30" s="60">
         <f t="shared" si="9"/>
-        <v>7.190271204898991E-4</v>
-      </c>
-      <c r="M30" s="11" t="e">
-        <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
-        <v>#VALUE!</v>
+        <v>0.14294000000000001</v>
+      </c>
+      <c r="L30" s="60">
+        <f t="shared" si="10"/>
+        <v>3.577708763999642E-4</v>
+      </c>
+      <c r="M30" s="61">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>399.52944587977737</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="42"/>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>48</v>
+      <c r="L35" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="42" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B36" s="43">
         <v>10</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="41">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="62">
         <v>0.1245</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="62">
         <v>0.12379999999999999</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="62">
         <v>0.1241</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="62">
         <v>0.1246</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="62">
         <v>0.12429999999999999</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
+      <c r="J36" s="62">
+        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
-      <c r="K36" s="5">
-        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
+      <c r="K36" s="62">
+        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>387.17984080555027</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="45">
         <v>0.12426</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="46">
         <v>9</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="41">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="62">
         <v>8.0659999999999996E-2</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="62">
         <v>9.8790000000000003E-2</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="62">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="62">
         <v>9.5829999999999999E-2</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="62">
         <v>9.7530000000000006E-2</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="10"/>
+      <c r="J37" s="62">
+        <f t="shared" si="11"/>
         <v>9.2901999999999998E-2</v>
       </c>
-      <c r="K37" s="5">
-        <f t="shared" si="11"/>
+      <c r="K37" s="62">
+        <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>12.643195606155341</v>
       </c>
-      <c r="M37" s="26">
+      <c r="M37" s="45">
         <f>M36/2</f>
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25">
+    <row r="38" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="43">
         <v>8</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="41">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="62">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="62">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="62">
         <v>8.1860000000000002E-2</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="62">
         <v>8.1739999999999993E-2</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="62">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="10"/>
+      <c r="J38" s="62">
+        <f t="shared" si="11"/>
         <v>8.1788E-2</v>
       </c>
-      <c r="K38" s="5">
-        <f t="shared" si="11"/>
+      <c r="K38" s="62">
+        <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1797.6470052696861</v>
       </c>
-      <c r="M38" s="26">
-        <f t="shared" ref="M38:M39" si="12">M37/2</f>
+      <c r="M38" s="45">
+        <f t="shared" ref="M38:M39" si="13">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="27">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="33">
         <v>7</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="63">
         <v>3</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="64">
         <v>8.158E-2</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F39" s="64">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="64">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="64">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="64">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J39" s="19">
-        <f t="shared" si="10"/>
+      <c r="J39" s="64">
+        <f t="shared" si="11"/>
         <v>8.1566E-2</v>
       </c>
-      <c r="K39" s="19">
-        <f t="shared" si="11"/>
+      <c r="K39" s="64">
+        <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="64">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M39" s="45">
+        <f t="shared" si="13"/>
+        <v>1.5532499999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B40" s="43">
+        <v>6</v>
+      </c>
+      <c r="C40" s="41">
+        <v>4</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="62">
+        <v>9.2490000000000003E-2</v>
+      </c>
+      <c r="F40" s="62">
+        <v>9.2490000000000003E-2</v>
+      </c>
+      <c r="G40" s="62">
+        <v>9.2520000000000005E-2</v>
+      </c>
+      <c r="H40" s="62">
+        <v>9.2549999999999993E-2</v>
+      </c>
+      <c r="I40" s="62">
+        <v>9.2490000000000003E-2</v>
+      </c>
+      <c r="J40" s="62">
+        <f t="shared" si="11"/>
+        <v>9.2508000000000007E-2</v>
+      </c>
+      <c r="K40" s="62">
         <f t="shared" si="12"/>
-        <v>1.5532499999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="25">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="5">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="F40" s="5">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="G40" s="5">
-        <v>9.2520000000000005E-2</v>
-      </c>
-      <c r="H40" s="5">
-        <v>9.2549999999999993E-2</v>
-      </c>
-      <c r="I40" s="5">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="J40" s="5">
-        <f t="shared" si="10"/>
-        <v>9.2508000000000007E-2</v>
-      </c>
-      <c r="K40" s="5">
-        <f t="shared" si="11"/>
         <v>2.6832815729994057E-5</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>3447.5696077096154</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="45">
         <f>M39</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B41" s="3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="46">
         <v>5</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="41">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="62">
         <v>0.1183</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="62">
         <v>0.1182</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="62">
         <v>0.1182</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="62">
         <v>0.1183</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="62">
         <v>0.1183</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="10"/>
+      <c r="J41" s="62">
+        <f t="shared" si="11"/>
         <v>0.11826</v>
       </c>
-      <c r="K41" s="5">
-        <f t="shared" si="11"/>
+      <c r="K41" s="62">
+        <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2159.1223216853032</v>
       </c>
-      <c r="M41" s="26">
-        <f t="shared" ref="M41:M46" si="13">M40</f>
+      <c r="M41" s="45">
+        <f t="shared" ref="M41:M46" si="14">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B42" s="25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B42" s="43">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="41">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="62">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="62">
         <v>0.1331</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="62">
         <v>0.1331</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="62">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="62">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="10"/>
+      <c r="J42" s="62">
+        <f t="shared" si="11"/>
         <v>0.13302</v>
       </c>
-      <c r="K42" s="5">
-        <f t="shared" si="11"/>
+      <c r="K42" s="62">
+        <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1589.8930961365963</v>
       </c>
-      <c r="M42" s="26">
-        <f t="shared" si="13"/>
+      <c r="M42" s="45">
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
-      <c r="O42" s="12"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B43" s="46">
         <v>3</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="41">
         <v>7</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="62">
         <v>0.1414</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="62">
         <v>0.14149999999999999</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="62">
         <v>0.14130000000000001</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="62">
         <v>0.1414</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="62">
         <v>0.1414</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="10"/>
+      <c r="J43" s="62">
+        <f t="shared" si="11"/>
         <v>0.1414</v>
       </c>
-      <c r="K43" s="5">
-        <f t="shared" si="11"/>
+      <c r="K43" s="62">
+        <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1999.6979771957767</v>
       </c>
-      <c r="M43" s="26">
-        <f t="shared" si="13"/>
+      <c r="M43" s="45">
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B44" s="43">
         <v>2</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="41">
         <v>8</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="62">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="62">
         <v>0.2427</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="62">
         <v>0.2442</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="62">
         <v>0.24149999999999999</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="62">
         <v>0.24249999999999999</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="10"/>
+      <c r="J44" s="62">
+        <f t="shared" si="11"/>
         <v>0.24237999999999998</v>
       </c>
-      <c r="K44" s="5">
-        <f t="shared" si="11"/>
+      <c r="K44" s="62">
+        <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>196.14500937324382</v>
       </c>
-      <c r="M44" s="26">
-        <f t="shared" si="13"/>
+      <c r="M44" s="45">
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B45" s="46">
         <v>1</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="41">
         <v>9</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="62">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="62">
         <v>0.47660000000000002</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="62">
         <v>0.47389999999999999</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="62">
         <v>0.47420000000000001</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="62">
         <v>0.47689999999999999</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="10"/>
+      <c r="J45" s="62">
+        <f t="shared" si="11"/>
         <v>0.47531999999999996</v>
       </c>
-      <c r="K45" s="5">
-        <f t="shared" si="11"/>
+      <c r="K45" s="62">
+        <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>346.93966287383802</v>
       </c>
-      <c r="M45" s="26">
-        <f t="shared" si="13"/>
+      <c r="M45" s="45">
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B46" s="43">
         <v>0</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="41">
         <v>10</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="62">
         <v>1.0209999999999999</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="62">
         <v>1.02</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="62">
         <v>1.0209999999999999</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="62">
         <v>1.016</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="62">
         <v>1.0209999999999999</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="10"/>
+      <c r="J46" s="62">
+        <f t="shared" si="11"/>
         <v>1.0197999999999998</v>
       </c>
-      <c r="K46" s="5">
-        <f t="shared" si="11"/>
+      <c r="K46" s="62">
+        <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="62">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>470.39866297393797</v>
       </c>
-      <c r="M46" s="26">
-        <f t="shared" si="13"/>
+      <c r="M46" s="45">
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="3"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="4"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B47" s="46"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="48"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="28" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="16" t="s">
+      <c r="F48" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="16" t="s">
+      <c r="H48" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I48" s="16" t="s">
+      <c r="I48" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="16" t="s">
+      <c r="K48" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M48" s="29" t="s">
-        <v>38</v>
+      <c r="M48" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="27">
+      <c r="A49" s="65"/>
+      <c r="B49" s="33">
         <v>7</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="63">
+        <v>3</v>
+      </c>
+      <c r="D49" s="20">
         <v>0</v>
       </c>
-      <c r="D49" s="20">
-        <v>3</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="E49" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="64">
         <v>8.158E-2</v>
       </c>
-      <c r="G49" s="19">
+      <c r="G49" s="64">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="64">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="64">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="64">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K49" s="38">
-        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
+      <c r="K49" s="50">
+        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L49" s="38">
-        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
+      <c r="L49" s="50">
+        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M49" s="39">
+      <c r="M49" s="51">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="28">
+      <c r="A50" s="65"/>
+      <c r="B50" s="66">
         <v>7</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="67">
+        <v>2</v>
+      </c>
+      <c r="D50" s="21">
         <v>1</v>
       </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="5">
-        <v>8.1780000000000005E-2</v>
-      </c>
-      <c r="G50" s="5">
-        <v>8.1850000000000006E-2</v>
-      </c>
-      <c r="H50" s="5">
-        <v>8.1780000000000005E-2</v>
-      </c>
-      <c r="I50" s="5">
-        <v>8.183E-2</v>
-      </c>
-      <c r="J50" s="5">
-        <v>0.1522</v>
-      </c>
-      <c r="K50" s="14">
-        <f t="shared" si="14"/>
-        <v>9.5888000000000001E-2</v>
-      </c>
-      <c r="L50" s="14">
+      <c r="E50" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="62">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="G50" s="62">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="H50" s="62">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="I50" s="62">
+        <v>8.1790000000000002E-2</v>
+      </c>
+      <c r="J50" s="62">
+        <v>8.1790000000000002E-2</v>
+      </c>
+      <c r="K50" s="52">
         <f t="shared" si="15"/>
-        <v>3.1479380076488157E-2</v>
-      </c>
-      <c r="M50" s="31">
+        <v>8.1820000000000004E-2</v>
+      </c>
+      <c r="L50" s="52">
+        <f t="shared" si="16"/>
+        <v>2.7386127875255291E-5</v>
+      </c>
+      <c r="M50" s="53">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
-        <v>3.0460574435396337</v>
+        <v>2987.6439770051752</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="28">
+      <c r="A51" s="65"/>
+      <c r="B51" s="66">
         <v>7</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="67">
+        <v>1</v>
+      </c>
+      <c r="D51" s="21">
         <v>2</v>
       </c>
-      <c r="D51" s="1">
-        <v>1</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="5">
-        <v>9.6310000000000007E-2</v>
-      </c>
-      <c r="G51" s="5">
-        <v>9.8640000000000005E-2</v>
-      </c>
-      <c r="H51" s="5">
-        <v>9.7259999999999999E-2</v>
-      </c>
-      <c r="I51" s="5">
-        <v>9.8580000000000001E-2</v>
-      </c>
-      <c r="J51" s="5">
-        <v>9.8250000000000004E-2</v>
-      </c>
-      <c r="K51" s="13">
-        <f t="shared" si="14"/>
-        <v>9.7808000000000006E-2</v>
-      </c>
-      <c r="L51" s="13">
+      <c r="E51" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="62">
+        <v>8.4190000000000001E-2</v>
+      </c>
+      <c r="G51" s="62">
+        <v>8.4129999999999996E-2</v>
+      </c>
+      <c r="H51" s="62">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="I51" s="62">
+        <v>8.4110000000000004E-2</v>
+      </c>
+      <c r="J51" s="62">
+        <v>8.4110000000000004E-2</v>
+      </c>
+      <c r="K51" s="54">
         <f t="shared" si="15"/>
-        <v>1.0034789484588097E-3</v>
-      </c>
-      <c r="M51" s="30">
+        <v>8.4128000000000008E-2</v>
+      </c>
+      <c r="L51" s="54">
+        <f t="shared" si="16"/>
+        <v>3.6331804249170328E-5</v>
+      </c>
+      <c r="M51" s="55">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
-        <v>97.468910683396146</v>
+        <v>2315.5469908137347</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="28">
+      <c r="A52" s="65"/>
+      <c r="B52" s="66">
         <v>7</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="67">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21">
         <v>3</v>
       </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="5">
-        <v>0.1242</v>
-      </c>
-      <c r="G52" s="5">
-        <v>0.1242</v>
-      </c>
-      <c r="H52" s="5">
-        <v>0.1239</v>
-      </c>
-      <c r="I52" s="5">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="J52" s="5">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="K52" s="14">
-        <f t="shared" si="14"/>
-        <v>0.12418</v>
-      </c>
-      <c r="L52" s="14">
+      <c r="E52" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="F52" s="62">
+        <v>8.1720000000000001E-2</v>
+      </c>
+      <c r="G52" s="62">
+        <v>8.1750000000000003E-2</v>
+      </c>
+      <c r="H52" s="62">
+        <v>8.1780000000000005E-2</v>
+      </c>
+      <c r="I52" s="62">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="J52" s="62">
+        <v>8.1839999999999996E-2</v>
+      </c>
+      <c r="K52" s="52">
         <f t="shared" si="15"/>
-        <v>1.6431676725154947E-4</v>
-      </c>
-      <c r="M52" s="31">
+        <v>8.1785999999999998E-2</v>
+      </c>
+      <c r="L52" s="52">
+        <f t="shared" si="16"/>
+        <v>5.3665631459991991E-5</v>
+      </c>
+      <c r="M52" s="53">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
-        <v>755.73541323324082</v>
+        <v>1523.9921300650658</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" s="7"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="4"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="58"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="48"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="7"/>
-      <c r="M54" s="15"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="58"/>
+      <c r="M54" s="68"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="3" t="s">
+      <c r="A55" s="65"/>
+      <c r="B55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="16" t="s">
+      <c r="H55" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="16" t="s">
+      <c r="I55" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M55" s="29" t="s">
-        <v>38</v>
+      <c r="M55" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="27">
+      <c r="A56" s="65"/>
+      <c r="B56" s="33">
         <v>7</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="63">
+        <v>0</v>
+      </c>
+      <c r="D56" s="20">
         <v>3</v>
       </c>
-      <c r="D56" s="20">
-        <v>0</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="19">
+      <c r="E56" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="64">
         <v>8.158E-2</v>
       </c>
-      <c r="G56" s="19">
+      <c r="G56" s="64">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="64">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="64">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J56" s="19">
+      <c r="J56" s="64">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K56" s="38">
-        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
+      <c r="K56" s="50">
+        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L56" s="38">
-        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
+      <c r="L56" s="50">
+        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M56" s="39">
+      <c r="M56" s="51">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="3">
+      <c r="B57" s="34">
         <v>6</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="67">
+        <v>1</v>
+      </c>
+      <c r="D57" s="23">
         <v>3</v>
       </c>
-      <c r="D57" s="22">
-        <v>1</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="5">
-        <v>9.2329999999999995E-2</v>
-      </c>
-      <c r="G57" s="5">
-        <v>9.2299999999999993E-2</v>
-      </c>
-      <c r="H57" s="5">
-        <v>9.2299999999999993E-2</v>
-      </c>
-      <c r="I57" s="5">
-        <v>9.2280000000000001E-2</v>
-      </c>
-      <c r="J57" s="5">
-        <v>9.2340000000000005E-2</v>
-      </c>
-      <c r="K57" s="14">
-        <f t="shared" si="16"/>
-        <v>9.2310000000000003E-2</v>
-      </c>
-      <c r="L57" s="14">
+      <c r="E57" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F57" s="62">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="G57" s="62">
+        <v>8.1610000000000002E-2</v>
+      </c>
+      <c r="H57" s="62">
+        <v>8.1540000000000001E-2</v>
+      </c>
+      <c r="I57" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="J57" s="62">
+        <v>8.1549999999999997E-2</v>
+      </c>
+      <c r="K57" s="52">
         <f t="shared" si="17"/>
-        <v>2.4494897427833618E-5</v>
-      </c>
-      <c r="M57" s="31">
+        <v>8.1574000000000008E-2</v>
+      </c>
+      <c r="L57" s="52">
+        <f t="shared" si="18"/>
+        <v>3.0495901363955644E-5</v>
+      </c>
+      <c r="M57" s="53">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>3768.5399692716369</v>
+        <v>2674.9168364118486</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="3">
+      <c r="B58" s="34">
         <v>5</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="67">
+        <v>2</v>
+      </c>
+      <c r="D58" s="23">
         <v>3</v>
       </c>
-      <c r="D58" s="22">
-        <v>2</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="5">
-        <v>0.11840000000000001</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="H58" s="5">
-        <v>0.1183</v>
-      </c>
-      <c r="I58" s="5">
-        <v>0.11849999999999999</v>
-      </c>
-      <c r="J58" s="5">
-        <v>0.1182</v>
-      </c>
-      <c r="K58" s="13">
-        <f t="shared" si="16"/>
-        <v>0.11838</v>
-      </c>
-      <c r="L58" s="13">
+      <c r="E58" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="62">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="G58" s="62">
+        <v>8.1619999999999998E-2</v>
+      </c>
+      <c r="H58" s="62">
+        <v>8.1619999999999998E-2</v>
+      </c>
+      <c r="I58" s="62">
+        <v>8.1629999999999994E-2</v>
+      </c>
+      <c r="J58" s="62">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="K58" s="54">
         <f t="shared" si="17"/>
-        <v>1.3038404810405033E-4</v>
-      </c>
-      <c r="M58" s="30">
+        <v>8.1613999999999992E-2</v>
+      </c>
+      <c r="L58" s="54">
+        <f t="shared" si="18"/>
+        <v>1.3416407864993537E-5</v>
+      </c>
+      <c r="M58" s="55">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>907.93315379753551</v>
+        <v>6083.1483971912858</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="3">
+      <c r="B59" s="34">
         <v>4</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="67">
         <v>3</v>
       </c>
-      <c r="D59" s="22">
+      <c r="D59" s="23">
         <v>3</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" s="5">
-        <v>0.1333</v>
-      </c>
-      <c r="G59" s="5">
-        <v>0.1331</v>
-      </c>
-      <c r="H59" s="5">
-        <v>0.13320000000000001</v>
-      </c>
-      <c r="I59" s="5">
-        <v>0.1331</v>
-      </c>
-      <c r="J59" s="5">
-        <v>0.13320000000000001</v>
-      </c>
-      <c r="K59" s="14">
-        <f t="shared" si="16"/>
-        <v>0.13317999999999999</v>
-      </c>
-      <c r="L59" s="14">
+      <c r="E59" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="G59" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="H59" s="62">
+        <v>8.1610000000000002E-2</v>
+      </c>
+      <c r="I59" s="62">
+        <v>8.1629999999999994E-2</v>
+      </c>
+      <c r="J59" s="62">
+        <v>8.1610000000000002E-2</v>
+      </c>
+      <c r="K59" s="52">
         <f t="shared" si="17"/>
-        <v>8.3666002653411611E-5</v>
-      </c>
-      <c r="M59" s="31">
+        <v>8.1598000000000004E-2</v>
+      </c>
+      <c r="L59" s="52">
+        <f t="shared" si="18"/>
+        <v>2.6832815729994315E-5</v>
+      </c>
+      <c r="M59" s="53">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>1591.8054619114682</v>
+        <v>3040.9779138008225</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="3">
+      <c r="B60" s="34">
         <v>3</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="67">
+        <v>4</v>
+      </c>
+      <c r="D60" s="23">
         <v>3</v>
       </c>
-      <c r="D60" s="22">
-        <v>4</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F60" s="5">
-        <v>0.1414</v>
-      </c>
-      <c r="G60" s="5">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="H60" s="5">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="I60" s="5">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="J60" s="5">
-        <v>0.1414</v>
-      </c>
-      <c r="K60" s="34">
-        <f t="shared" si="16"/>
-        <v>0.14138000000000001</v>
-      </c>
-      <c r="L60" s="34">
+      <c r="E60" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="62">
+        <v>8.1589999999999996E-2</v>
+      </c>
+      <c r="G60" s="62">
+        <v>8.1549999999999997E-2</v>
+      </c>
+      <c r="H60" s="62">
+        <v>8.1619999999999998E-2</v>
+      </c>
+      <c r="I60" s="62">
+        <v>8.1530000000000005E-2</v>
+      </c>
+      <c r="J60" s="62">
+        <v>8.1549999999999997E-2</v>
+      </c>
+      <c r="K60" s="69">
         <f t="shared" si="17"/>
-        <v>8.3666002653398329E-5</v>
-      </c>
-      <c r="M60" s="35">
+        <v>8.1568000000000002E-2</v>
+      </c>
+      <c r="L60" s="69">
+        <f t="shared" si="18"/>
+        <v>3.6331804249167848E-5</v>
+      </c>
+      <c r="M60" s="70">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>1689.8142078771521</v>
+        <v>2245.0853098458015</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="3">
+      <c r="B61" s="34">
         <v>2</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="67">
+        <v>5</v>
+      </c>
+      <c r="D61" s="23">
         <v>3</v>
       </c>
-      <c r="D61" s="22">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F61" s="5">
-        <v>0.2409</v>
-      </c>
-      <c r="G61" s="5">
-        <v>0.24</v>
-      </c>
-      <c r="H61" s="5">
-        <v>0.2407</v>
-      </c>
-      <c r="I61" s="5">
-        <v>0.2394</v>
-      </c>
-      <c r="J61" s="5">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="16"/>
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="L61" s="5">
+      <c r="E61" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F61" s="62">
+        <v>8.1559999999999994E-2</v>
+      </c>
+      <c r="G61" s="62">
+        <v>8.1540000000000001E-2</v>
+      </c>
+      <c r="H61" s="62">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="I61" s="62">
+        <v>8.1589999999999996E-2</v>
+      </c>
+      <c r="J61" s="62">
+        <v>8.1559999999999994E-2</v>
+      </c>
+      <c r="K61" s="62">
         <f t="shared" si="17"/>
-        <v>6.0415229867972868E-4</v>
-      </c>
-      <c r="M61" s="6">
+        <v>8.156999999999999E-2</v>
+      </c>
+      <c r="L61" s="62">
+        <f t="shared" si="18"/>
+        <v>2.4494897427833614E-5</v>
+      </c>
+      <c r="M61" s="57">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>397.747390062298</v>
+        <v>3330.0813053134812</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="3">
+      <c r="B62" s="34">
         <v>1</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="67">
+        <v>6</v>
+      </c>
+      <c r="D62" s="23">
         <v>3</v>
       </c>
-      <c r="D62" s="22">
-        <v>6</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="5">
-        <v>0.47749999999999998</v>
-      </c>
-      <c r="G62" s="5">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="H62" s="5">
-        <v>0.47260000000000002</v>
-      </c>
-      <c r="I62" s="5">
-        <v>0.47470000000000001</v>
-      </c>
-      <c r="J62" s="5">
-        <v>0.47510000000000002</v>
-      </c>
-      <c r="K62" s="5">
+      <c r="E62" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F62" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="G62" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="H62" s="62">
+        <v>8.1610000000000002E-2</v>
+      </c>
+      <c r="I62" s="62">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="J62" s="62">
+        <v>8.158E-2</v>
+      </c>
+      <c r="K62" s="62">
         <f>AVERAGE(F62:J62)</f>
-        <v>0.47497999999999996</v>
-      </c>
-      <c r="L62" s="5">
+        <v>8.1580000000000014E-2</v>
+      </c>
+      <c r="L62" s="62">
         <f>STDEV(F62:J62)</f>
-        <v>1.7398275776639334E-3</v>
-      </c>
-      <c r="M62" s="6">
+        <v>1.7320508075688065E-5</v>
+      </c>
+      <c r="M62" s="57">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>273.00406436697347</v>
+        <v>4710.0234960491598</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="8">
+      <c r="B63" s="35">
         <v>0</v>
       </c>
-      <c r="C63" s="32">
+      <c r="C63" s="36">
+        <v>7</v>
+      </c>
+      <c r="D63" s="24">
         <v>3</v>
       </c>
-      <c r="D63" s="32">
-        <v>7</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="G63" s="10">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="H63" s="10">
-        <v>1.02</v>
-      </c>
-      <c r="I63" s="10">
-        <v>1.0209999999999999</v>
-      </c>
-      <c r="J63" s="10">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="K63" s="10">
+      <c r="E63" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63" s="38">
+        <v>8.1610000000000002E-2</v>
+      </c>
+      <c r="G63" s="38">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="H63" s="38">
+        <v>8.1589999999999996E-2</v>
+      </c>
+      <c r="I63" s="38">
+        <v>8.1570000000000004E-2</v>
+      </c>
+      <c r="J63" s="38">
+        <v>8.158E-2</v>
+      </c>
+      <c r="K63" s="38">
         <f>AVERAGE(F63:J63)</f>
-        <v>1.0198</v>
-      </c>
-      <c r="L63" s="10">
+        <v>8.159000000000001E-2</v>
+      </c>
+      <c r="L63" s="38">
         <f>STDEV(F63:J63)</f>
-        <v>8.3666002653408952E-4</v>
-      </c>
-      <c r="M63" s="11">
+        <v>1.5811388300842352E-5</v>
+      </c>
+      <c r="M63" s="61">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
-        <v>1218.8941357991944</v>
+        <v>5160.2046858626136</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D95" s="43"/>
+      <c r="C95" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" s="71"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F97" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="G97" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="1" t="s">
+      <c r="H97" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K97" s="1" t="s">
+      <c r="K97" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L97" s="1" t="s">
+      <c r="L97" s="41" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C98" s="18">
+      <c r="C98" s="72">
         <v>10</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="41">
         <v>0</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F98" s="62">
         <v>0.2482</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98" s="62">
         <v>0.2319</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H98" s="62">
         <v>0.22839999999999999</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I98" s="62">
         <v>0.23219999999999999</v>
       </c>
-      <c r="J98" s="5">
+      <c r="J98" s="62">
         <v>0.23580000000000001</v>
       </c>
-      <c r="K98" s="5">
-        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
+      <c r="K98" s="62">
+        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
-      <c r="L98" s="5">
-        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
+      <c r="L98" s="62">
+        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C99" s="1">
+      <c r="C99" s="41">
         <v>9</v>
       </c>
-      <c r="D99" s="1">
+      <c r="D99" s="41">
         <v>1</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F99" s="62">
         <v>0.2099</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99" s="62">
         <v>0.2074</v>
       </c>
-      <c r="H99" s="5">
+      <c r="H99" s="62">
         <v>0.2059</v>
       </c>
-      <c r="I99" s="5">
+      <c r="I99" s="62">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J99" s="5">
+      <c r="J99" s="62">
         <v>0.18429999999999999</v>
       </c>
-      <c r="K99" s="5">
-        <f t="shared" si="18"/>
+      <c r="K99" s="62">
+        <f t="shared" si="19"/>
         <v>0.20311999999999997</v>
       </c>
-      <c r="L99" s="5">
-        <f t="shared" si="19"/>
+      <c r="L99" s="62">
+        <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C100" s="18">
+      <c r="C100" s="72">
         <v>8</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D100" s="41">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F100" s="62">
         <v>0.15540000000000001</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100" s="62">
         <v>0.1525</v>
       </c>
-      <c r="H100" s="5">
+      <c r="H100" s="62">
         <v>0.158</v>
       </c>
-      <c r="I100" s="5">
+      <c r="I100" s="62">
         <v>0.15509999999999999</v>
       </c>
-      <c r="J100" s="5">
+      <c r="J100" s="62">
         <v>0.15490000000000001</v>
       </c>
-      <c r="K100" s="5">
-        <f t="shared" si="18"/>
+      <c r="K100" s="62">
+        <f t="shared" si="19"/>
         <v>0.15518000000000001</v>
       </c>
-      <c r="L100" s="5">
-        <f t="shared" si="19"/>
+      <c r="L100" s="62">
+        <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="1">
+      <c r="C101" s="41">
         <v>7</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D101" s="41">
         <v>3</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F101" s="62">
         <v>0.13489999999999999</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101" s="62">
         <v>0.15740000000000001</v>
       </c>
-      <c r="H101" s="5">
+      <c r="H101" s="62">
         <v>0.1348</v>
       </c>
-      <c r="I101" s="5">
+      <c r="I101" s="62">
         <v>0.1346</v>
       </c>
-      <c r="J101" s="5">
+      <c r="J101" s="62">
         <v>0.1565</v>
       </c>
-      <c r="K101" s="5">
-        <f t="shared" si="18"/>
+      <c r="K101" s="62">
+        <f t="shared" si="19"/>
         <v>0.14364000000000002</v>
       </c>
-      <c r="L101" s="5">
-        <f t="shared" si="19"/>
+      <c r="L101" s="62">
+        <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C102" s="18">
+      <c r="C102" s="72">
         <v>6</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="41">
         <v>4</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F102" s="62">
         <v>0.1477</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102" s="62">
         <v>0.15290000000000001</v>
       </c>
-      <c r="H102" s="5">
+      <c r="H102" s="62">
         <v>0.15559999999999999</v>
       </c>
-      <c r="I102" s="5">
+      <c r="I102" s="62">
         <v>0.15590000000000001</v>
       </c>
-      <c r="J102" s="5">
+      <c r="J102" s="62">
         <v>0.155</v>
       </c>
-      <c r="K102" s="5">
-        <f t="shared" si="18"/>
+      <c r="K102" s="62">
+        <f t="shared" si="19"/>
         <v>0.15342</v>
       </c>
-      <c r="L102" s="5">
-        <f t="shared" si="19"/>
+      <c r="L102" s="62">
+        <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C103" s="1">
+      <c r="C103" s="41">
         <v>5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D103" s="41">
         <v>5</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F103" s="62">
         <v>0.11940000000000001</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103" s="62">
         <v>0.14349999999999999</v>
       </c>
-      <c r="H103" s="5">
+      <c r="H103" s="62">
         <v>0.1196</v>
       </c>
-      <c r="I103" s="5">
+      <c r="I103" s="62">
         <v>0.1429</v>
       </c>
-      <c r="J103" s="5">
+      <c r="J103" s="62">
         <v>0.14280000000000001</v>
       </c>
-      <c r="K103" s="5">
-        <f t="shared" si="18"/>
+      <c r="K103" s="62">
+        <f t="shared" si="19"/>
         <v>0.13364000000000001</v>
       </c>
-      <c r="L103" s="5">
-        <f t="shared" si="19"/>
+      <c r="L103" s="62">
+        <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C104" s="18">
+      <c r="C104" s="72">
         <v>4</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D104" s="41">
         <v>6</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F104" s="62">
         <v>0.14180000000000001</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="62">
         <v>0.12529999999999999</v>
       </c>
-      <c r="H104" s="5">
+      <c r="H104" s="62">
         <v>0.12509999999999999</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I104" s="62">
         <v>0.12529999999999999</v>
       </c>
-      <c r="J104" s="5">
+      <c r="J104" s="62">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K104" s="5">
-        <f t="shared" si="18"/>
+      <c r="K104" s="62">
+        <f t="shared" si="19"/>
         <v>0.13189999999999999</v>
       </c>
-      <c r="L104" s="5">
-        <f t="shared" si="19"/>
+      <c r="L104" s="62">
+        <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C105" s="1">
+      <c r="C105" s="41">
         <v>3</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D105" s="41">
         <v>7</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F105" s="62">
         <v>0.15479999999999999</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105" s="62">
         <v>0.13039999999999999</v>
       </c>
-      <c r="H105" s="5">
+      <c r="H105" s="62">
         <v>0.13020000000000001</v>
       </c>
-      <c r="I105" s="5">
+      <c r="I105" s="62">
         <v>0.1552</v>
       </c>
-      <c r="J105" s="5">
+      <c r="J105" s="62">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K105" s="5">
-        <f t="shared" si="18"/>
+      <c r="K105" s="62">
+        <f t="shared" si="19"/>
         <v>0.14487999999999998</v>
       </c>
-      <c r="L105" s="5">
-        <f t="shared" si="19"/>
+      <c r="L105" s="62">
+        <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C106" s="18">
+      <c r="C106" s="72">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D106" s="41">
         <v>8</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F106" s="62">
         <v>0.1588</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106" s="62">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H106" s="5">
+      <c r="H106" s="62">
         <v>0.15909999999999999</v>
       </c>
-      <c r="I106" s="5">
+      <c r="I106" s="62">
         <v>0.15909999999999999</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="62">
         <v>0.1552</v>
       </c>
-      <c r="K106" s="5">
-        <f t="shared" si="18"/>
+      <c r="K106" s="62">
+        <f t="shared" si="19"/>
         <v>0.15722</v>
       </c>
-      <c r="L106" s="5">
-        <f t="shared" si="19"/>
+      <c r="L106" s="62">
+        <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C107" s="1">
+      <c r="C107" s="41">
         <v>1</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="41">
         <v>9</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F107" s="62">
         <v>0.16159999999999999</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107" s="62">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H107" s="5">
+      <c r="H107" s="62">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I107" s="5">
+      <c r="I107" s="62">
         <v>0.14080000000000001</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="62">
         <v>0.16619999999999999</v>
       </c>
-      <c r="K107" s="5">
-        <f t="shared" si="18"/>
+      <c r="K107" s="62">
+        <f t="shared" si="19"/>
         <v>0.16006000000000001</v>
       </c>
-      <c r="L107" s="5">
-        <f t="shared" si="19"/>
+      <c r="L107" s="62">
+        <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C108" s="18">
+      <c r="C108" s="72">
         <v>0</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="41">
         <v>10</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F108" s="62">
         <v>0.16919999999999999</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108" s="62">
         <v>0.1691</v>
       </c>
-      <c r="H108" s="5">
+      <c r="H108" s="62">
         <v>0.17230000000000001</v>
       </c>
-      <c r="I108" s="5">
+      <c r="I108" s="62">
         <v>0.1741</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="62">
         <v>0.16880000000000001</v>
       </c>
-      <c r="K108" s="5">
-        <f t="shared" si="18"/>
+      <c r="K108" s="62">
+        <f t="shared" si="19"/>
         <v>0.17069999999999999</v>
       </c>
-      <c r="L108" s="5">
-        <f t="shared" si="19"/>
+      <c r="L108" s="62">
+        <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
@@ -10154,24 +11724,24 @@
   <sheetData>
     <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="42"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -10195,40 +11765,40 @@
       <c r="M4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>0.1245</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <v>0.12379999999999999</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>0.1241</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>0.1246</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>0.12429999999999999</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f t="shared" ref="M5:M15" si="0">AVERAGE(H5:L5)</f>
         <v>0.12426</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5" s="5">
         <f t="shared" ref="N5:N15" si="1">STDEV(H5:L5)</f>
         <v>3.2093613071762674E-4</v>
       </c>
@@ -10237,66 +11807,66 @@
       <c r="E6" s="1">
         <v>9</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>8.0659999999999996E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>9.8790000000000003E-2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>9.5829999999999999E-2</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>9.7530000000000006E-2</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f t="shared" si="0"/>
         <v>9.2901999999999998E-2</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" si="1"/>
         <v>7.347984077282696E-3</v>
       </c>
     </row>
     <row r="7" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>8</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>6.2019999999999999E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <v>6.2039999999999998E-2</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>6.2050000000000001E-2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>6.2019999999999999E-2</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>6.2010000000000003E-2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <f t="shared" si="0"/>
         <v>6.2027999999999993E-2</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f t="shared" si="1"/>
         <v>1.6431676725154527E-5</v>
       </c>
@@ -10305,66 +11875,66 @@
       <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="4">
         <v>6.1830000000000003E-2</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>6.1830000000000003E-2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>6.1809999999999997E-2</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="4">
         <v>6.1789999999999998E-2</v>
       </c>
-      <c r="M8" s="5">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>6.1811999999999999E-2</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <f t="shared" si="1"/>
         <v>1.7888543820000498E-5</v>
       </c>
     </row>
     <row r="9" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>7.0930000000000007E-2</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <v>7.0959999999999995E-2</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>9.2480000000000007E-2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>9.2509999999999995E-2</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>9.2450000000000004E-2</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
         <v>8.3865999999999996E-2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <f t="shared" si="1"/>
         <v>1.1795229120284191E-2</v>
       </c>
@@ -10373,66 +11943,66 @@
       <c r="E10" s="1">
         <v>5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>0.1182</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <v>9.0789999999999996E-2</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>9.0859999999999996E-2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>9.0840000000000004E-2</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>0.1171</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>0.101558</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="1"/>
         <v>1.4695088295073395E-2</v>
       </c>
     </row>
     <row r="11" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>0.1331</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>0.13339999999999999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>0.1331</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>0.1017</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>0.1285</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>0.12595999999999999</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f t="shared" si="1"/>
         <v>1.3714153273170019E-2</v>
       </c>
@@ -10441,66 +12011,66 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>0.1414</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>0.10920000000000001</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>0.14130000000000001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>0.14180000000000001</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>0.14119999999999999</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>0.13498000000000002</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <f t="shared" si="1"/>
         <v>1.4413257785802625E-2</v>
       </c>
     </row>
     <row r="13" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E13" s="18">
+      <c r="E13" s="12">
         <v>2</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>8</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>0.23319999999999999</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <v>0.2417</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>0.23960000000000001</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>0.25169999999999998</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>0.26369999999999999</v>
       </c>
-      <c r="M13" s="5">
+      <c r="M13" s="4">
         <f t="shared" si="0"/>
         <v>0.24598</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="5">
         <f t="shared" si="1"/>
         <v>1.192757309765905E-2</v>
       </c>
@@ -10509,83 +12079,83 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>9</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>0.49759999999999999</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <v>0.47670000000000001</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>0.4743</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <v>0.49170000000000003</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>0.4738</v>
       </c>
-      <c r="M14" s="5">
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
         <v>0.48281999999999997</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f t="shared" si="1"/>
         <v>1.1053370526676466E-2</v>
       </c>
     </row>
     <row r="15" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>1.0109999999999999</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>1.046</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>1.018</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>1.0189999999999999</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>1.018</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="4">
         <f t="shared" si="0"/>
         <v>1.0224</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f t="shared" si="1"/>
         <v>1.3575713609236206E-2</v>
       </c>
     </row>
     <row r="16" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="7"/>
-      <c r="N16" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="N16" s="9"/>
     </row>
     <row r="17" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E17" s="7"/>
-      <c r="N17" s="15"/>
+      <c r="E17" s="6"/>
+      <c r="N17" s="9"/>
     </row>
     <row r="18" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -10609,40 +12179,40 @@
       <c r="M18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="N18" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>10</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="13">
         <v>0.1246</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="13">
         <v>0.1242</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="13">
         <v>0.124</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="13">
         <v>0.125</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="13">
         <v>0.124</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>0.12436</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>4.3358966777357625E-4</v>
       </c>
@@ -10651,66 +12221,66 @@
       <c r="E20" s="1">
         <v>9</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="13">
         <v>9.8400000000000001E-2</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="13">
         <v>9.8419999999999994E-2</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="13">
         <v>9.6339999999999995E-2</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="13">
         <v>9.8419999999999994E-2</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="13">
         <v>9.8280000000000006E-2</v>
       </c>
-      <c r="M20" s="5">
+      <c r="M20" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>9.797199999999999E-2</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>9.141772257062644E-4</v>
       </c>
     </row>
     <row r="21" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E21" s="18">
+      <c r="E21" s="12">
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="13">
         <v>7.6730000000000007E-2</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="13">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="13">
         <v>8.1850000000000006E-2</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="13">
         <v>6.2030000000000002E-2</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="13">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>7.685800000000001E-2</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>8.5797243545465939E-3</v>
       </c>
@@ -10719,66 +12289,66 @@
       <c r="E22" s="1">
         <v>7</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="13">
         <v>8.165E-2</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="13">
         <v>8.1629999999999994E-2</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="13">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="13">
         <v>6.1830000000000003E-2</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="13">
         <v>6.1850000000000002E-2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>7.3714000000000002E-2</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>1.0839440944993449E-2</v>
       </c>
     </row>
     <row r="23" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="18">
+      <c r="E23" s="12">
         <v>6</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="13">
         <v>9.1939999999999994E-2</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="13">
         <v>9.2509999999999995E-2</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="13">
         <v>9.2509999999999995E-2</v>
       </c>
-      <c r="K23" s="21">
+      <c r="K23" s="13">
         <v>7.0940000000000003E-2</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="13">
         <v>9.2350000000000002E-2</v>
       </c>
-      <c r="M23" s="5">
+      <c r="M23" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>8.8049999999999989E-2</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>9.5676198712114375E-3</v>
       </c>
@@ -10787,66 +12357,66 @@
       <c r="E24" s="1">
         <v>5</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>5</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="13">
         <v>0.1182</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="13">
         <v>0.11119999999999999</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="13">
         <v>9.0789999999999996E-2</v>
       </c>
-      <c r="K24" s="21">
+      <c r="K24" s="13">
         <v>0.1182</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="13">
         <v>0.10879999999999999</v>
       </c>
-      <c r="M24" s="5">
+      <c r="M24" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>0.10943799999999999</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>1.1233931635896669E-2</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="18">
+      <c r="E25" s="12">
         <v>4</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>6</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="13">
         <v>0.12509999999999999</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="13">
         <v>0.1331</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="13">
         <v>0.1084</v>
       </c>
-      <c r="K25" s="21">
+      <c r="K25" s="13">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L25" s="21">
+      <c r="L25" s="13">
         <v>0.12839999999999999</v>
       </c>
-      <c r="M25" s="5">
+      <c r="M25" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>0.12559999999999999</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>1.0185038046075234E-2</v>
       </c>
@@ -10855,56 +12425,56 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>7</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="13">
         <v>0.14130000000000001</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="13">
         <v>0.1416</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="13">
         <v>0.14080000000000001</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="13">
         <v>0.10920000000000001</v>
       </c>
-      <c r="L26" s="21">
+      <c r="L26" s="13">
         <v>0.1389</v>
       </c>
-      <c r="M26" s="5">
+      <c r="M26" s="4">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>0.13436000000000001</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26" s="5">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>1.4104006522970697E-2</v>
       </c>
     </row>
     <row r="27" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="18">
+      <c r="E27" s="12">
         <v>2</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5" t="e">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="e">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N27" s="6" t="e">
+      <c r="N27" s="5" t="e">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
@@ -10913,46 +12483,46 @@
       <c r="E28" s="1">
         <v>1</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5" t="e">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="e">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="6" t="e">
+      <c r="N28" s="5" t="e">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="18">
+      <c r="E29" s="12">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>10</v>
       </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="5" t="e">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="4" t="e">
         <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N29" s="6" t="e">
+      <c r="N29" s="5" t="e">
         <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
         <v>#DIV/0!</v>
       </c>
@@ -10970,21 +12540,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -11213,10 +12768,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11239,20 +12820,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652CFA8B-9D98-4316-85E1-96F4819CF65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7E8B24-F57C-4AB8-80C7-AE474B8E826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,6 +501,96 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,156 +600,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,40 +616,134 @@
   </cellStyles>
   <dxfs count="120">
     <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1276,19 +1312,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1479,30 +1526,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2062,19 +2098,30 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2424,34 +2471,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2461,97 +2490,10 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2613,7 +2555,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2872,6 +2814,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2905,7 +2860,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -2925,6 +2880,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2952,7 +2920,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -2993,7 +2961,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3041,7 +3009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3129,7 +3097,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3434,7 +3402,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3495,7 +3463,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3536,7 +3504,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3584,7 +3552,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3610,6 +3578,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia Block</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3641,7 +3640,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3762,6 +3761,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3795,7 +3807,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3815,20 +3827,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
+        <c:minorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln>
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
+                  <a:alpha val="5000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -3856,7 +3867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3915,7 +3926,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3941,6 +3952,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia Grid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3972,7 +4014,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4093,6 +4135,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4126,7 +4181,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4141,11 +4196,22 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4173,7 +4239,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4232,7 +4298,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4320,7 +4386,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4435,6 +4501,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4468,7 +4547,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4526,7 +4605,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4585,7 +4664,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4673,7 +4752,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4800,6 +4879,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4833,7 +4926,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4891,7 +4984,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4950,7 +5043,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8218,15 +8311,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>77661</xdr:colOff>
+      <xdr:colOff>221096</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38831</xdr:rowOff>
+      <xdr:rowOff>65725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>292505</xdr:colOff>
+      <xdr:colOff>435940</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>102006</xdr:rowOff>
+      <xdr:rowOff>128900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8409,27 +8502,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="89"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="88"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="87">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="114"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="113"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="112"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="109">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="86">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="108">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="85">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="107">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="84">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="106">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8438,21 +8531,21 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
   <autoFilter ref="C97:L108" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="77"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="76"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="75"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="74"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="73">
+    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="103"/>
+    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="102"/>
+    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="101"/>
+    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="100"/>
+    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="99"/>
+    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="98"/>
+    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="97"/>
+    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="96"/>
+    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="95">
       <calculatedColumnFormula>AVERAGE(F98:J98)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="72">
+    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="94">
       <calculatedColumnFormula>STDEV(F98:J98)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8461,25 +8554,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="blockDimX" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimY" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="66"/>
-    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="65"/>
-    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="64"/>
-    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="63"/>
-    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="61"/>
-    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="blockDimX" dataDxfId="90"/>
+    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimY" dataDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="88"/>
+    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="87"/>
+    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="86"/>
+    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="85"/>
+    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="84"/>
+    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="83"/>
+    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media" dataDxfId="82">
       <calculatedColumnFormula>AVERAGE(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao" dataDxfId="59">
+    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao" dataDxfId="81">
       <calculatedColumnFormula>STDEV(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="58">
+    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="80">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8488,25 +8581,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="B24:M30" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="gridDimY" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX2" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="49"/>
-    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="48"/>
-    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="47"/>
-    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media" dataDxfId="46">
+    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="gridDimY" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX2" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media" dataDxfId="68">
       <calculatedColumnFormula>AVERAGE(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao" dataDxfId="45">
+    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao" dataDxfId="67">
       <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="44">
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="66">
       <calculatedColumnFormula>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8515,27 +8608,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="60"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="59"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="57"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="56"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="55">
       <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="32">
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="54">
       <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="31">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="53">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="30">
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="52">
       <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8544,25 +8637,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="40">
       <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="39">
       <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="16">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="38">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8571,25 +8664,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="26">
       <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="3">
+    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="25">
       <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="2">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="24">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8598,21 +8691,21 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="13">
       <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="12">
       <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8621,21 +8714,21 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="102"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="101"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="100"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="99"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="98"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="97">
+    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="1">
       <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="96">
+    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="0">
       <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8908,644 +9001,642 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD68" sqref="AD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="39"/>
-    <col min="2" max="2" width="15" style="39" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="39" customWidth="1"/>
-    <col min="5" max="5" width="22.44140625" style="39" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="39" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="39" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" style="39" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="39" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" style="39" customWidth="1"/>
-    <col min="13" max="13" width="14" style="39" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="39"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
+      <c r="A2">
         <f t="shared" ref="A2:A12" si="0">2^C4</f>
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
+      <c r="A3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="P3" s="41"/>
+      <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="33">
         <v>10</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="4">
         <f>0.2272</f>
         <v>0.22720000000000001</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="4">
         <v>0.23280000000000001</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="4">
         <v>0.26340000000000002</v>
       </c>
-      <c r="H4" s="44">
+      <c r="H4" s="4">
         <v>0.22770000000000001</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="4">
         <v>0.22800000000000001</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="4">
         <f t="shared" ref="J4:J14" si="1">AVERAGE(E4:I4)</f>
         <v>0.23582</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="4">
         <f t="shared" ref="K4:K14" si="2">STDEV(E4:I4)</f>
         <v>1.5581784236729764E-2</v>
       </c>
-      <c r="L4" s="44">
+      <c r="L4" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.134338687871143</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="34">
         <v>0.23582</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="P4" s="41"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="39">
+      <c r="A5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="2">
         <v>9</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="4">
         <f>0.201</f>
         <v>0.20100000000000001</v>
       </c>
-      <c r="F5" s="44">
+      <c r="F5" s="4">
         <v>0.2089</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="4">
         <v>0.20280000000000001</v>
       </c>
-      <c r="H5" s="44">
+      <c r="H5" s="4">
         <v>0.22170000000000001</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="4">
         <v>0.22819999999999999</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="4">
         <f t="shared" si="1"/>
         <v>0.21251999999999999</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="4">
         <f t="shared" si="2"/>
         <v>1.1941817282139257E-2</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>17.796286359016303</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="34">
         <f>M4/2</f>
         <v>0.11791</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="P5" s="41"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="39">
+      <c r="A6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="33">
         <v>8</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="4">
         <v>0.15620000000000001</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="4">
         <v>0.13669999999999999</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="4">
         <v>0.15959999999999999</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="4">
         <v>0.15920000000000001</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="4">
         <v>0.15920000000000001</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0.15418000000000001</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="4">
         <f t="shared" si="2"/>
         <v>9.8667117116088953E-3</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.62628001166753</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="34">
         <f t="shared" ref="M6:M9" si="3">M5/2</f>
         <v>5.8955E-2</v>
       </c>
-      <c r="N6" s="41"/>
-      <c r="P6" s="41"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="39">
+      <c r="A7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="2">
         <v>7</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="4">
         <v>0.15010000000000001</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="4">
         <v>0.1537</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="4">
         <v>0.1565</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="4">
         <v>0.15609999999999999</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="4">
         <v>0.1532</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0.15392</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="4">
         <f t="shared" si="2"/>
         <v>2.5772077913897369E-3</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>59.723550624918751</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="34">
         <f t="shared" si="3"/>
         <v>2.94775E-2</v>
       </c>
-      <c r="N7" s="41"/>
-      <c r="P7" s="41"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="39">
+      <c r="A8">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B8" s="43">
+      <c r="B8" s="33">
         <v>6</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="4">
         <v>0.1522</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="4">
         <v>0.15390000000000001</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="4">
         <v>0.1547</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="4">
         <v>0.1522</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>0.15322</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="4">
         <f t="shared" si="2"/>
         <v>1.0894952959971894E-3</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>140.63392523394177</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="34">
         <f t="shared" si="3"/>
         <v>1.473875E-2</v>
       </c>
-      <c r="N8" s="41"/>
-      <c r="P8" s="41"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="39">
+      <c r="A9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="27">
         <v>5</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <v>5</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="35">
         <v>0.1431</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="35">
         <v>0.1431</v>
       </c>
-      <c r="G9" s="47">
+      <c r="G9" s="35">
         <v>0.14249999999999999</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="35">
         <v>0.1434</v>
       </c>
-      <c r="I9" s="47">
+      <c r="I9" s="35">
         <v>0.14230000000000001</v>
       </c>
-      <c r="J9" s="47">
+      <c r="J9" s="35">
         <f t="shared" si="1"/>
         <v>0.14287999999999998</v>
       </c>
-      <c r="K9" s="47">
+      <c r="K9" s="35">
         <f t="shared" si="2"/>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="L9" s="47">
+      <c r="L9" s="35">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="34">
         <f t="shared" si="3"/>
         <v>7.3693750000000001E-3</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="P9" s="41"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="39">
+      <c r="A10">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="B10" s="43">
+      <c r="B10" s="33">
         <v>4</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="4">
         <v>0.14710000000000001</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="4">
         <v>0.1479</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="4">
         <v>0.14149999999999999</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="4">
         <v>0.1489</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="4">
         <v>0.14929999999999999</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0.14694000000000002</v>
       </c>
-      <c r="K10" s="44">
+      <c r="K10" s="4">
         <f t="shared" si="2"/>
         <v>3.1603797240205215E-3</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L10" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>46.494412960309788</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="34">
         <f>0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N10" s="41"/>
-      <c r="P10" s="41"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="39">
+      <c r="A11">
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="4">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="4">
         <v>0.15440000000000001</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="4">
         <v>0.1547</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="4">
         <v>0.15310000000000001</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="4">
         <v>0.15409999999999999</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>0.15306</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="4">
         <f t="shared" si="2"/>
         <v>2.3479778533878927E-3</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>65.188008387366182</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="34">
         <f t="shared" ref="M11:M14" si="4">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N11" s="41"/>
-      <c r="P11" s="41"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="39">
+      <c r="A12">
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="B12" s="43">
+      <c r="B12" s="33">
         <v>2</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="1">
         <v>8</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="4">
         <v>0.15140000000000001</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="4">
         <v>0.1593</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="4">
         <v>0.15939999999999999</v>
       </c>
-      <c r="H12" s="44">
+      <c r="H12" s="4">
         <v>0.154</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0.15660000000000002</v>
       </c>
-      <c r="K12" s="44">
+      <c r="K12" s="4">
         <f t="shared" si="2"/>
         <v>3.6817115585010152E-3</v>
       </c>
-      <c r="L12" s="44">
+      <c r="L12" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>42.534565109646636</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="34">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="P12" s="41"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="46">
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="30">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="4">
         <v>0.1658</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="4">
         <v>0.1595</v>
       </c>
-      <c r="G13" s="44">
+      <c r="G13" s="4">
         <v>0.1661</v>
       </c>
-      <c r="H13" s="44">
+      <c r="H13" s="4">
         <v>0.16589999999999999</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="4">
         <v>0.16619999999999999</v>
       </c>
-      <c r="J13" s="44">
+      <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0.16470000000000001</v>
       </c>
-      <c r="K13" s="44">
+      <c r="K13" s="4">
         <f t="shared" si="2"/>
         <v>2.9111853256019236E-3</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>56.574893584264082</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="34">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N13" s="41"/>
-      <c r="P13" s="41"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="43">
+      <c r="B14" s="33">
         <v>0</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="4">
         <v>0.1696</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="4">
         <v>0.16969999999999999</v>
       </c>
-      <c r="G14" s="44">
+      <c r="G14" s="4">
         <v>0.17</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="4">
         <v>0.16919999999999999</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="4">
         <v>0.16769999999999999</v>
       </c>
-      <c r="J14" s="44">
+      <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0.16924</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="4">
         <f t="shared" si="2"/>
         <v>9.0719347440334456E-4</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="4">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>186.55337011910066</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="34">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
-      <c r="N14" s="41"/>
-      <c r="P14" s="41"/>
+      <c r="N14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="46"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="41"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="10" t="s">
@@ -9575,291 +9666,282 @@
       <c r="M16" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="41"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="33">
+      <c r="A17" s="51"/>
+      <c r="B17" s="27">
         <v>5</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>5</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="17">
         <v>0</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="35">
         <v>0.1431</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="35">
         <v>0.1431</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="35">
         <v>0.14249999999999999</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="35">
         <v>0.1434</v>
       </c>
-      <c r="J17" s="47">
+      <c r="J17" s="35">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="36">
         <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L17" s="50">
+      <c r="L17" s="36">
         <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="37">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="N17" s="41"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="46">
+      <c r="A18" s="51"/>
+      <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="25">
         <v>4</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="4">
         <v>0.15989999999999999</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="4">
         <v>0.1608</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="4">
         <v>0.16170000000000001</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="4">
         <v>0.16020000000000001</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="4">
         <v>0.16059999999999999</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="38">
         <f t="shared" si="5"/>
         <v>0.16064000000000001</v>
       </c>
-      <c r="L18" s="52">
+      <c r="L18" s="38">
         <f t="shared" si="6"/>
         <v>6.8774995456198206E-4</v>
       </c>
-      <c r="M18" s="53">
+      <c r="M18" s="39">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>233.57326152396374</v>
       </c>
-      <c r="N18" s="41"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="46">
+      <c r="A19" s="51"/>
+      <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="25">
         <v>3</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="4">
         <v>0.1608</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="4">
         <v>0.16139999999999999</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="4">
         <v>0.1588</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="4">
         <v>0.1593</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="4">
         <v>0.15989999999999999</v>
       </c>
-      <c r="K19" s="54">
+      <c r="K19" s="40">
         <f t="shared" si="5"/>
         <v>0.16004000000000002</v>
       </c>
-      <c r="L19" s="54">
+      <c r="L19" s="40">
         <f t="shared" si="6"/>
         <v>1.0644247272588116E-3</v>
       </c>
-      <c r="M19" s="55">
+      <c r="M19" s="41">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>150.35351575507582</v>
       </c>
-      <c r="N19" s="41"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="46">
+      <c r="A20" s="51"/>
+      <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="25">
         <v>2</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="18">
         <v>3</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="4">
         <v>0.16009999999999999</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="4">
         <v>0.15890000000000001</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="4">
         <v>0.15989999999999999</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="4">
         <v>0.15959999999999999</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="38">
         <f t="shared" si="5"/>
         <v>0.15951999999999997</v>
       </c>
-      <c r="L20" s="52">
+      <c r="L20" s="38">
         <f t="shared" si="6"/>
         <v>5.1185935568278176E-4</v>
       </c>
-      <c r="M20" s="53">
+      <c r="M20" s="39">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>311.64810846763231</v>
       </c>
-      <c r="N20" s="41"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="46">
+      <c r="A21" s="51"/>
+      <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="25">
         <v>1</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>4</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="44">
+      <c r="F21" s="4">
         <v>0.1714</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="4">
         <v>0.1704</v>
       </c>
-      <c r="H21" s="44">
+      <c r="H21" s="4">
         <v>0.17019999999999999</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="4">
         <v>0.1711</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="4">
         <v>0.17080000000000001</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="40">
         <f t="shared" si="5"/>
         <v>0.17078000000000002</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="40">
         <f t="shared" si="6"/>
         <v>4.9193495504995673E-4</v>
       </c>
-      <c r="M21" s="55">
+      <c r="M21" s="41">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>347.15971745219252</v>
       </c>
-      <c r="N21" s="41"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="56"/>
-      <c r="B22" s="46">
+      <c r="A22" s="52"/>
+      <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="25">
         <v>0</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="22">
         <v>5</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="4">
         <v>0.1983</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="4">
         <v>0.19819999999999999</v>
       </c>
-      <c r="H22" s="44">
+      <c r="H22" s="4">
         <v>0.1988</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="4">
         <v>0.19850000000000001</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="4">
         <v>0.1963</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="1">
         <f t="shared" si="5"/>
         <v>0.19802</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="1">
         <f t="shared" si="6"/>
         <v>9.8843310345212614E-4</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="5">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>200.33728059937536</v>
       </c>
-      <c r="N22" s="41"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="56"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="41"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="6"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="32" t="s">
+      <c r="A24" s="52"/>
+      <c r="B24" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E24" s="10" t="s">
@@ -9889,806 +9971,806 @@
       <c r="M24" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="41"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="33">
+      <c r="A25" s="52"/>
+      <c r="B25" s="27">
         <v>5</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="24">
         <v>0</v>
       </c>
-      <c r="D25" s="28">
+      <c r="D25" s="24">
         <v>5</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="35">
         <v>0.1431</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="35">
         <v>0.1431</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="35">
         <v>0.14249999999999999</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="35">
         <v>0.1434</v>
       </c>
-      <c r="J25" s="47">
+      <c r="J25" s="35">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="36">
         <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L25" s="50">
+      <c r="L25" s="36">
         <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="37">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="N25" s="41"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="56"/>
-      <c r="B26" s="34">
+      <c r="A26" s="52"/>
+      <c r="B26" s="28">
         <v>4</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="25">
         <v>1</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="1">
         <v>5</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="44">
+      <c r="F26" s="4">
         <v>0.1429</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H26" s="44">
+      <c r="H26" s="4">
         <v>0.1431</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="4">
         <v>0.14280000000000001</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="4">
         <v>0.14149999999999999</v>
       </c>
-      <c r="K26" s="52">
+      <c r="K26" s="38">
         <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
         <v>0.14265999999999998</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="38">
         <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
         <v>6.5802735505448965E-4</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="39">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>216.79949762603206</v>
       </c>
-      <c r="N26" s="41"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="34">
+      <c r="A27" s="52"/>
+      <c r="B27" s="28">
         <v>3</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="25">
         <v>2</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="12">
         <v>5</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="44">
+      <c r="F27" s="4">
         <v>0.1429</v>
       </c>
-      <c r="G27" s="44">
+      <c r="G27" s="4">
         <v>0.1414</v>
       </c>
-      <c r="H27" s="44">
+      <c r="H27" s="4">
         <v>0.14180000000000001</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="4">
         <v>0.14230000000000001</v>
       </c>
-      <c r="J27" s="44">
+      <c r="J27" s="4">
         <v>0.1431</v>
       </c>
-      <c r="K27" s="54">
+      <c r="K27" s="40">
         <f t="shared" si="9"/>
         <v>0.14230000000000001</v>
       </c>
-      <c r="L27" s="54">
+      <c r="L27" s="40">
         <f t="shared" si="10"/>
         <v>7.1763500472036645E-4</v>
       </c>
-      <c r="M27" s="55">
+      <c r="M27" s="41">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>198.29021586739432</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="56"/>
-      <c r="B28" s="34">
+      <c r="A28" s="52"/>
+      <c r="B28" s="28">
         <v>2</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="25">
         <v>3</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="30" t="s">
+      <c r="E28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="44">
+      <c r="F28" s="4">
         <v>0.14319999999999999</v>
       </c>
-      <c r="G28" s="44">
+      <c r="G28" s="4">
         <v>0.1429</v>
       </c>
-      <c r="H28" s="44">
+      <c r="H28" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="4">
         <v>0.14319999999999999</v>
       </c>
-      <c r="J28" s="44">
+      <c r="J28" s="4">
         <v>0.14299999999999999</v>
       </c>
-      <c r="K28" s="52">
+      <c r="K28" s="38">
         <f t="shared" si="9"/>
         <v>0.14306000000000002</v>
       </c>
-      <c r="L28" s="52">
+      <c r="L28" s="38">
         <f t="shared" si="10"/>
         <v>1.3416407864998709E-4</v>
       </c>
-      <c r="M28" s="53">
+      <c r="M28" s="39">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>1066.3062828704021</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34">
+      <c r="A29" s="51"/>
+      <c r="B29" s="28">
         <v>1</v>
       </c>
-      <c r="C29" s="29">
+      <c r="C29" s="25">
         <v>4</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="12">
         <v>5</v>
       </c>
-      <c r="E29" s="30" t="s">
+      <c r="E29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="44">
+      <c r="F29" s="4">
         <v>0.1431</v>
       </c>
-      <c r="G29" s="44">
+      <c r="G29" s="4">
         <v>0.1431</v>
       </c>
-      <c r="H29" s="44">
+      <c r="H29" s="4">
         <v>0.1431</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="4">
         <v>0.1429</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="4">
         <v>0.1426</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K29" s="40">
         <f t="shared" si="9"/>
         <v>0.14296000000000003</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="40">
         <f t="shared" si="10"/>
         <v>2.1908902300206702E-4</v>
       </c>
-      <c r="M29" s="55">
+      <c r="M29" s="41">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>652.5201401744863</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49"/>
-      <c r="B30" s="35">
+      <c r="A30" s="51"/>
+      <c r="B30" s="29">
         <v>0</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="30">
         <v>5</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="7">
         <v>5</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="8">
         <v>0.1431</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="8">
         <v>0.1431</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="8">
         <v>0.14230000000000001</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="8">
         <v>0.1431</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="8">
         <v>0.1431</v>
       </c>
-      <c r="K30" s="60">
+      <c r="K30" s="42">
         <f t="shared" si="9"/>
         <v>0.14294000000000001</v>
       </c>
-      <c r="L30" s="60">
+      <c r="L30" s="42">
         <f t="shared" si="10"/>
         <v>3.577708763999642E-4</v>
       </c>
-      <c r="M30" s="61">
+      <c r="M30" s="43">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>399.52944587977737</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="48"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="41" t="s">
+      <c r="K35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L35" s="41" t="s">
+      <c r="L35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="42" t="s">
+      <c r="M35" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="43">
+      <c r="B36" s="33">
         <v>10</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="1">
         <v>0</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="62">
+      <c r="E36" s="4">
         <v>0.1245</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="4">
         <v>0.12379999999999999</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="4">
         <v>0.1241</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="4">
         <v>0.1246</v>
       </c>
-      <c r="I36" s="62">
+      <c r="I36" s="4">
         <v>0.12429999999999999</v>
       </c>
-      <c r="J36" s="62">
+      <c r="J36" s="4">
         <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
-      <c r="K36" s="62">
+      <c r="K36" s="4">
         <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
-      <c r="L36" s="62">
+      <c r="L36" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>387.17984080555027</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="34">
         <v>0.12426</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="46">
+      <c r="B37" s="2">
         <v>9</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="62">
+      <c r="E37" s="4">
         <v>8.0659999999999996E-2</v>
       </c>
-      <c r="F37" s="62">
+      <c r="F37" s="4">
         <v>9.8790000000000003E-2</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="H37" s="62">
+      <c r="H37" s="4">
         <v>9.5829999999999999E-2</v>
       </c>
-      <c r="I37" s="62">
+      <c r="I37" s="4">
         <v>9.7530000000000006E-2</v>
       </c>
-      <c r="J37" s="62">
+      <c r="J37" s="4">
         <f t="shared" si="11"/>
         <v>9.2901999999999998E-2</v>
       </c>
-      <c r="K37" s="62">
+      <c r="K37" s="4">
         <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
-      <c r="L37" s="62">
+      <c r="L37" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>12.643195606155341</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="34">
         <f>M36/2</f>
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="43">
+      <c r="B38" s="33">
         <v>8</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="41" t="s">
+      <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="62">
+      <c r="E38" s="4">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="F38" s="62">
+      <c r="F38" s="4">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="4">
         <v>8.1860000000000002E-2</v>
       </c>
-      <c r="H38" s="62">
+      <c r="H38" s="4">
         <v>8.1739999999999993E-2</v>
       </c>
-      <c r="I38" s="62">
+      <c r="I38" s="4">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="J38" s="62">
+      <c r="J38" s="4">
         <f t="shared" si="11"/>
         <v>8.1788E-2</v>
       </c>
-      <c r="K38" s="62">
+      <c r="K38" s="4">
         <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
-      <c r="L38" s="62">
+      <c r="L38" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1797.6470052696861</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="34">
         <f t="shared" ref="M38:M39" si="13">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="39" t="s">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="33">
+      <c r="B39" s="27">
         <v>7</v>
       </c>
-      <c r="C39" s="63">
+      <c r="C39" s="24">
         <v>3</v>
       </c>
-      <c r="D39" s="63" t="s">
+      <c r="D39" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="35">
         <v>8.158E-2</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="35">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G39" s="64">
+      <c r="G39" s="35">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="H39" s="64">
+      <c r="H39" s="35">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="35">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J39" s="64">
+      <c r="J39" s="35">
         <f t="shared" si="11"/>
         <v>8.1566E-2</v>
       </c>
-      <c r="K39" s="64">
+      <c r="K39" s="35">
         <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="L39" s="64">
+      <c r="L39" s="35">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="34">
         <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="43">
+      <c r="B40" s="33">
         <v>6</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="1">
         <v>4</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="62">
+      <c r="E40" s="4">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="F40" s="62">
+      <c r="F40" s="4">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="4">
         <v>9.2520000000000005E-2</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="4">
         <v>9.2549999999999993E-2</v>
       </c>
-      <c r="I40" s="62">
+      <c r="I40" s="4">
         <v>9.2490000000000003E-2</v>
       </c>
-      <c r="J40" s="62">
+      <c r="J40" s="4">
         <f t="shared" si="11"/>
         <v>9.2508000000000007E-2</v>
       </c>
-      <c r="K40" s="62">
+      <c r="K40" s="4">
         <f t="shared" si="12"/>
         <v>2.6832815729994057E-5</v>
       </c>
-      <c r="L40" s="62">
+      <c r="L40" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>3447.5696077096154</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="34">
         <f>M39</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="46">
+      <c r="B41" s="2">
         <v>5</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="62">
+      <c r="E41" s="4">
         <v>0.1183</v>
       </c>
-      <c r="F41" s="62">
+      <c r="F41" s="4">
         <v>0.1182</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="4">
         <v>0.1182</v>
       </c>
-      <c r="H41" s="62">
+      <c r="H41" s="4">
         <v>0.1183</v>
       </c>
-      <c r="I41" s="62">
+      <c r="I41" s="4">
         <v>0.1183</v>
       </c>
-      <c r="J41" s="62">
+      <c r="J41" s="4">
         <f t="shared" si="11"/>
         <v>0.11826</v>
       </c>
-      <c r="K41" s="62">
+      <c r="K41" s="4">
         <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
-      <c r="L41" s="62">
+      <c r="L41" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2159.1223216853032</v>
       </c>
-      <c r="M41" s="45">
+      <c r="M41" s="34">
         <f t="shared" ref="M41:M46" si="14">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="43">
+      <c r="B42" s="33">
         <v>4</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="1">
         <v>6</v>
       </c>
-      <c r="D42" s="41" t="s">
+      <c r="D42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E42" s="62">
+      <c r="E42" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="F42" s="62">
+      <c r="F42" s="4">
         <v>0.1331</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="4">
         <v>0.1331</v>
       </c>
-      <c r="H42" s="62">
+      <c r="H42" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I42" s="62">
+      <c r="I42" s="4">
         <v>0.13289999999999999</v>
       </c>
-      <c r="J42" s="62">
+      <c r="J42" s="4">
         <f t="shared" si="11"/>
         <v>0.13302</v>
       </c>
-      <c r="K42" s="62">
+      <c r="K42" s="4">
         <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
-      <c r="L42" s="62">
+      <c r="L42" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1589.8930961365963</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="34">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="46">
+      <c r="B43" s="2">
         <v>3</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="1">
         <v>7</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="62">
+      <c r="E43" s="4">
         <v>0.1414</v>
       </c>
-      <c r="F43" s="62">
+      <c r="F43" s="4">
         <v>0.14149999999999999</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="4">
         <v>0.14130000000000001</v>
       </c>
-      <c r="H43" s="62">
+      <c r="H43" s="4">
         <v>0.1414</v>
       </c>
-      <c r="I43" s="62">
+      <c r="I43" s="4">
         <v>0.1414</v>
       </c>
-      <c r="J43" s="62">
+      <c r="J43" s="4">
         <f t="shared" si="11"/>
         <v>0.1414</v>
       </c>
-      <c r="K43" s="62">
+      <c r="K43" s="4">
         <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
-      <c r="L43" s="62">
+      <c r="L43" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1999.6979771957767</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="34">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="43">
+      <c r="B44" s="33">
         <v>2</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="1">
         <v>8</v>
       </c>
-      <c r="D44" s="41" t="s">
+      <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="62">
+      <c r="E44" s="4">
         <v>0.24099999999999999</v>
       </c>
-      <c r="F44" s="62">
+      <c r="F44" s="4">
         <v>0.2427</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="4">
         <v>0.2442</v>
       </c>
-      <c r="H44" s="62">
+      <c r="H44" s="4">
         <v>0.24149999999999999</v>
       </c>
-      <c r="I44" s="62">
+      <c r="I44" s="4">
         <v>0.24249999999999999</v>
       </c>
-      <c r="J44" s="62">
+      <c r="J44" s="4">
         <f t="shared" si="11"/>
         <v>0.24237999999999998</v>
       </c>
-      <c r="K44" s="62">
+      <c r="K44" s="4">
         <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
-      <c r="L44" s="62">
+      <c r="L44" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>196.14500937324382</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="34">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="46">
+      <c r="B45" s="2">
         <v>1</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="1">
         <v>9</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="62">
+      <c r="E45" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="F45" s="62">
+      <c r="F45" s="4">
         <v>0.47660000000000002</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="4">
         <v>0.47389999999999999</v>
       </c>
-      <c r="H45" s="62">
+      <c r="H45" s="4">
         <v>0.47420000000000001</v>
       </c>
-      <c r="I45" s="62">
+      <c r="I45" s="4">
         <v>0.47689999999999999</v>
       </c>
-      <c r="J45" s="62">
+      <c r="J45" s="4">
         <f t="shared" si="11"/>
         <v>0.47531999999999996</v>
       </c>
-      <c r="K45" s="62">
+      <c r="K45" s="4">
         <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
-      <c r="L45" s="62">
+      <c r="L45" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>346.93966287383802</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="34">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="43">
+      <c r="B46" s="33">
         <v>0</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="1">
         <v>10</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="62">
+      <c r="E46" s="4">
         <v>1.0209999999999999</v>
       </c>
-      <c r="F46" s="62">
+      <c r="F46" s="4">
         <v>1.02</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="4">
         <v>1.0209999999999999</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="4">
         <v>1.016</v>
       </c>
-      <c r="I46" s="62">
+      <c r="I46" s="4">
         <v>1.0209999999999999</v>
       </c>
-      <c r="J46" s="62">
+      <c r="J46" s="4">
         <f t="shared" si="11"/>
         <v>1.0197999999999998</v>
       </c>
-      <c r="K46" s="62">
+      <c r="K46" s="4">
         <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
-      <c r="L46" s="62">
+      <c r="L46" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>470.39866297393797</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="34">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="46"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="48"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="66" t="s">
+      <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="67" t="s">
+      <c r="C48" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E48" s="10" t="s">
@@ -10720,193 +10802,193 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="33">
+      <c r="A49" s="50"/>
+      <c r="B49" s="27">
         <v>7</v>
       </c>
-      <c r="C49" s="63">
+      <c r="C49" s="24">
         <v>3</v>
       </c>
-      <c r="D49" s="20">
+      <c r="D49" s="17">
         <v>0</v>
       </c>
-      <c r="E49" s="63" t="s">
+      <c r="E49" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F49" s="64">
+      <c r="F49" s="35">
         <v>8.158E-2</v>
       </c>
-      <c r="G49" s="64">
+      <c r="G49" s="35">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H49" s="64">
+      <c r="H49" s="35">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="35">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J49" s="64">
+      <c r="J49" s="35">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K49" s="50">
+      <c r="K49" s="36">
         <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L49" s="50">
+      <c r="L49" s="36">
         <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M49" s="51">
+      <c r="M49" s="37">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="66">
+      <c r="A50" s="50"/>
+      <c r="B50" s="2">
         <v>7</v>
       </c>
-      <c r="C50" s="67">
+      <c r="C50" s="25">
         <v>2</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50" s="18">
         <v>1</v>
       </c>
-      <c r="E50" s="41" t="s">
+      <c r="E50" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F50" s="62">
+      <c r="F50" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="G50" s="62">
+      <c r="G50" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="H50" s="62">
+      <c r="H50" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="I50" s="62">
+      <c r="I50" s="4">
         <v>8.1790000000000002E-2</v>
       </c>
-      <c r="J50" s="62">
+      <c r="J50" s="4">
         <v>8.1790000000000002E-2</v>
       </c>
-      <c r="K50" s="52">
+      <c r="K50" s="38">
         <f t="shared" si="15"/>
         <v>8.1820000000000004E-2</v>
       </c>
-      <c r="L50" s="52">
+      <c r="L50" s="38">
         <f t="shared" si="16"/>
         <v>2.7386127875255291E-5</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="39">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2987.6439770051752</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="66">
+      <c r="A51" s="50"/>
+      <c r="B51" s="2">
         <v>7</v>
       </c>
-      <c r="C51" s="67">
+      <c r="C51" s="25">
         <v>1</v>
       </c>
-      <c r="D51" s="21">
+      <c r="D51" s="18">
         <v>2</v>
       </c>
-      <c r="E51" s="41" t="s">
+      <c r="E51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F51" s="62">
+      <c r="F51" s="4">
         <v>8.4190000000000001E-2</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="4">
         <v>8.4129999999999996E-2</v>
       </c>
-      <c r="H51" s="62">
+      <c r="H51" s="4">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="I51" s="62">
+      <c r="I51" s="4">
         <v>8.4110000000000004E-2</v>
       </c>
-      <c r="J51" s="62">
+      <c r="J51" s="4">
         <v>8.4110000000000004E-2</v>
       </c>
-      <c r="K51" s="54">
+      <c r="K51" s="40">
         <f t="shared" si="15"/>
         <v>8.4128000000000008E-2</v>
       </c>
-      <c r="L51" s="54">
+      <c r="L51" s="40">
         <f t="shared" si="16"/>
         <v>3.6331804249170328E-5</v>
       </c>
-      <c r="M51" s="55">
+      <c r="M51" s="41">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2315.5469908137347</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="66">
+      <c r="A52" s="50"/>
+      <c r="B52" s="2">
         <v>7</v>
       </c>
-      <c r="C52" s="67">
+      <c r="C52" s="25">
         <v>0</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D52" s="18">
         <v>3</v>
       </c>
-      <c r="E52" s="41" t="s">
+      <c r="E52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="62">
+      <c r="F52" s="4">
         <v>8.1720000000000001E-2</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="4">
         <v>8.1750000000000003E-2</v>
       </c>
-      <c r="H52" s="62">
+      <c r="H52" s="4">
         <v>8.1780000000000005E-2</v>
       </c>
-      <c r="I52" s="62">
+      <c r="I52" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="J52" s="62">
+      <c r="J52" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="K52" s="52">
+      <c r="K52" s="38">
         <f t="shared" si="15"/>
         <v>8.1785999999999998E-2</v>
       </c>
-      <c r="L52" s="52">
+      <c r="L52" s="38">
         <f t="shared" si="16"/>
         <v>5.3665631459991991E-5</v>
       </c>
-      <c r="M52" s="53">
+      <c r="M52" s="39">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>1523.9921300650658</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="58"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="48"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="6"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="58"/>
-      <c r="M54" s="68"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="6"/>
+      <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="34" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="67" t="s">
+      <c r="C55" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="19" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="10" t="s">
@@ -10938,742 +11020,742 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="33">
+      <c r="A56" s="50"/>
+      <c r="B56" s="27">
         <v>7</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="24">
         <v>0</v>
       </c>
-      <c r="D56" s="20">
+      <c r="D56" s="17">
         <v>3</v>
       </c>
-      <c r="E56" s="63" t="s">
+      <c r="E56" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="F56" s="64">
+      <c r="F56" s="35">
         <v>8.158E-2</v>
       </c>
-      <c r="G56" s="64">
+      <c r="G56" s="35">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H56" s="64">
+      <c r="H56" s="35">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I56" s="64">
+      <c r="I56" s="35">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J56" s="64">
+      <c r="J56" s="35">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K56" s="50">
+      <c r="K56" s="36">
         <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L56" s="50">
+      <c r="L56" s="36">
         <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M56" s="51">
+      <c r="M56" s="37">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="34">
+      <c r="B57" s="28">
         <v>6</v>
       </c>
-      <c r="C57" s="67">
+      <c r="C57" s="25">
         <v>1</v>
       </c>
-      <c r="D57" s="23">
+      <c r="D57" s="20">
         <v>3</v>
       </c>
-      <c r="E57" s="41" t="s">
+      <c r="E57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F57" s="62">
+      <c r="F57" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H57" s="62">
+      <c r="H57" s="4">
         <v>8.1540000000000001E-2</v>
       </c>
-      <c r="I57" s="62">
+      <c r="I57" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J57" s="62">
+      <c r="J57" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="K57" s="52">
+      <c r="K57" s="38">
         <f t="shared" si="17"/>
         <v>8.1574000000000008E-2</v>
       </c>
-      <c r="L57" s="52">
+      <c r="L57" s="38">
         <f t="shared" si="18"/>
         <v>3.0495901363955644E-5</v>
       </c>
-      <c r="M57" s="53">
+      <c r="M57" s="39">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2674.9168364118486</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="34">
+      <c r="B58" s="28">
         <v>5</v>
       </c>
-      <c r="C58" s="67">
+      <c r="C58" s="25">
         <v>2</v>
       </c>
-      <c r="D58" s="23">
+      <c r="D58" s="20">
         <v>3</v>
       </c>
-      <c r="E58" s="41" t="s">
+      <c r="E58" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="62">
+      <c r="F58" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="H58" s="62">
+      <c r="H58" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="I58" s="62">
+      <c r="I58" s="4">
         <v>8.1629999999999994E-2</v>
       </c>
-      <c r="J58" s="62">
+      <c r="J58" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="K58" s="54">
+      <c r="K58" s="40">
         <f t="shared" si="17"/>
         <v>8.1613999999999992E-2</v>
       </c>
-      <c r="L58" s="54">
+      <c r="L58" s="40">
         <f t="shared" si="18"/>
         <v>1.3416407864993537E-5</v>
       </c>
-      <c r="M58" s="55">
+      <c r="M58" s="41">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>6083.1483971912858</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="34">
+      <c r="B59" s="28">
         <v>4</v>
       </c>
-      <c r="C59" s="67">
+      <c r="C59" s="25">
         <v>3</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="20">
         <v>3</v>
       </c>
-      <c r="E59" s="41" t="s">
+      <c r="E59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F59" s="62">
+      <c r="F59" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="G59" s="62">
+      <c r="G59" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="H59" s="62">
+      <c r="H59" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="I59" s="62">
+      <c r="I59" s="4">
         <v>8.1629999999999994E-2</v>
       </c>
-      <c r="J59" s="62">
+      <c r="J59" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="K59" s="52">
+      <c r="K59" s="38">
         <f t="shared" si="17"/>
         <v>8.1598000000000004E-2</v>
       </c>
-      <c r="L59" s="52">
+      <c r="L59" s="38">
         <f t="shared" si="18"/>
         <v>2.6832815729994315E-5</v>
       </c>
-      <c r="M59" s="53">
+      <c r="M59" s="39">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>3040.9779138008225</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="34">
+      <c r="B60" s="28">
         <v>3</v>
       </c>
-      <c r="C60" s="67">
+      <c r="C60" s="25">
         <v>4</v>
       </c>
-      <c r="D60" s="23">
+      <c r="D60" s="20">
         <v>3</v>
       </c>
-      <c r="E60" s="41" t="s">
+      <c r="E60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="62">
+      <c r="F60" s="4">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="G60" s="62">
+      <c r="G60" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="H60" s="62">
+      <c r="H60" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="I60" s="62">
+      <c r="I60" s="4">
         <v>8.1530000000000005E-2</v>
       </c>
-      <c r="J60" s="62">
+      <c r="J60" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="K60" s="69">
+      <c r="K60" s="44">
         <f t="shared" si="17"/>
         <v>8.1568000000000002E-2</v>
       </c>
-      <c r="L60" s="69">
+      <c r="L60" s="44">
         <f t="shared" si="18"/>
         <v>3.6331804249167848E-5</v>
       </c>
-      <c r="M60" s="70">
+      <c r="M60" s="45">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2245.0853098458015</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="34">
+      <c r="B61" s="28">
         <v>2</v>
       </c>
-      <c r="C61" s="67">
+      <c r="C61" s="25">
         <v>5</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="20">
         <v>3</v>
       </c>
-      <c r="E61" s="41" t="s">
+      <c r="E61" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F61" s="62">
+      <c r="F61" s="4">
         <v>8.1559999999999994E-2</v>
       </c>
-      <c r="G61" s="62">
+      <c r="G61" s="4">
         <v>8.1540000000000001E-2</v>
       </c>
-      <c r="H61" s="62">
+      <c r="H61" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="I61" s="62">
+      <c r="I61" s="4">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="J61" s="62">
+      <c r="J61" s="4">
         <v>8.1559999999999994E-2</v>
       </c>
-      <c r="K61" s="62">
+      <c r="K61" s="4">
         <f t="shared" si="17"/>
         <v>8.156999999999999E-2</v>
       </c>
-      <c r="L61" s="62">
+      <c r="L61" s="4">
         <f t="shared" si="18"/>
         <v>2.4494897427833614E-5</v>
       </c>
-      <c r="M61" s="57">
+      <c r="M61" s="5">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>3330.0813053134812</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="34">
+      <c r="B62" s="28">
         <v>1</v>
       </c>
-      <c r="C62" s="67">
+      <c r="C62" s="25">
         <v>6</v>
       </c>
-      <c r="D62" s="23">
+      <c r="D62" s="20">
         <v>3</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F62" s="62">
+      <c r="F62" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="G62" s="62">
+      <c r="G62" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="H62" s="62">
+      <c r="H62" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="I62" s="62">
+      <c r="I62" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J62" s="62">
+      <c r="J62" s="4">
         <v>8.158E-2</v>
       </c>
-      <c r="K62" s="62">
+      <c r="K62" s="4">
         <f>AVERAGE(F62:J62)</f>
         <v>8.1580000000000014E-2</v>
       </c>
-      <c r="L62" s="62">
+      <c r="L62" s="4">
         <f>STDEV(F62:J62)</f>
         <v>1.7320508075688065E-5</v>
       </c>
-      <c r="M62" s="57">
+      <c r="M62" s="5">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>4710.0234960491598</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="35">
+      <c r="B63" s="29">
         <v>0</v>
       </c>
-      <c r="C63" s="36">
+      <c r="C63" s="30">
         <v>7</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D63" s="21">
         <v>3</v>
       </c>
-      <c r="E63" s="37" t="s">
+      <c r="E63" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="8">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G63" s="38">
+      <c r="G63" s="8">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="H63" s="38">
+      <c r="H63" s="8">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="I63" s="38">
+      <c r="I63" s="8">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J63" s="38">
+      <c r="J63" s="8">
         <v>8.158E-2</v>
       </c>
-      <c r="K63" s="38">
+      <c r="K63" s="8">
         <f>AVERAGE(F63:J63)</f>
         <v>8.159000000000001E-2</v>
       </c>
-      <c r="L63" s="38">
+      <c r="L63" s="8">
         <f>STDEV(F63:J63)</f>
         <v>1.5811388300842352E-5</v>
       </c>
-      <c r="M63" s="61">
+      <c r="M63" s="43">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>5160.2046858626136</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="71" t="s">
+      <c r="C95" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="71"/>
+      <c r="D95" s="49"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E97" s="41" t="s">
+      <c r="E97" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="41" t="s">
+      <c r="F97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G97" s="41" t="s">
+      <c r="G97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="41" t="s">
+      <c r="H97" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="41" t="s">
+      <c r="I97" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J97" s="41" t="s">
+      <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K97" s="41" t="s">
+      <c r="K97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L97" s="41" t="s">
+      <c r="L97" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C98" s="72">
+      <c r="C98" s="12">
         <v>10</v>
       </c>
-      <c r="D98" s="41">
+      <c r="D98" s="1">
         <v>0</v>
       </c>
-      <c r="E98" s="41" t="s">
+      <c r="E98" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="62">
+      <c r="F98" s="4">
         <v>0.2482</v>
       </c>
-      <c r="G98" s="62">
+      <c r="G98" s="4">
         <v>0.2319</v>
       </c>
-      <c r="H98" s="62">
+      <c r="H98" s="4">
         <v>0.22839999999999999</v>
       </c>
-      <c r="I98" s="62">
+      <c r="I98" s="4">
         <v>0.23219999999999999</v>
       </c>
-      <c r="J98" s="62">
+      <c r="J98" s="4">
         <v>0.23580000000000001</v>
       </c>
-      <c r="K98" s="62">
+      <c r="K98" s="4">
         <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
-      <c r="L98" s="62">
+      <c r="L98" s="4">
         <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C99" s="41">
+      <c r="C99" s="1">
         <v>9</v>
       </c>
-      <c r="D99" s="41">
+      <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E99" s="41" t="s">
+      <c r="E99" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F99" s="62">
+      <c r="F99" s="4">
         <v>0.2099</v>
       </c>
-      <c r="G99" s="62">
+      <c r="G99" s="4">
         <v>0.2074</v>
       </c>
-      <c r="H99" s="62">
+      <c r="H99" s="4">
         <v>0.2059</v>
       </c>
-      <c r="I99" s="62">
+      <c r="I99" s="4">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J99" s="62">
+      <c r="J99" s="4">
         <v>0.18429999999999999</v>
       </c>
-      <c r="K99" s="62">
+      <c r="K99" s="4">
         <f t="shared" si="19"/>
         <v>0.20311999999999997</v>
       </c>
-      <c r="L99" s="62">
+      <c r="L99" s="4">
         <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C100" s="72">
+      <c r="C100" s="12">
         <v>8</v>
       </c>
-      <c r="D100" s="41">
+      <c r="D100" s="1">
         <v>2</v>
       </c>
-      <c r="E100" s="41" t="s">
+      <c r="E100" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F100" s="62">
+      <c r="F100" s="4">
         <v>0.15540000000000001</v>
       </c>
-      <c r="G100" s="62">
+      <c r="G100" s="4">
         <v>0.1525</v>
       </c>
-      <c r="H100" s="62">
+      <c r="H100" s="4">
         <v>0.158</v>
       </c>
-      <c r="I100" s="62">
+      <c r="I100" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="J100" s="62">
+      <c r="J100" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="K100" s="62">
+      <c r="K100" s="4">
         <f t="shared" si="19"/>
         <v>0.15518000000000001</v>
       </c>
-      <c r="L100" s="62">
+      <c r="L100" s="4">
         <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
     <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="41">
+      <c r="C101" s="1">
         <v>7</v>
       </c>
-      <c r="D101" s="41">
+      <c r="D101" s="1">
         <v>3</v>
       </c>
-      <c r="E101" s="41" t="s">
+      <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F101" s="62">
+      <c r="F101" s="4">
         <v>0.13489999999999999</v>
       </c>
-      <c r="G101" s="62">
+      <c r="G101" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="H101" s="62">
+      <c r="H101" s="4">
         <v>0.1348</v>
       </c>
-      <c r="I101" s="62">
+      <c r="I101" s="4">
         <v>0.1346</v>
       </c>
-      <c r="J101" s="62">
+      <c r="J101" s="4">
         <v>0.1565</v>
       </c>
-      <c r="K101" s="62">
+      <c r="K101" s="4">
         <f t="shared" si="19"/>
         <v>0.14364000000000002</v>
       </c>
-      <c r="L101" s="62">
+      <c r="L101" s="4">
         <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C102" s="72">
+      <c r="C102" s="12">
         <v>6</v>
       </c>
-      <c r="D102" s="41">
+      <c r="D102" s="1">
         <v>4</v>
       </c>
-      <c r="E102" s="41" t="s">
+      <c r="E102" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F102" s="62">
+      <c r="F102" s="4">
         <v>0.1477</v>
       </c>
-      <c r="G102" s="62">
+      <c r="G102" s="4">
         <v>0.15290000000000001</v>
       </c>
-      <c r="H102" s="62">
+      <c r="H102" s="4">
         <v>0.15559999999999999</v>
       </c>
-      <c r="I102" s="62">
+      <c r="I102" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="J102" s="62">
+      <c r="J102" s="4">
         <v>0.155</v>
       </c>
-      <c r="K102" s="62">
+      <c r="K102" s="4">
         <f t="shared" si="19"/>
         <v>0.15342</v>
       </c>
-      <c r="L102" s="62">
+      <c r="L102" s="4">
         <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
     <row r="103" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C103" s="41">
+      <c r="C103" s="1">
         <v>5</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103" s="1">
         <v>5</v>
       </c>
-      <c r="E103" s="41" t="s">
+      <c r="E103" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F103" s="62">
+      <c r="F103" s="4">
         <v>0.11940000000000001</v>
       </c>
-      <c r="G103" s="62">
+      <c r="G103" s="4">
         <v>0.14349999999999999</v>
       </c>
-      <c r="H103" s="62">
+      <c r="H103" s="4">
         <v>0.1196</v>
       </c>
-      <c r="I103" s="62">
+      <c r="I103" s="4">
         <v>0.1429</v>
       </c>
-      <c r="J103" s="62">
+      <c r="J103" s="4">
         <v>0.14280000000000001</v>
       </c>
-      <c r="K103" s="62">
+      <c r="K103" s="4">
         <f t="shared" si="19"/>
         <v>0.13364000000000001</v>
       </c>
-      <c r="L103" s="62">
+      <c r="L103" s="4">
         <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
     <row r="104" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C104" s="72">
+      <c r="C104" s="12">
         <v>4</v>
       </c>
-      <c r="D104" s="41">
+      <c r="D104" s="1">
         <v>6</v>
       </c>
-      <c r="E104" s="41" t="s">
+      <c r="E104" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="4">
         <v>0.14180000000000001</v>
       </c>
-      <c r="G104" s="62">
+      <c r="G104" s="4">
         <v>0.12529999999999999</v>
       </c>
-      <c r="H104" s="62">
+      <c r="H104" s="4">
         <v>0.12509999999999999</v>
       </c>
-      <c r="I104" s="62">
+      <c r="I104" s="4">
         <v>0.12529999999999999</v>
       </c>
-      <c r="J104" s="62">
+      <c r="J104" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K104" s="62">
+      <c r="K104" s="4">
         <f t="shared" si="19"/>
         <v>0.13189999999999999</v>
       </c>
-      <c r="L104" s="62">
+      <c r="L104" s="4">
         <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
     <row r="105" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C105" s="41">
+      <c r="C105" s="1">
         <v>3</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105" s="1">
         <v>7</v>
       </c>
-      <c r="E105" s="41" t="s">
+      <c r="E105" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="62">
+      <c r="F105" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="G105" s="62">
+      <c r="G105" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="H105" s="62">
+      <c r="H105" s="4">
         <v>0.13020000000000001</v>
       </c>
-      <c r="I105" s="62">
+      <c r="I105" s="4">
         <v>0.1552</v>
       </c>
-      <c r="J105" s="62">
+      <c r="J105" s="4">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K105" s="62">
+      <c r="K105" s="4">
         <f t="shared" si="19"/>
         <v>0.14487999999999998</v>
       </c>
-      <c r="L105" s="62">
+      <c r="L105" s="4">
         <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
     <row r="106" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C106" s="72">
+      <c r="C106" s="12">
         <v>2</v>
       </c>
-      <c r="D106" s="41">
+      <c r="D106" s="1">
         <v>8</v>
       </c>
-      <c r="E106" s="41" t="s">
+      <c r="E106" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F106" s="62">
+      <c r="F106" s="4">
         <v>0.1588</v>
       </c>
-      <c r="G106" s="62">
+      <c r="G106" s="4">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H106" s="62">
+      <c r="H106" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="I106" s="62">
+      <c r="I106" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="J106" s="62">
+      <c r="J106" s="4">
         <v>0.1552</v>
       </c>
-      <c r="K106" s="62">
+      <c r="K106" s="4">
         <f t="shared" si="19"/>
         <v>0.15722</v>
       </c>
-      <c r="L106" s="62">
+      <c r="L106" s="4">
         <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
     <row r="107" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C107" s="41">
+      <c r="C107" s="1">
         <v>1</v>
       </c>
-      <c r="D107" s="41">
+      <c r="D107" s="1">
         <v>9</v>
       </c>
-      <c r="E107" s="41" t="s">
+      <c r="E107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F107" s="62">
+      <c r="F107" s="4">
         <v>0.16159999999999999</v>
       </c>
-      <c r="G107" s="62">
+      <c r="G107" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H107" s="62">
+      <c r="H107" s="4">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I107" s="62">
+      <c r="I107" s="4">
         <v>0.14080000000000001</v>
       </c>
-      <c r="J107" s="62">
+      <c r="J107" s="4">
         <v>0.16619999999999999</v>
       </c>
-      <c r="K107" s="62">
+      <c r="K107" s="4">
         <f t="shared" si="19"/>
         <v>0.16006000000000001</v>
       </c>
-      <c r="L107" s="62">
+      <c r="L107" s="4">
         <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
     <row r="108" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C108" s="72">
+      <c r="C108" s="12">
         <v>0</v>
       </c>
-      <c r="D108" s="41">
+      <c r="D108" s="1">
         <v>10</v>
       </c>
-      <c r="E108" s="41" t="s">
+      <c r="E108" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F108" s="62">
+      <c r="F108" s="4">
         <v>0.16919999999999999</v>
       </c>
-      <c r="G108" s="62">
+      <c r="G108" s="4">
         <v>0.1691</v>
       </c>
-      <c r="H108" s="62">
+      <c r="H108" s="4">
         <v>0.17230000000000001</v>
       </c>
-      <c r="I108" s="62">
+      <c r="I108" s="4">
         <v>0.1741</v>
       </c>
-      <c r="J108" s="62">
+      <c r="J108" s="4">
         <v>0.16880000000000001</v>
       </c>
-      <c r="K108" s="62">
+      <c r="K108" s="4">
         <f t="shared" si="19"/>
         <v>0.17069999999999999</v>
       </c>
-      <c r="L108" s="62">
+      <c r="L108" s="4">
         <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
@@ -11724,18 +11806,18 @@
   <sheetData>
     <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E4" s="11" t="s">
@@ -12540,6 +12622,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -12768,36 +12865,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12820,9 +12891,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7E8B24-F57C-4AB8-80C7-AE474B8E826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA005DCB-CA66-45AA-814F-4D0C3210AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
   <si>
     <t>Column</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Não ligues à tabela de baixo</t>
   </si>
   <si>
-    <t>Faltam estas 2 tabelas de baixo</t>
-  </si>
-  <si>
     <t>Min</t>
   </si>
   <si>
@@ -229,6 +226,57 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;(1,32,1), (32,1,1)&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>7,0,3,0</t>
+  </si>
+  <si>
+    <t>6,1,3,0</t>
+  </si>
+  <si>
+    <t>5,2,3,0</t>
+  </si>
+  <si>
+    <t>3,4,3,0</t>
+  </si>
+  <si>
+    <t>4,3,3,0</t>
+  </si>
+  <si>
+    <t>2,5,3,0</t>
+  </si>
+  <si>
+    <t>1,6,3,0</t>
+  </si>
+  <si>
+    <t>0,7,3,0</t>
+  </si>
+  <si>
+    <t>7,0,2,1</t>
+  </si>
+  <si>
+    <t>7,0,1,2</t>
+  </si>
+  <si>
+    <t>7,0,0,3</t>
+  </si>
+  <si>
+    <t>5,0,5,0</t>
+  </si>
+  <si>
+    <t>5,0,4,1</t>
+  </si>
+  <si>
+    <t>5,0,3,2</t>
+  </si>
+  <si>
+    <t>5,0,2,3</t>
+  </si>
+  <si>
+    <t>5,0,1,4</t>
+  </si>
+  <si>
+    <t>5,0,0,5</t>
   </si>
 </sst>
 </file>
@@ -460,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,6 +639,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,13 +653,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2524,6 +2568,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Curva da "Column"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2555,7 +2630,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2591,7 +2666,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$2:$A$12</c:f>
+              <c:f>Colunas!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2706,7 +2781,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$2:$A$12</c:f>
+              <c:f>Colunas!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2860,7 +2935,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -2920,7 +2995,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -2961,7 +3036,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3009,7 +3084,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3061,7 +3136,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Curva da linha</a:t>
+              <a:t>Curva da "Row"</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3097,7 +3172,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3133,7 +3208,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$2:$A$12</c:f>
+              <c:f>Colunas!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3248,7 +3323,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$2:$A$12</c:f>
+              <c:f>Colunas!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3402,7 +3477,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3463,7 +3538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3504,7 +3579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3552,7 +3627,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3604,7 +3679,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Varia Block</a:t>
+              <a:t>Media Varia "Block Column"</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3640,7 +3715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3684,26 +3759,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$E$17:$E$22</c:f>
+              <c:f>Colunas!$A$17:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,5,0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,4,1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,3,2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,2,3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,1,4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
+                  <c:v>5,0,0,5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3739,1124 +3814,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7307-4FC2-B4F6-3E8E5030E923}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="388859272"/>
-        <c:axId val="388859928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="388859272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="388859928"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Media Varia Grid</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Colunas!$K$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Colunas!$E$25:$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(16,2,1), (32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(8,4,1), (32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(4,8,1), (32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(2,16,1), (32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(1,32,1), (32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Colunas!$K$25:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.14287999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14265999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14306000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14296000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14294000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04DE-4865-9C98-48837BC7ADC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="388859272"/>
-        <c:axId val="388859928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="388859272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="388859928"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Media Varia Block</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Colunas!$K$48</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Colunas!$E$17:$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Colunas!$K$49:$K$52</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.1566E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1820000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.4128000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1785999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F19D-4BC8-A58A-EBA94214AC13}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="388859272"/>
-        <c:axId val="388859928"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="388859272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="5000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859928"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="388859928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="388859272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>Media Varia Grid</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Colunas!$K$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Media</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Colunas!$E$17:$E$22</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>&lt;&lt;&lt;(32,1,1),(32,1,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (16,2,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (8,4,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (4,8,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (2,16,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>&lt;&lt;&lt;(32,1,1), (1,32,1)&gt;&gt;&gt;</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Colunas!$K$56:$K$63</c:f>
-              <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>8.1566E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.1574000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.1613999999999992E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1598000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.1568000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.156999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.1580000000000014E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.159000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBEB-409C-B5BB-037851AAE026}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4926,7 +3883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4939,7 +3896,10 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="0.21000000000000002"/>
+          <c:min val="0.1426"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4984,7 +3944,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -5043,7 +4003,1122 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia "Grid Column"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$A$25:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5,0,5,0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5,0,4,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5,0,3,2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5,0,2,3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5,0,1,4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5,0,0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$25:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14287999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14265999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14230000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14306000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14296000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14294000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04DE-4865-9C98-48837BC7ADC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="0.14380000000000001"/>
+          <c:min val="0.14220000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia "Block Row"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$A$49:$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7,0,3,0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7,0,2,1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7,0,1,2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7,0,0,3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$49:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.1566E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1820000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4128000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1785999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B2A-4A27-B657-99C6A138145B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8.4600000000000022E-2"/>
+          <c:min val="8.1500000000000017E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Media Varia "Grid Row"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colunas!$K$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Media</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colunas!$A$56:$A$63</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7,0,3,0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6,1,3,0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5,2,3,0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4,3,3,0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3,4,3,0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2,5,3,0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1,6,3,0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0,7,3,0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colunas!$K$56:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.1566E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1574000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.1613999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1598000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1568000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.156999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1580000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.159000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE2B-45AD-8485-4738E60AAEE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="388859272"/>
+        <c:axId val="388859928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="388859272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="388859928"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="8.1622000000000028E-2"/>
+          <c:min val="8.1565000000000026E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="388859272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8463,22 +8538,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>587828</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>174172</xdr:rowOff>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>85947</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>543147</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>11383</xdr:rowOff>
+      <xdr:rowOff>33154</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CE8918-8C02-47C9-B04E-0A244C2DDDE0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C976E9E-C666-487D-AF53-196F9F53F22A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9001,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD68" sqref="AD68"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y48" sqref="Y48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9027,33 +9102,25 @@
       <c r="N1" s="31"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <f t="shared" ref="A2:A12" si="0">2^C4</f>
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
@@ -9093,9 +9160,9 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="A4" s="1">
+        <f>2^C4</f>
+        <v>1</v>
       </c>
       <c r="B4" s="33">
         <v>10</v>
@@ -9123,11 +9190,11 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J14" si="1">AVERAGE(E4:I4)</f>
+        <f t="shared" ref="J4:J14" si="0">AVERAGE(E4:I4)</f>
         <v>0.23582</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K14" si="2">STDEV(E4:I4)</f>
+        <f t="shared" ref="K4:K14" si="1">STDEV(E4:I4)</f>
         <v>1.5581784236729764E-2</v>
       </c>
       <c r="L4" s="4">
@@ -9141,9 +9208,9 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+      <c r="A5" s="1">
+        <f>2^C5</f>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>9</v>
@@ -9171,11 +9238,11 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21251999999999999</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" si="1"/>
-        <v>0.21251999999999999</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="2"/>
         <v>1.1941817282139257E-2</v>
       </c>
       <c r="L5" s="4">
@@ -9190,9 +9257,9 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>16</v>
+      <c r="A6" s="1">
+        <f>2^C6</f>
+        <v>4</v>
       </c>
       <c r="B6" s="33">
         <v>8</v>
@@ -9219,11 +9286,11 @@
         <v>0.15920000000000001</v>
       </c>
       <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15418000000000001</v>
+      </c>
+      <c r="K6" s="4">
         <f t="shared" si="1"/>
-        <v>0.15418000000000001</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="2"/>
         <v>9.8667117116088953E-3</v>
       </c>
       <c r="L6" s="4">
@@ -9231,16 +9298,16 @@
         <v>15.62628001166753</v>
       </c>
       <c r="M6" s="34">
-        <f t="shared" ref="M6:M9" si="3">M5/2</f>
+        <f t="shared" ref="M6:M9" si="2">M5/2</f>
         <v>5.8955E-2</v>
       </c>
       <c r="N6" s="1"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>32</v>
+      <c r="A7" s="1">
+        <f>2^C7</f>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
@@ -9267,11 +9334,11 @@
         <v>0.1532</v>
       </c>
       <c r="J7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15392</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="1"/>
-        <v>0.15392</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="2"/>
         <v>2.5772077913897369E-3</v>
       </c>
       <c r="L7" s="4">
@@ -9279,16 +9346,16 @@
         <v>59.723550624918751</v>
       </c>
       <c r="M7" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.94775E-2</v>
       </c>
       <c r="N7" s="1"/>
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="A8" s="1">
+        <f>2^C8</f>
+        <v>16</v>
       </c>
       <c r="B8" s="33">
         <v>6</v>
@@ -9315,11 +9382,11 @@
         <v>0.15310000000000001</v>
       </c>
       <c r="J8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15322</v>
+      </c>
+      <c r="K8" s="4">
         <f t="shared" si="1"/>
-        <v>0.15322</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="2"/>
         <v>1.0894952959971894E-3</v>
       </c>
       <c r="L8" s="4">
@@ -9327,16 +9394,16 @@
         <v>140.63392523394177</v>
       </c>
       <c r="M8" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.473875E-2</v>
       </c>
       <c r="N8" s="1"/>
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>128</v>
+      <c r="A9" s="1">
+        <f>2^C9</f>
+        <v>32</v>
       </c>
       <c r="B9" s="27">
         <v>5</v>
@@ -9363,11 +9430,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="J9" s="35">
+        <f t="shared" si="0"/>
+        <v>0.14287999999999998</v>
+      </c>
+      <c r="K9" s="35">
         <f t="shared" si="1"/>
-        <v>0.14287999999999998</v>
-      </c>
-      <c r="K9" s="35">
-        <f t="shared" si="2"/>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="L9" s="35">
@@ -9375,16 +9442,16 @@
         <v>310.31553022993637</v>
       </c>
       <c r="M9" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.3693750000000001E-3</v>
       </c>
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>256</v>
+      <c r="A10" s="1">
+        <f>2^C10</f>
+        <v>64</v>
       </c>
       <c r="B10" s="33">
         <v>4</v>
@@ -9411,11 +9478,11 @@
         <v>0.14929999999999999</v>
       </c>
       <c r="J10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.14694000000000002</v>
+      </c>
+      <c r="K10" s="4">
         <f t="shared" si="1"/>
-        <v>0.14694000000000002</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="2"/>
         <v>3.1603797240205215E-3</v>
       </c>
       <c r="L10" s="4">
@@ -9430,9 +9497,9 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>512</v>
+      <c r="A11" s="1">
+        <f>2^C11</f>
+        <v>128</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
@@ -9459,11 +9526,11 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="J11" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15306</v>
+      </c>
+      <c r="K11" s="4">
         <f t="shared" si="1"/>
-        <v>0.15306</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="2"/>
         <v>2.3479778533878927E-3</v>
       </c>
       <c r="L11" s="4">
@@ -9471,16 +9538,16 @@
         <v>65.188008387366182</v>
       </c>
       <c r="M11" s="34">
-        <f t="shared" ref="M11:M14" si="4">0.0073694</f>
+        <f t="shared" ref="M11:M14" si="3">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N11" s="1"/>
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>1024</v>
+      <c r="A12" s="1">
+        <f>2^C12</f>
+        <v>256</v>
       </c>
       <c r="B12" s="33">
         <v>2</v>
@@ -9507,11 +9574,11 @@
         <v>0.15890000000000001</v>
       </c>
       <c r="J12" s="4">
+        <f t="shared" si="0"/>
+        <v>0.15660000000000002</v>
+      </c>
+      <c r="K12" s="4">
         <f t="shared" si="1"/>
-        <v>0.15660000000000002</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="2"/>
         <v>3.6817115585010152E-3</v>
       </c>
       <c r="L12" s="4">
@@ -9519,13 +9586,17 @@
         <v>42.534565109646636</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N12" s="1"/>
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f>2^C13</f>
+        <v>512</v>
+      </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -9551,11 +9622,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="J13" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16470000000000001</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="1"/>
-        <v>0.16470000000000001</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="2"/>
         <v>2.9111853256019236E-3</v>
       </c>
       <c r="L13" s="4">
@@ -9563,13 +9634,17 @@
         <v>56.574893584264082</v>
       </c>
       <c r="M13" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N13" s="1"/>
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>2^C14</f>
+        <v>1024</v>
+      </c>
       <c r="B14" s="33">
         <v>0</v>
       </c>
@@ -9595,11 +9670,11 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="J14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.16924</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="1"/>
-        <v>0.16924</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="2"/>
         <v>9.0719347440334456E-4</v>
       </c>
       <c r="L14" s="4">
@@ -9607,13 +9682,14 @@
         <v>186.55337011910066</v>
       </c>
       <c r="M14" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N14" s="1"/>
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -9629,7 +9705,7 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
@@ -9669,7 +9745,9 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B17" s="27">
         <v>5</v>
       </c>
@@ -9698,11 +9776,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K17" s="36">
-        <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
+        <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L17" s="36">
-        <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
+        <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M17" s="37">
@@ -9712,7 +9790,9 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
@@ -9723,7 +9803,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4">
         <v>0.15989999999999999</v>
@@ -9741,11 +9821,11 @@
         <v>0.16059999999999999</v>
       </c>
       <c r="K18" s="38">
+        <f t="shared" si="4"/>
+        <v>0.16064000000000001</v>
+      </c>
+      <c r="L18" s="38">
         <f t="shared" si="5"/>
-        <v>0.16064000000000001</v>
-      </c>
-      <c r="L18" s="38">
-        <f t="shared" si="6"/>
         <v>6.8774995456198206E-4</v>
       </c>
       <c r="M18" s="39">
@@ -9755,7 +9835,9 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
@@ -9766,7 +9848,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" s="4">
         <v>0.1608</v>
@@ -9784,11 +9866,11 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="K19" s="40">
+        <f t="shared" si="4"/>
+        <v>0.16004000000000002</v>
+      </c>
+      <c r="L19" s="40">
         <f t="shared" si="5"/>
-        <v>0.16004000000000002</v>
-      </c>
-      <c r="L19" s="40">
-        <f t="shared" si="6"/>
         <v>1.0644247272588116E-3</v>
       </c>
       <c r="M19" s="41">
@@ -9798,7 +9880,9 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
@@ -9809,7 +9893,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="4">
         <v>0.16009999999999999</v>
@@ -9827,11 +9911,11 @@
         <v>0.15959999999999999</v>
       </c>
       <c r="K20" s="38">
+        <f t="shared" si="4"/>
+        <v>0.15951999999999997</v>
+      </c>
+      <c r="L20" s="38">
         <f t="shared" si="5"/>
-        <v>0.15951999999999997</v>
-      </c>
-      <c r="L20" s="38">
-        <f t="shared" si="6"/>
         <v>5.1185935568278176E-4</v>
       </c>
       <c r="M20" s="39">
@@ -9841,7 +9925,9 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B21" s="2">
         <v>5</v>
       </c>
@@ -9852,7 +9938,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F21" s="4">
         <v>0.1714</v>
@@ -9870,11 +9956,11 @@
         <v>0.17080000000000001</v>
       </c>
       <c r="K21" s="40">
+        <f t="shared" si="4"/>
+        <v>0.17078000000000002</v>
+      </c>
+      <c r="L21" s="40">
         <f t="shared" si="5"/>
-        <v>0.17078000000000002</v>
-      </c>
-      <c r="L21" s="40">
-        <f t="shared" si="6"/>
         <v>4.9193495504995673E-4</v>
       </c>
       <c r="M21" s="41">
@@ -9884,7 +9970,9 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B22" s="2">
         <v>5</v>
       </c>
@@ -9895,7 +9983,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F22" s="4">
         <v>0.1983</v>
@@ -9913,11 +10001,11 @@
         <v>0.1963</v>
       </c>
       <c r="K22" s="1">
+        <f t="shared" si="4"/>
+        <v>0.19802</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="5"/>
-        <v>0.19802</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="6"/>
         <v>9.8843310345212614E-4</v>
       </c>
       <c r="M22" s="5">
@@ -9927,14 +10015,14 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
+      <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="L23" s="1"/>
       <c r="M23" s="3"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="26" t="s">
         <v>4</v>
       </c>
@@ -9974,7 +10062,9 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
+      <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B25" s="27">
         <v>5</v>
       </c>
@@ -10003,11 +10093,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K25" s="36">
-        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
+        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L25" s="36">
-        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
+        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M25" s="37">
@@ -10017,7 +10107,9 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="B26" s="28">
         <v>4</v>
       </c>
@@ -10028,7 +10120,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F26" s="4">
         <v>0.1429</v>
@@ -10046,11 +10138,11 @@
         <v>0.14149999999999999</v>
       </c>
       <c r="K26" s="38">
-        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
+        <f t="shared" ref="K26:K30" si="8">AVERAGE(F26:J26)</f>
         <v>0.14265999999999998</v>
       </c>
       <c r="L26" s="38">
-        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
+        <f t="shared" ref="L26:L30" si="9">STDEV(F26:J26)</f>
         <v>6.5802735505448965E-4</v>
       </c>
       <c r="M26" s="39">
@@ -10060,7 +10152,9 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="B27" s="28">
         <v>3</v>
       </c>
@@ -10071,7 +10165,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="4">
         <v>0.1429</v>
@@ -10089,11 +10183,11 @@
         <v>0.1431</v>
       </c>
       <c r="K27" s="40">
+        <f t="shared" si="8"/>
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="L27" s="40">
         <f t="shared" si="9"/>
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="L27" s="40">
-        <f t="shared" si="10"/>
         <v>7.1763500472036645E-4</v>
       </c>
       <c r="M27" s="41">
@@ -10102,7 +10196,9 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
+      <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="B28" s="28">
         <v>2</v>
       </c>
@@ -10113,7 +10209,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28" s="4">
         <v>0.14319999999999999</v>
@@ -10131,11 +10227,11 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K28" s="38">
+        <f t="shared" si="8"/>
+        <v>0.14306000000000002</v>
+      </c>
+      <c r="L28" s="38">
         <f t="shared" si="9"/>
-        <v>0.14306000000000002</v>
-      </c>
-      <c r="L28" s="38">
-        <f t="shared" si="10"/>
         <v>1.3416407864998709E-4</v>
       </c>
       <c r="M28" s="39">
@@ -10144,7 +10240,9 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="51"/>
+      <c r="A29" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B29" s="28">
         <v>1</v>
       </c>
@@ -10155,7 +10253,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F29" s="4">
         <v>0.1431</v>
@@ -10173,11 +10271,11 @@
         <v>0.1426</v>
       </c>
       <c r="K29" s="40">
+        <f t="shared" si="8"/>
+        <v>0.14296000000000003</v>
+      </c>
+      <c r="L29" s="40">
         <f t="shared" si="9"/>
-        <v>0.14296000000000003</v>
-      </c>
-      <c r="L29" s="40">
-        <f t="shared" si="10"/>
         <v>2.1908902300206702E-4</v>
       </c>
       <c r="M29" s="41">
@@ -10186,7 +10284,9 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="51"/>
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B30" s="29">
         <v>0</v>
       </c>
@@ -10197,7 +10297,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="8">
         <v>0.1431</v>
@@ -10215,11 +10315,11 @@
         <v>0.1431</v>
       </c>
       <c r="K30" s="42">
+        <f t="shared" si="8"/>
+        <v>0.14294000000000001</v>
+      </c>
+      <c r="L30" s="42">
         <f t="shared" si="9"/>
-        <v>0.14294000000000001</v>
-      </c>
-      <c r="L30" s="42">
-        <f t="shared" si="10"/>
         <v>3.577708763999642E-4</v>
       </c>
       <c r="M30" s="43">
@@ -10227,24 +10327,34 @@
         <v>399.52944587977737</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
+    </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="B34" s="46" t="s">
+      <c r="A34" s="1"/>
+      <c r="B34" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="49"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
       <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
@@ -10283,6 +10393,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
       <c r="B36" s="33">
         <v>10</v>
       </c>
@@ -10308,11 +10419,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
+        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
+        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
       <c r="L36" s="4">
@@ -10324,6 +10435,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
       <c r="B37" s="2">
         <v>9</v>
       </c>
@@ -10349,11 +10461,11 @@
         <v>9.7530000000000006E-2</v>
       </c>
       <c r="J37" s="4">
+        <f t="shared" si="10"/>
+        <v>9.2901999999999998E-2</v>
+      </c>
+      <c r="K37" s="4">
         <f t="shared" si="11"/>
-        <v>9.2901999999999998E-2</v>
-      </c>
-      <c r="K37" s="4">
-        <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
       <c r="L37" s="4">
@@ -10366,6 +10478,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
       <c r="B38" s="33">
         <v>8</v>
       </c>
@@ -10391,11 +10504,11 @@
         <v>8.1769999999999995E-2</v>
       </c>
       <c r="J38" s="4">
+        <f t="shared" si="10"/>
+        <v>8.1788E-2</v>
+      </c>
+      <c r="K38" s="4">
         <f t="shared" si="11"/>
-        <v>8.1788E-2</v>
-      </c>
-      <c r="K38" s="4">
-        <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
       <c r="L38" s="4">
@@ -10403,13 +10516,13 @@
         <v>1797.6470052696861</v>
       </c>
       <c r="M38" s="34">
-        <f t="shared" ref="M38:M39" si="13">M37/2</f>
+        <f t="shared" ref="M38:M39" si="12">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>43</v>
+      <c r="A39" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B39" s="27">
         <v>7</v>
@@ -10436,11 +10549,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="J39" s="35">
+        <f t="shared" si="10"/>
+        <v>8.1566E-2</v>
+      </c>
+      <c r="K39" s="35">
         <f t="shared" si="11"/>
-        <v>8.1566E-2</v>
-      </c>
-      <c r="K39" s="35">
-        <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="L39" s="35">
@@ -10448,11 +10561,12 @@
         <v>2426.4421596200004</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
       <c r="B40" s="33">
         <v>6</v>
       </c>
@@ -10478,11 +10592,11 @@
         <v>9.2490000000000003E-2</v>
       </c>
       <c r="J40" s="4">
+        <f t="shared" si="10"/>
+        <v>9.2508000000000007E-2</v>
+      </c>
+      <c r="K40" s="4">
         <f t="shared" si="11"/>
-        <v>9.2508000000000007E-2</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="12"/>
         <v>2.6832815729994057E-5</v>
       </c>
       <c r="L40" s="4">
@@ -10495,6 +10609,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>5</v>
       </c>
@@ -10520,11 +10635,11 @@
         <v>0.1183</v>
       </c>
       <c r="J41" s="4">
+        <f t="shared" si="10"/>
+        <v>0.11826</v>
+      </c>
+      <c r="K41" s="4">
         <f t="shared" si="11"/>
-        <v>0.11826</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
       <c r="L41" s="4">
@@ -10532,11 +10647,12 @@
         <v>2159.1223216853032</v>
       </c>
       <c r="M41" s="34">
-        <f t="shared" ref="M41:M46" si="14">M40</f>
+        <f t="shared" ref="M41:M46" si="13">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
       <c r="B42" s="33">
         <v>4</v>
       </c>
@@ -10562,11 +10678,11 @@
         <v>0.13289999999999999</v>
       </c>
       <c r="J42" s="4">
+        <f t="shared" si="10"/>
+        <v>0.13302</v>
+      </c>
+      <c r="K42" s="4">
         <f t="shared" si="11"/>
-        <v>0.13302</v>
-      </c>
-      <c r="K42" s="4">
-        <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
       <c r="L42" s="4">
@@ -10574,11 +10690,12 @@
         <v>1589.8930961365963</v>
       </c>
       <c r="M42" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>3</v>
       </c>
@@ -10604,11 +10721,11 @@
         <v>0.1414</v>
       </c>
       <c r="J43" s="4">
+        <f t="shared" si="10"/>
+        <v>0.1414</v>
+      </c>
+      <c r="K43" s="4">
         <f t="shared" si="11"/>
-        <v>0.1414</v>
-      </c>
-      <c r="K43" s="4">
-        <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
       <c r="L43" s="4">
@@ -10616,11 +10733,12 @@
         <v>1999.6979771957767</v>
       </c>
       <c r="M43" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
       <c r="B44" s="33">
         <v>2</v>
       </c>
@@ -10646,11 +10764,11 @@
         <v>0.24249999999999999</v>
       </c>
       <c r="J44" s="4">
+        <f t="shared" si="10"/>
+        <v>0.24237999999999998</v>
+      </c>
+      <c r="K44" s="4">
         <f t="shared" si="11"/>
-        <v>0.24237999999999998</v>
-      </c>
-      <c r="K44" s="4">
-        <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
       <c r="L44" s="4">
@@ -10658,11 +10776,12 @@
         <v>196.14500937324382</v>
       </c>
       <c r="M44" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
       <c r="B45" s="2">
         <v>1</v>
       </c>
@@ -10688,11 +10807,11 @@
         <v>0.47689999999999999</v>
       </c>
       <c r="J45" s="4">
+        <f t="shared" si="10"/>
+        <v>0.47531999999999996</v>
+      </c>
+      <c r="K45" s="4">
         <f t="shared" si="11"/>
-        <v>0.47531999999999996</v>
-      </c>
-      <c r="K45" s="4">
-        <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
       <c r="L45" s="4">
@@ -10700,11 +10819,12 @@
         <v>346.93966287383802</v>
       </c>
       <c r="M45" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
       <c r="B46" s="33">
         <v>0</v>
       </c>
@@ -10730,11 +10850,11 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="J46" s="4">
+        <f t="shared" si="10"/>
+        <v>1.0197999999999998</v>
+      </c>
+      <c r="K46" s="4">
         <f t="shared" si="11"/>
-        <v>1.0197999999999998</v>
-      </c>
-      <c r="K46" s="4">
-        <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
       <c r="L46" s="4">
@@ -10742,11 +10862,12 @@
         <v>470.39866297393797</v>
       </c>
       <c r="M46" s="34">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -10761,9 +10882,7 @@
       <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="50" t="s">
-        <v>42</v>
-      </c>
+      <c r="A48" s="46"/>
       <c r="B48" s="2" t="s">
         <v>4</v>
       </c>
@@ -10802,7 +10921,9 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+      <c r="A49" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B49" s="27">
         <v>7</v>
       </c>
@@ -10813,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" s="35">
         <v>8.158E-2</v>
@@ -10831,11 +10952,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K49" s="36">
-        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
+        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L49" s="36">
-        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
+        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M49" s="37">
@@ -10844,7 +10965,9 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="50"/>
+      <c r="A50" s="46" t="s">
+        <v>71</v>
+      </c>
       <c r="B50" s="2">
         <v>7</v>
       </c>
@@ -10855,7 +10978,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="4">
         <v>8.1839999999999996E-2</v>
@@ -10873,11 +10996,11 @@
         <v>8.1790000000000002E-2</v>
       </c>
       <c r="K50" s="38">
+        <f t="shared" si="14"/>
+        <v>8.1820000000000004E-2</v>
+      </c>
+      <c r="L50" s="38">
         <f t="shared" si="15"/>
-        <v>8.1820000000000004E-2</v>
-      </c>
-      <c r="L50" s="38">
-        <f t="shared" si="16"/>
         <v>2.7386127875255291E-5</v>
       </c>
       <c r="M50" s="39">
@@ -10886,7 +11009,9 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="50"/>
+      <c r="A51" s="46" t="s">
+        <v>72</v>
+      </c>
       <c r="B51" s="2">
         <v>7</v>
       </c>
@@ -10897,7 +11022,7 @@
         <v>2</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="4">
         <v>8.4190000000000001E-2</v>
@@ -10915,11 +11040,11 @@
         <v>8.4110000000000004E-2</v>
       </c>
       <c r="K51" s="40">
+        <f t="shared" si="14"/>
+        <v>8.4128000000000008E-2</v>
+      </c>
+      <c r="L51" s="40">
         <f t="shared" si="15"/>
-        <v>8.4128000000000008E-2</v>
-      </c>
-      <c r="L51" s="40">
-        <f t="shared" si="16"/>
         <v>3.6331804249170328E-5</v>
       </c>
       <c r="M51" s="41">
@@ -10927,8 +11052,10 @@
         <v>2315.5469908137347</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="50"/>
+    <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="B52" s="2">
         <v>7</v>
       </c>
@@ -10939,7 +11066,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="4">
         <v>8.1720000000000001E-2</v>
@@ -10957,11 +11084,11 @@
         <v>8.1839999999999996E-2</v>
       </c>
       <c r="K52" s="38">
+        <f t="shared" si="14"/>
+        <v>8.1785999999999998E-2</v>
+      </c>
+      <c r="L52" s="38">
         <f t="shared" si="15"/>
-        <v>8.1785999999999998E-2</v>
-      </c>
-      <c r="L52" s="38">
-        <f t="shared" si="16"/>
         <v>5.3665631459991991E-5</v>
       </c>
       <c r="M52" s="39">
@@ -10970,18 +11097,18 @@
       </c>
     </row>
     <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="6"/>
       <c r="L53" s="1"/>
       <c r="M53" s="3"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="6"/>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="28" t="s">
         <v>4</v>
       </c>
@@ -11020,7 +11147,9 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="50"/>
+      <c r="A56" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="B56" s="27">
         <v>7</v>
       </c>
@@ -11031,7 +11160,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" s="35">
         <v>8.158E-2</v>
@@ -11049,11 +11178,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K56" s="36">
-        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
+        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L56" s="36">
-        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
+        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M56" s="37">
@@ -11062,6 +11191,9 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="B57" s="28">
         <v>6</v>
       </c>
@@ -11072,7 +11204,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F57" s="4">
         <v>8.1600000000000006E-2</v>
@@ -11090,11 +11222,11 @@
         <v>8.1549999999999997E-2</v>
       </c>
       <c r="K57" s="38">
+        <f t="shared" si="16"/>
+        <v>8.1574000000000008E-2</v>
+      </c>
+      <c r="L57" s="38">
         <f t="shared" si="17"/>
-        <v>8.1574000000000008E-2</v>
-      </c>
-      <c r="L57" s="38">
-        <f t="shared" si="18"/>
         <v>3.0495901363955644E-5</v>
       </c>
       <c r="M57" s="39">
@@ -11103,6 +11235,9 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B58" s="28">
         <v>5</v>
       </c>
@@ -11131,11 +11266,11 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="K58" s="40">
+        <f t="shared" si="16"/>
+        <v>8.1613999999999992E-2</v>
+      </c>
+      <c r="L58" s="40">
         <f t="shared" si="17"/>
-        <v>8.1613999999999992E-2</v>
-      </c>
-      <c r="L58" s="40">
-        <f t="shared" si="18"/>
         <v>1.3416407864993537E-5</v>
       </c>
       <c r="M58" s="41">
@@ -11144,6 +11279,9 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="46" t="s">
+        <v>67</v>
+      </c>
       <c r="B59" s="28">
         <v>4</v>
       </c>
@@ -11154,7 +11292,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F59" s="4">
         <v>8.1570000000000004E-2</v>
@@ -11172,11 +11310,11 @@
         <v>8.1610000000000002E-2</v>
       </c>
       <c r="K59" s="38">
+        <f t="shared" si="16"/>
+        <v>8.1598000000000004E-2</v>
+      </c>
+      <c r="L59" s="38">
         <f t="shared" si="17"/>
-        <v>8.1598000000000004E-2</v>
-      </c>
-      <c r="L59" s="38">
-        <f t="shared" si="18"/>
         <v>2.6832815729994315E-5</v>
       </c>
       <c r="M59" s="39">
@@ -11185,6 +11323,9 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="46" t="s">
+        <v>66</v>
+      </c>
       <c r="B60" s="28">
         <v>3</v>
       </c>
@@ -11195,7 +11336,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F60" s="4">
         <v>8.1589999999999996E-2</v>
@@ -11213,11 +11354,11 @@
         <v>8.1549999999999997E-2</v>
       </c>
       <c r="K60" s="44">
+        <f t="shared" si="16"/>
+        <v>8.1568000000000002E-2</v>
+      </c>
+      <c r="L60" s="44">
         <f t="shared" si="17"/>
-        <v>8.1568000000000002E-2</v>
-      </c>
-      <c r="L60" s="44">
-        <f t="shared" si="18"/>
         <v>3.6331804249167848E-5</v>
       </c>
       <c r="M60" s="45">
@@ -11226,6 +11367,9 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="46" t="s">
+        <v>68</v>
+      </c>
       <c r="B61" s="28">
         <v>2</v>
       </c>
@@ -11236,7 +11380,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="4">
         <v>8.1559999999999994E-2</v>
@@ -11254,11 +11398,11 @@
         <v>8.1559999999999994E-2</v>
       </c>
       <c r="K61" s="4">
+        <f t="shared" si="16"/>
+        <v>8.156999999999999E-2</v>
+      </c>
+      <c r="L61" s="4">
         <f t="shared" si="17"/>
-        <v>8.156999999999999E-2</v>
-      </c>
-      <c r="L61" s="4">
-        <f t="shared" si="18"/>
         <v>2.4494897427833614E-5</v>
       </c>
       <c r="M61" s="5">
@@ -11267,6 +11411,9 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>69</v>
+      </c>
       <c r="B62" s="28">
         <v>1</v>
       </c>
@@ -11277,7 +11424,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F62" s="4">
         <v>8.1570000000000004E-2</v>
@@ -11308,6 +11455,9 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="B63" s="29">
         <v>0</v>
       </c>
@@ -11318,7 +11468,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F63" s="8">
         <v>8.1610000000000002E-2</v>
@@ -11349,10 +11499,10 @@
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D95" s="49"/>
+      <c r="D95" s="50"/>
     </row>
     <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="11" t="s">
@@ -11412,11 +11562,11 @@
         <v>0.23580000000000001</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
+        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
+        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
@@ -11446,11 +11596,11 @@
         <v>0.18429999999999999</v>
       </c>
       <c r="K99" s="4">
+        <f t="shared" si="18"/>
+        <v>0.20311999999999997</v>
+      </c>
+      <c r="L99" s="4">
         <f t="shared" si="19"/>
-        <v>0.20311999999999997</v>
-      </c>
-      <c r="L99" s="4">
-        <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
@@ -11480,11 +11630,11 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="K100" s="4">
+        <f t="shared" si="18"/>
+        <v>0.15518000000000001</v>
+      </c>
+      <c r="L100" s="4">
         <f t="shared" si="19"/>
-        <v>0.15518000000000001</v>
-      </c>
-      <c r="L100" s="4">
-        <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
@@ -11514,11 +11664,11 @@
         <v>0.1565</v>
       </c>
       <c r="K101" s="4">
+        <f t="shared" si="18"/>
+        <v>0.14364000000000002</v>
+      </c>
+      <c r="L101" s="4">
         <f t="shared" si="19"/>
-        <v>0.14364000000000002</v>
-      </c>
-      <c r="L101" s="4">
-        <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
@@ -11548,11 +11698,11 @@
         <v>0.155</v>
       </c>
       <c r="K102" s="4">
+        <f t="shared" si="18"/>
+        <v>0.15342</v>
+      </c>
+      <c r="L102" s="4">
         <f t="shared" si="19"/>
-        <v>0.15342</v>
-      </c>
-      <c r="L102" s="4">
-        <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
@@ -11582,11 +11732,11 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="K103" s="4">
+        <f t="shared" si="18"/>
+        <v>0.13364000000000001</v>
+      </c>
+      <c r="L103" s="4">
         <f t="shared" si="19"/>
-        <v>0.13364000000000001</v>
-      </c>
-      <c r="L103" s="4">
-        <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
@@ -11616,11 +11766,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K104" s="4">
+        <f t="shared" si="18"/>
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="L104" s="4">
         <f t="shared" si="19"/>
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="L104" s="4">
-        <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
@@ -11650,11 +11800,11 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="K105" s="4">
+        <f t="shared" si="18"/>
+        <v>0.14487999999999998</v>
+      </c>
+      <c r="L105" s="4">
         <f t="shared" si="19"/>
-        <v>0.14487999999999998</v>
-      </c>
-      <c r="L105" s="4">
-        <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
@@ -11684,11 +11834,11 @@
         <v>0.1552</v>
       </c>
       <c r="K106" s="4">
+        <f t="shared" si="18"/>
+        <v>0.15722</v>
+      </c>
+      <c r="L106" s="4">
         <f t="shared" si="19"/>
-        <v>0.15722</v>
-      </c>
-      <c r="L106" s="4">
-        <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
@@ -11718,11 +11868,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="K107" s="4">
+        <f t="shared" si="18"/>
+        <v>0.16006000000000001</v>
+      </c>
+      <c r="L107" s="4">
         <f t="shared" si="19"/>
-        <v>0.16006000000000001</v>
-      </c>
-      <c r="L107" s="4">
-        <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
@@ -11752,19 +11902,18 @@
         <v>0.16880000000000001</v>
       </c>
       <c r="K108" s="4">
+        <f t="shared" si="18"/>
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="L108" s="4">
         <f t="shared" si="19"/>
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="L108" s="4">
-        <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="B34:M34"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A48:A56"/>
     <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11806,18 +11955,18 @@
   <sheetData>
     <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="5:14" x14ac:dyDescent="0.3">
       <c r="E4" s="11" t="s">
@@ -12622,21 +12771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -12865,10 +12999,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12891,20 +13051,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA005DCB-CA66-45AA-814F-4D0C3210AF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5EE07-932A-4878-B713-9F1C76E42FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9076,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y48" sqref="Y48"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9161,7 +9161,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <f>2^C4</f>
+        <f t="shared" ref="A4:A14" si="0">2^C4</f>
         <v>1</v>
       </c>
       <c r="B4" s="33">
@@ -9190,11 +9190,11 @@
         <v>0.22800000000000001</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J14" si="0">AVERAGE(E4:I4)</f>
+        <f t="shared" ref="J4:J14" si="1">AVERAGE(E4:I4)</f>
         <v>0.23582</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K14" si="1">STDEV(E4:I4)</f>
+        <f t="shared" ref="K4:K14" si="2">STDEV(E4:I4)</f>
         <v>1.5581784236729764E-2</v>
       </c>
       <c r="L4" s="4">
@@ -9209,7 +9209,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <f>2^C5</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="2">
@@ -9238,11 +9238,11 @@
         <v>0.22819999999999999</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21251999999999999</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1941817282139257E-2</v>
       </c>
       <c r="L5" s="4">
@@ -9258,7 +9258,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <f>2^C6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="33">
@@ -9286,11 +9286,11 @@
         <v>0.15920000000000001</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15418000000000001</v>
       </c>
       <c r="K6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.8667117116088953E-3</v>
       </c>
       <c r="L6" s="4">
@@ -9298,7 +9298,7 @@
         <v>15.62628001166753</v>
       </c>
       <c r="M6" s="34">
-        <f t="shared" ref="M6:M9" si="2">M5/2</f>
+        <f t="shared" ref="M6:M9" si="3">M5/2</f>
         <v>5.8955E-2</v>
       </c>
       <c r="N6" s="1"/>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <f>2^C7</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B7" s="2">
@@ -9334,11 +9334,11 @@
         <v>0.1532</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15392</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5772077913897369E-3</v>
       </c>
       <c r="L7" s="4">
@@ -9346,7 +9346,7 @@
         <v>59.723550624918751</v>
       </c>
       <c r="M7" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.94775E-2</v>
       </c>
       <c r="N7" s="1"/>
@@ -9354,7 +9354,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <f>2^C8</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B8" s="33">
@@ -9382,11 +9382,11 @@
         <v>0.15310000000000001</v>
       </c>
       <c r="J8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15322</v>
       </c>
       <c r="K8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0894952959971894E-3</v>
       </c>
       <c r="L8" s="4">
@@ -9394,7 +9394,7 @@
         <v>140.63392523394177</v>
       </c>
       <c r="M8" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.473875E-2</v>
       </c>
       <c r="N8" s="1"/>
@@ -9402,7 +9402,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <f>2^C9</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B9" s="27">
@@ -9430,11 +9430,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="J9" s="35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14287999999999998</v>
       </c>
       <c r="K9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="L9" s="35">
@@ -9442,7 +9442,7 @@
         <v>310.31553022993637</v>
       </c>
       <c r="M9" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.3693750000000001E-3</v>
       </c>
       <c r="N9" s="1"/>
@@ -9450,7 +9450,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <f>2^C10</f>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="B10" s="33">
@@ -9478,11 +9478,11 @@
         <v>0.14929999999999999</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14694000000000002</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1603797240205215E-3</v>
       </c>
       <c r="L10" s="4">
@@ -9498,7 +9498,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <f>2^C11</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="B11" s="2">
@@ -9526,11 +9526,11 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="J11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15306</v>
       </c>
       <c r="K11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3479778533878927E-3</v>
       </c>
       <c r="L11" s="4">
@@ -9538,7 +9538,7 @@
         <v>65.188008387366182</v>
       </c>
       <c r="M11" s="34">
-        <f t="shared" ref="M11:M14" si="3">0.0073694</f>
+        <f t="shared" ref="M11:M14" si="4">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N11" s="1"/>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <f>2^C12</f>
+        <f t="shared" si="0"/>
         <v>256</v>
       </c>
       <c r="B12" s="33">
@@ -9574,11 +9574,11 @@
         <v>0.15890000000000001</v>
       </c>
       <c r="J12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15660000000000002</v>
       </c>
       <c r="K12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6817115585010152E-3</v>
       </c>
       <c r="L12" s="4">
@@ -9586,7 +9586,7 @@
         <v>42.534565109646636</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N12" s="1"/>
@@ -9594,7 +9594,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <f>2^C13</f>
+        <f t="shared" si="0"/>
         <v>512</v>
       </c>
       <c r="B13" s="2">
@@ -9622,11 +9622,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16470000000000001</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9111853256019236E-3</v>
       </c>
       <c r="L13" s="4">
@@ -9634,7 +9634,7 @@
         <v>56.574893584264082</v>
       </c>
       <c r="M13" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N13" s="1"/>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <f>2^C14</f>
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
       <c r="B14" s="33">
@@ -9670,11 +9670,11 @@
         <v>0.16769999999999999</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16924</v>
       </c>
       <c r="K14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0719347440334456E-4</v>
       </c>
       <c r="L14" s="4">
@@ -9682,7 +9682,7 @@
         <v>186.55337011910066</v>
       </c>
       <c r="M14" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
       <c r="N14" s="1"/>
@@ -9776,11 +9776,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K17" s="36">
-        <f t="shared" ref="K17:K22" si="4">AVERAGE(F17:J17)</f>
+        <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L17" s="36">
-        <f t="shared" ref="L17:L22" si="5">STDEV(F17:J17)</f>
+        <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M17" s="37">
@@ -9821,11 +9821,11 @@
         <v>0.16059999999999999</v>
       </c>
       <c r="K18" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16064000000000001</v>
       </c>
       <c r="L18" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.8774995456198206E-4</v>
       </c>
       <c r="M18" s="39">
@@ -9866,11 +9866,11 @@
         <v>0.15989999999999999</v>
       </c>
       <c r="K19" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16004000000000002</v>
       </c>
       <c r="L19" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0644247272588116E-3</v>
       </c>
       <c r="M19" s="41">
@@ -9911,11 +9911,11 @@
         <v>0.15959999999999999</v>
       </c>
       <c r="K20" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15951999999999997</v>
       </c>
       <c r="L20" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.1185935568278176E-4</v>
       </c>
       <c r="M20" s="39">
@@ -9956,11 +9956,11 @@
         <v>0.17080000000000001</v>
       </c>
       <c r="K21" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17078000000000002</v>
       </c>
       <c r="L21" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.9193495504995673E-4</v>
       </c>
       <c r="M21" s="41">
@@ -10001,11 +10001,11 @@
         <v>0.1963</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19802</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.8843310345212614E-4</v>
       </c>
       <c r="M22" s="5">
@@ -10093,11 +10093,11 @@
         <v>0.14230000000000001</v>
       </c>
       <c r="K25" s="36">
-        <f t="shared" ref="K25" si="6">AVERAGE(F25:J25)</f>
+        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
         <v>0.14287999999999998</v>
       </c>
       <c r="L25" s="36">
-        <f t="shared" ref="L25" si="7">STDEV(F25:J25)</f>
+        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
         <v>4.6043457732885401E-4</v>
       </c>
       <c r="M25" s="37">
@@ -10138,11 +10138,11 @@
         <v>0.14149999999999999</v>
       </c>
       <c r="K26" s="38">
-        <f t="shared" ref="K26:K30" si="8">AVERAGE(F26:J26)</f>
+        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
         <v>0.14265999999999998</v>
       </c>
       <c r="L26" s="38">
-        <f t="shared" ref="L26:L30" si="9">STDEV(F26:J26)</f>
+        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
         <v>6.5802735505448965E-4</v>
       </c>
       <c r="M26" s="39">
@@ -10183,11 +10183,11 @@
         <v>0.1431</v>
       </c>
       <c r="K27" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14230000000000001</v>
       </c>
       <c r="L27" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.1763500472036645E-4</v>
       </c>
       <c r="M27" s="41">
@@ -10227,11 +10227,11 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="K28" s="38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14306000000000002</v>
       </c>
       <c r="L28" s="38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.3416407864998709E-4</v>
       </c>
       <c r="M28" s="39">
@@ -10271,11 +10271,11 @@
         <v>0.1426</v>
       </c>
       <c r="K29" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14296000000000003</v>
       </c>
       <c r="L29" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.1908902300206702E-4</v>
       </c>
       <c r="M29" s="41">
@@ -10315,11 +10315,11 @@
         <v>0.1431</v>
       </c>
       <c r="K30" s="42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.14294000000000001</v>
       </c>
       <c r="L30" s="42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.577708763999642E-4</v>
       </c>
       <c r="M30" s="43">
@@ -10419,11 +10419,11 @@
         <v>0.12429999999999999</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" ref="J36:J46" si="10">AVERAGE(E36:I36)</f>
+        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
         <v>0.12426</v>
       </c>
       <c r="K36" s="4">
-        <f t="shared" ref="K36:K46" si="11">STDEV(E36:I36)</f>
+        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
         <v>3.2093613071762674E-4</v>
       </c>
       <c r="L36" s="4">
@@ -10461,11 +10461,11 @@
         <v>9.7530000000000006E-2</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2901999999999998E-2</v>
       </c>
       <c r="K37" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
       <c r="L37" s="4">
@@ -10504,11 +10504,11 @@
         <v>8.1769999999999995E-2</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1788E-2</v>
       </c>
       <c r="K38" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
       <c r="L38" s="4">
@@ -10516,7 +10516,7 @@
         <v>1797.6470052696861</v>
       </c>
       <c r="M38" s="34">
-        <f t="shared" ref="M38:M39" si="12">M37/2</f>
+        <f t="shared" ref="M38:M39" si="13">M37/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
@@ -10549,11 +10549,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="J39" s="35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.1566E-2</v>
       </c>
       <c r="K39" s="35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="L39" s="35">
@@ -10561,7 +10561,7 @@
         <v>2426.4421596200004</v>
       </c>
       <c r="M39" s="34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10592,11 +10592,11 @@
         <v>9.2490000000000003E-2</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.2508000000000007E-2</v>
       </c>
       <c r="K40" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6832815729994057E-5</v>
       </c>
       <c r="L40" s="4">
@@ -10635,11 +10635,11 @@
         <v>0.1183</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.11826</v>
       </c>
       <c r="K41" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4772255750518179E-5</v>
       </c>
       <c r="L41" s="4">
@@ -10647,7 +10647,7 @@
         <v>2159.1223216853032</v>
       </c>
       <c r="M41" s="34">
-        <f t="shared" ref="M41:M46" si="13">M40</f>
+        <f t="shared" ref="M41:M46" si="14">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10678,11 +10678,11 @@
         <v>0.13289999999999999</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.13302</v>
       </c>
       <c r="K42" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.366600265340829E-5</v>
       </c>
       <c r="L42" s="4">
@@ -10690,7 +10690,7 @@
         <v>1589.8930961365963</v>
       </c>
       <c r="M42" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10721,11 +10721,11 @@
         <v>0.1414</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.1414</v>
       </c>
       <c r="K43" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0710678118646961E-5</v>
       </c>
       <c r="L43" s="4">
@@ -10733,7 +10733,7 @@
         <v>1999.6979771957767</v>
       </c>
       <c r="M43" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10764,11 +10764,11 @@
         <v>0.24249999999999999</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.24237999999999998</v>
       </c>
       <c r="K44" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2357184145265492E-3</v>
       </c>
       <c r="L44" s="4">
@@ -10776,7 +10776,7 @@
         <v>196.14500937324382</v>
       </c>
       <c r="M44" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10807,11 +10807,11 @@
         <v>0.47689999999999999</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.47531999999999996</v>
       </c>
       <c r="K45" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3700364958642577E-3</v>
       </c>
       <c r="L45" s="4">
@@ -10819,7 +10819,7 @@
         <v>346.93966287383802</v>
       </c>
       <c r="M45" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10850,11 +10850,11 @@
         <v>1.0209999999999999</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.0197999999999998</v>
       </c>
       <c r="K46" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.167948338867836E-3</v>
       </c>
       <c r="L46" s="4">
@@ -10862,7 +10862,7 @@
         <v>470.39866297393797</v>
       </c>
       <c r="M46" s="34">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
@@ -10952,11 +10952,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K49" s="36">
-        <f t="shared" ref="K49:K52" si="14">AVERAGE(F49:J49)</f>
+        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L49" s="36">
-        <f t="shared" ref="L49:L52" si="15">STDEV(F49:J49)</f>
+        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M49" s="37">
@@ -10996,11 +10996,11 @@
         <v>8.1790000000000002E-2</v>
       </c>
       <c r="K50" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.1820000000000004E-2</v>
       </c>
       <c r="L50" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.7386127875255291E-5</v>
       </c>
       <c r="M50" s="39">
@@ -11040,11 +11040,11 @@
         <v>8.4110000000000004E-2</v>
       </c>
       <c r="K51" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.4128000000000008E-2</v>
       </c>
       <c r="L51" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.6331804249170328E-5</v>
       </c>
       <c r="M51" s="41">
@@ -11084,11 +11084,11 @@
         <v>8.1839999999999996E-2</v>
       </c>
       <c r="K52" s="38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.1785999999999998E-2</v>
       </c>
       <c r="L52" s="38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.3665631459991991E-5</v>
       </c>
       <c r="M52" s="39">
@@ -11178,11 +11178,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K56" s="36">
-        <f t="shared" ref="K56:K61" si="16">AVERAGE(F56:J56)</f>
+        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L56" s="36">
-        <f t="shared" ref="L56:L61" si="17">STDEV(F56:J56)</f>
+        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M56" s="37">
@@ -11222,11 +11222,11 @@
         <v>8.1549999999999997E-2</v>
       </c>
       <c r="K57" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1574000000000008E-2</v>
       </c>
       <c r="L57" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.0495901363955644E-5</v>
       </c>
       <c r="M57" s="39">
@@ -11266,11 +11266,11 @@
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="K58" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1613999999999992E-2</v>
       </c>
       <c r="L58" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1.3416407864993537E-5</v>
       </c>
       <c r="M58" s="41">
@@ -11310,11 +11310,11 @@
         <v>8.1610000000000002E-2</v>
       </c>
       <c r="K59" s="38">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1598000000000004E-2</v>
       </c>
       <c r="L59" s="38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.6832815729994315E-5</v>
       </c>
       <c r="M59" s="39">
@@ -11354,11 +11354,11 @@
         <v>8.1549999999999997E-2</v>
       </c>
       <c r="K60" s="44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.1568000000000002E-2</v>
       </c>
       <c r="L60" s="44">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6331804249167848E-5</v>
       </c>
       <c r="M60" s="45">
@@ -11398,11 +11398,11 @@
         <v>8.1559999999999994E-2</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.156999999999999E-2</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2.4494897427833614E-5</v>
       </c>
       <c r="M61" s="5">
@@ -11562,11 +11562,11 @@
         <v>0.23580000000000001</v>
       </c>
       <c r="K98" s="4">
-        <f t="shared" ref="K98:K108" si="18">AVERAGE(F98:J98)</f>
+        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
         <v>0.23529999999999998</v>
       </c>
       <c r="L98" s="4">
-        <f t="shared" ref="L98:L108" si="19">STDEV(F98:J98)</f>
+        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
         <v>7.6720271115266582E-3</v>
       </c>
     </row>
@@ -11596,11 +11596,11 @@
         <v>0.18429999999999999</v>
       </c>
       <c r="K99" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.20311999999999997</v>
       </c>
       <c r="L99" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
@@ -11630,11 +11630,11 @@
         <v>0.15490000000000001</v>
       </c>
       <c r="K100" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15518000000000001</v>
       </c>
       <c r="L100" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
@@ -11664,11 +11664,11 @@
         <v>0.1565</v>
       </c>
       <c r="K101" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14364000000000002</v>
       </c>
       <c r="L101" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
@@ -11698,11 +11698,11 @@
         <v>0.155</v>
       </c>
       <c r="K102" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15342</v>
       </c>
       <c r="L102" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
@@ -11732,11 +11732,11 @@
         <v>0.14280000000000001</v>
       </c>
       <c r="K103" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13364000000000001</v>
       </c>
       <c r="L103" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
@@ -11766,11 +11766,11 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="K104" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.13189999999999999</v>
       </c>
       <c r="L104" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
@@ -11800,11 +11800,11 @@
         <v>0.15379999999999999</v>
       </c>
       <c r="K105" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.14487999999999998</v>
       </c>
       <c r="L105" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
@@ -11834,11 +11834,11 @@
         <v>0.1552</v>
       </c>
       <c r="K106" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.15722</v>
       </c>
       <c r="L106" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
@@ -11868,11 +11868,11 @@
         <v>0.16619999999999999</v>
       </c>
       <c r="K107" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.16006000000000001</v>
       </c>
       <c r="L107" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
@@ -11902,11 +11902,11 @@
         <v>0.16880000000000001</v>
       </c>
       <c r="K108" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.17069999999999999</v>
       </c>
       <c r="L108" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
@@ -12771,6 +12771,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -12999,36 +13014,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13051,9 +13040,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCuda.xlsx
+++ b/proj2AAD/incOrderCuda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C5EE07-932A-4878-B713-9F1C76E42FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146E71C2-A88F-47B7-9011-41EF5FEE90D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5868" yWindow="-36" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Colunas" sheetId="1" r:id="rId1"/>
@@ -3898,8 +3898,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="0.21000000000000002"/>
-          <c:min val="0.1426"/>
+          <c:max val="1.2"/>
+          <c:min val="5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4274,8 +4274,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="0.14380000000000001"/>
-          <c:min val="0.14220000000000002"/>
+          <c:max val="1.2"/>
+          <c:min val="5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4637,8 +4637,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="8.4600000000000022E-2"/>
-          <c:min val="8.1500000000000017E-2"/>
+          <c:max val="1.5"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5019,8 +5019,8 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="8.1622000000000028E-2"/>
-          <c:min val="8.1565000000000026E-2"/>
+          <c:max val="1.5"/>
+          <c:min val="1.0000000000000002E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -9076,8 +9076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12771,21 +12771,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -13014,10 +12999,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13040,20 +13051,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>